--- a/Cards/OFWELITES2.xlsx
+++ b/Cards/OFWELITES2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\website\OFW Elites\Cards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B237D6BB-1497-4FE4-AE98-D6E8F41C5290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26731E9B-975D-42F5-AE9F-1F7D67F9E1C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="9" xr2:uid="{D063F3AD-9D9C-4914-A2D2-97CFBC4909E9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{D063F3AD-9D9C-4914-A2D2-97CFBC4909E9}"/>
   </bookViews>
   <sheets>
     <sheet name="WAR 1" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,8 @@
     <sheet name="WAR 7" sheetId="10" r:id="rId7"/>
     <sheet name="WAR 8" sheetId="11" r:id="rId8"/>
     <sheet name="WAR 9" sheetId="12" r:id="rId9"/>
-    <sheet name="STATS" sheetId="6" r:id="rId10"/>
+    <sheet name="WAR 10" sheetId="13" r:id="rId10"/>
+    <sheet name="STATS" sheetId="6" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,30 +45,8 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1140" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="176">
   <si>
     <t>OE ⚔️Meliodas⚔️</t>
   </si>
@@ -589,6 +568,12 @@
   </si>
   <si>
     <t>Evil Witch</t>
+  </si>
+  <si>
+    <t>#8GCL2QJQR</t>
+  </si>
+  <si>
+    <t>Gabo⭐</t>
   </si>
 </sst>
 </file>
@@ -2295,11 +2280,840 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{170D9E5E-2166-4C64-86AE-5F552B8DA9B7}">
+  <dimension ref="A1:H51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="29.140625" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="11">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="27" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="30">
+        <f>SUM(F2:F51)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="27" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="11">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="25">
+        <f>COUNTIF(D2:E51, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
+        <v>9</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <v>11</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
+        <v>12</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
+        <v>13</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
+        <v>14</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
+        <v>15</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
+        <v>16</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
+        <v>17</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
+        <v>18</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="11">
+        <v>19</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="11">
+        <v>20</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="11">
+        <v>21</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="11">
+        <v>22</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="11">
+        <v>23</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="11">
+        <v>24</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="11">
+        <v>25</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="11">
+        <v>26</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="11">
+        <v>27</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="11">
+        <v>28</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="11">
+        <v>29</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="11">
+        <v>30</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="11">
+        <v>31</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="11">
+        <v>32</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="11">
+        <v>33</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="11">
+        <v>34</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="11">
+        <v>35</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="11">
+        <v>36</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="11">
+        <v>37</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="11">
+        <v>38</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="11">
+        <v>39</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="11">
+        <v>40</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="11">
+        <v>41</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="11">
+        <v>42</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="11">
+        <v>43</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="14"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="11">
+        <v>44</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="14"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="11">
+        <v>45</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="14"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="11">
+        <v>46</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="11">
+        <v>47</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="11">
+        <v>48</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="11">
+        <v>49</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="11">
+        <v>50</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834C190B-3725-4BAE-B656-197A1D13BE52}">
-  <dimension ref="A1:J65"/>
+  <dimension ref="A1:J66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E14" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2344,27 +3158,29 @@
       <c r="C2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="20" cm="1">
-        <f t="array" aca="1" ref="D2" ca="1">ROUND(
-  SUM(
-    IFERROR(VLOOKUP(C2,'WAR 1'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C2,'WAR 1'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C2,'WAR 2'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C2,'WAR 2'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C2,'WAR 3'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C2,'WAR 3'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C2,'WAR 4'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C2,'WAR 4'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C2,'WAR 5'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C2,'WAR 5'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C2,'WAR 6'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C2,'WAR 6'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C2,'WAR 7'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C2,'WAR 7'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C2,'WAR 8'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C2,'WAR 8'!C:E,3,FALSE),0),
-   IFERROR(VLOOKUP(C2,'WAR 9'!C:E,2,FALSE),0),
-   IFERROR(VLOOPUP(C2,'WAR 9'!C:E,3,FALSE),0)
+      <c r="D2" s="20">
+        <f>ROUND(
+  (
+    IFERROR(VLOOKUP(C2,'WAR 1'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C2,'WAR 1'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C2,'WAR 2'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C2,'WAR 2'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C2,'WAR 3'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C2,'WAR 3'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C2,'WAR 4'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C2,'WAR 4'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C2,'WAR 5'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C2,'WAR 5'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C2,'WAR 6'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C2,'WAR 6'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C2,'WAR 7'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C2,'WAR 7'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C2,'WAR 8'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C2,'WAR 8'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C2,'WAR 9'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C2,'WAR 9'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C2,'WAR 10'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C2,'WAR 10'!C:E,3,FALSE),0)
   ) /
   (
     COUNTIF('WAR 1'!C:C,C2)*2 +
@@ -2375,24 +3191,24 @@
     COUNTIF('WAR 6'!C:C,C2)*2 +
     COUNTIF('WAR 7'!C:C,C2)*2 +
     COUNTIF('WAR 8'!C:C,C2)*2 +
-    COUNTIF('WAR 9'!C:C,C2)*2
+    COUNTIF('WAR 9'!C:C,C2)*2 +
+    COUNTIF('WAR 10'!C:C,C2)*2
   ),
 2)</f>
-        <v>65.61</v>
+        <v>69.05</v>
       </c>
       <c r="E2" s="21">
-        <f>SUM(
-  IFERROR(VLOOKUP(C2,'WAR 1'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C2,'WAR 2'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C2,'WAR 3'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C2,'WAR 4'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C2,'WAR 5'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C2,'WAR 6'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C2,'WAR 7'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C2,'WAR 8'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C2,'WAR 9'!C:F,4,FALSE),0)
-)</f>
-        <v>9</v>
+        <f>IFERROR(VLOOKUP(C2,'WAR 1'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C2,'WAR 2'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C2,'WAR 3'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C2,'WAR 4'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C2,'WAR 5'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C2,'WAR 6'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C2,'WAR 7'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C2,'WAR 8'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C2,'WAR 9'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C2,'WAR 10'!C:F,4,FALSE),0)</f>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
         <v>123</v>
@@ -2407,7 +3223,8 @@
  IFERROR((IF(MATCH(C2,'WAR 6'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C2,'WAR 7'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C2,'WAR 8'!C:C,0),1,0)),0) +
- IFERROR((IF(MATCH(C2,'WAR 9'!C:C,0),1,0)),0)
+ IFERROR((IF(MATCH(C2,'WAR 9'!C:C,0),1,0)),0) +
+ IFERROR((IF(MATCH(C2,'WAR 10'!C:C,0),1,0)),0)
 ) &amp; " " &amp;
  IFERROR("(" &amp; (MATCH(C2,'WAR 1'!C:C,0)-1) &amp; " 1)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C2,'WAR 2'!C:C,0)-1) &amp; " 2)", "") &amp;
@@ -2417,8 +3234,9 @@
  IFERROR(" (" &amp; (MATCH(C2,'WAR 6'!C:C,0)-1) &amp; " 6)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C2,'WAR 7'!C:C,0)-1) &amp; " 7)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C2,'WAR 8'!C:C,0)-1) &amp; " 8)", "") &amp;
- IFERROR(" (" &amp; (MATCH(C2,'WAR 9'!C:C,0)-1) &amp; " 9)", "")</f>
-        <v>9 (1 1) (1 2) (1 3) (1 4) (1 5) (1 6) (1 7) (1 8) (2 9)</v>
+ IFERROR(" (" &amp; (MATCH(C2,'WAR 9'!C:C,0)-1) &amp; " 9)", "") &amp;
+ IFERROR(" (" &amp; (MATCH(C2,'WAR 10'!C:C,0)-1) &amp; " 10)", "")</f>
+        <v>10 (1 1) (1 2) (1 3) (1 4) (1 5) (1 6) (1 7) (1 8) (2 9) (2 10)</v>
       </c>
       <c r="I2" s="16" t="s">
         <v>116</v>
@@ -2437,27 +3255,29 @@
       <c r="C3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="20" cm="1">
-        <f t="array" aca="1" ref="D3" ca="1">ROUND(
-  SUM(
-    IFERROR(VLOOKUP(C3,'WAR 1'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C3,'WAR 1'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C3,'WAR 2'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C3,'WAR 2'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C3,'WAR 3'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C3,'WAR 3'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C3,'WAR 4'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C3,'WAR 4'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C3,'WAR 5'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C3,'WAR 5'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C3,'WAR 6'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C3,'WAR 6'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C3,'WAR 7'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C3,'WAR 7'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C3,'WAR 8'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C3,'WAR 8'!C:E,3,FALSE),0),
-   IFERROR(VLOOKUP(C3,'WAR 9'!C:E,2,FALSE),0),
-   IFERROR(VLOOPUP(C3,'WAR 9'!C:E,3,FALSE),0)
+      <c r="D3" s="20">
+        <f>ROUND(
+  (
+    IFERROR(VLOOKUP(C3,'WAR 1'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C3,'WAR 1'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C3,'WAR 2'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C3,'WAR 2'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C3,'WAR 3'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C3,'WAR 3'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C3,'WAR 4'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C3,'WAR 4'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C3,'WAR 5'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C3,'WAR 5'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C3,'WAR 6'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C3,'WAR 6'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C3,'WAR 7'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C3,'WAR 7'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C3,'WAR 8'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C3,'WAR 8'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C3,'WAR 9'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C3,'WAR 9'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C3,'WAR 10'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C3,'WAR 10'!C:E,3,FALSE),0)
   ) /
   (
     COUNTIF('WAR 1'!C:C,C3)*2 +
@@ -2468,24 +3288,24 @@
     COUNTIF('WAR 6'!C:C,C3)*2 +
     COUNTIF('WAR 7'!C:C,C3)*2 +
     COUNTIF('WAR 8'!C:C,C3)*2 +
-    COUNTIF('WAR 9'!C:C,C3)*2
+    COUNTIF('WAR 9'!C:C,C3)*2 +
+    COUNTIF('WAR 10'!C:C,C3)*2
   ),
 2)</f>
-        <v>48.89</v>
+        <v>54</v>
       </c>
       <c r="E3" s="21">
-        <f>SUM(
-  IFERROR(VLOOKUP(C3,'WAR 1'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C3,'WAR 2'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C3,'WAR 3'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C3,'WAR 4'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C3,'WAR 5'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C3,'WAR 6'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C3,'WAR 7'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C3,'WAR 8'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C3,'WAR 9'!C:F,4,FALSE),0)
-)</f>
-        <v>6</v>
+        <f>IFERROR(VLOOKUP(C3,'WAR 1'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C3,'WAR 2'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C3,'WAR 3'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C3,'WAR 4'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C3,'WAR 5'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C3,'WAR 6'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C3,'WAR 7'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C3,'WAR 8'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C3,'WAR 9'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C3,'WAR 10'!C:F,4,FALSE),0)</f>
+        <v>8</v>
       </c>
       <c r="G3" t="s">
         <v>140</v>
@@ -2500,7 +3320,8 @@
  IFERROR((IF(MATCH(C3,'WAR 6'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C3,'WAR 7'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C3,'WAR 8'!C:C,0),1,0)),0) +
- IFERROR((IF(MATCH(C3,'WAR 9'!C:C,0),1,0)),0)
+ IFERROR((IF(MATCH(C3,'WAR 9'!C:C,0),1,0)),0) +
+ IFERROR((IF(MATCH(C3,'WAR 10'!C:C,0),1,0)),0)
 ) &amp; " " &amp;
  IFERROR("(" &amp; (MATCH(C3,'WAR 1'!C:C,0)-1) &amp; " 1)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C3,'WAR 2'!C:C,0)-1) &amp; " 2)", "") &amp;
@@ -2510,16 +3331,17 @@
  IFERROR(" (" &amp; (MATCH(C3,'WAR 6'!C:C,0)-1) &amp; " 6)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C3,'WAR 7'!C:C,0)-1) &amp; " 7)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C3,'WAR 8'!C:C,0)-1) &amp; " 8)", "") &amp;
- IFERROR(" (" &amp; (MATCH(C3,'WAR 9'!C:C,0)-1) &amp; " 9)", "")</f>
-        <v>9 (2 1) (2 2) (2 3) (2 4) (2 5) (2 6) (2 7) (2 8) (3 9)</v>
+ IFERROR(" (" &amp; (MATCH(C3,'WAR 9'!C:C,0)-1) &amp; " 9)", "") &amp;
+ IFERROR(" (" &amp; (MATCH(C3,'WAR 10'!C:C,0)-1) &amp; " 10)", "")</f>
+        <v>10 (2 1) (2 2) (2 3) (2 4) (2 5) (2 6) (2 7) (2 8) (3 9) (3 10)</v>
       </c>
       <c r="I3" s="18">
-        <f>SUM(E2:E65)</f>
-        <v>381</v>
+        <f>SUM(E2:E66)</f>
+        <v>431</v>
       </c>
       <c r="J3" s="19">
-        <f>'WAR 1'!F53+'WAR 2'!F53+'WAR 3'!F53+'WAR 4'!H3+'WAR 5'!H4+'WAR 6'!H4+'WAR 7'!H4+'WAR 8'!H4+'WAR 9'!H4</f>
-        <v>381</v>
+        <f>'WAR 1'!F53+'WAR 2'!F53+'WAR 3'!F53+'WAR 4'!H3+'WAR 5'!H4+'WAR 6'!H4+'WAR 7'!H4+'WAR 8'!H4+'WAR 9'!H4+'WAR 10'!H4</f>
+        <v>431</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2532,27 +3354,29 @@
       <c r="C4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="20" cm="1">
-        <f t="array" aca="1" ref="D4" ca="1">ROUND(
-  SUM(
-    IFERROR(VLOOKUP(C4,'WAR 1'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C4,'WAR 1'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C4,'WAR 2'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C4,'WAR 2'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C4,'WAR 3'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C4,'WAR 3'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C4,'WAR 4'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C4,'WAR 4'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C4,'WAR 5'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C4,'WAR 5'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C4,'WAR 6'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C4,'WAR 6'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C4,'WAR 7'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C4,'WAR 7'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C4,'WAR 8'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C4,'WAR 8'!C:E,3,FALSE),0),
-   IFERROR(VLOOKUP(C4,'WAR 9'!C:E,2,FALSE),0),
-   IFERROR(VLOOPUP(C4,'WAR 9'!C:E,3,FALSE),0)
+      <c r="D4" s="20">
+        <f>ROUND(
+  (
+    IFERROR(VLOOKUP(C4,'WAR 1'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C4,'WAR 1'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C4,'WAR 2'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C4,'WAR 2'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C4,'WAR 3'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C4,'WAR 3'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C4,'WAR 4'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C4,'WAR 4'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C4,'WAR 5'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C4,'WAR 5'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C4,'WAR 6'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C4,'WAR 6'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C4,'WAR 7'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C4,'WAR 7'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C4,'WAR 8'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C4,'WAR 8'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C4,'WAR 9'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C4,'WAR 9'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C4,'WAR 10'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C4,'WAR 10'!C:E,3,FALSE),0)
   ) /
   (
     COUNTIF('WAR 1'!C:C,C4)*2 +
@@ -2563,24 +3387,24 @@
     COUNTIF('WAR 6'!C:C,C4)*2 +
     COUNTIF('WAR 7'!C:C,C4)*2 +
     COUNTIF('WAR 8'!C:C,C4)*2 +
-    COUNTIF('WAR 9'!C:C,C4)*2
+    COUNTIF('WAR 9'!C:C,C4)*2 +
+    COUNTIF('WAR 10'!C:C,C4)*2
   ),
 2)</f>
-        <v>83</v>
+        <v>83.05</v>
       </c>
       <c r="E4" s="21">
-        <f>SUM(
-  IFERROR(VLOOKUP(C4,'WAR 1'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C4,'WAR 2'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C4,'WAR 3'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C4,'WAR 4'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C4,'WAR 5'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C4,'WAR 6'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C4,'WAR 7'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C4,'WAR 8'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C4,'WAR 9'!C:F,4,FALSE),0)
-)</f>
-        <v>8</v>
+        <f>IFERROR(VLOOKUP(C4,'WAR 1'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C4,'WAR 2'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C4,'WAR 3'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C4,'WAR 4'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C4,'WAR 5'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C4,'WAR 6'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C4,'WAR 7'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C4,'WAR 8'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C4,'WAR 9'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C4,'WAR 10'!C:F,4,FALSE),0)</f>
+        <v>9</v>
       </c>
       <c r="G4" t="s">
         <v>126</v>
@@ -2595,7 +3419,8 @@
  IFERROR((IF(MATCH(C4,'WAR 6'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C4,'WAR 7'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C4,'WAR 8'!C:C,0),1,0)),0) +
- IFERROR((IF(MATCH(C4,'WAR 9'!C:C,0),1,0)),0)
+ IFERROR((IF(MATCH(C4,'WAR 9'!C:C,0),1,0)),0) +
+ IFERROR((IF(MATCH(C4,'WAR 10'!C:C,0),1,0)),0)
 ) &amp; " " &amp;
  IFERROR("(" &amp; (MATCH(C4,'WAR 1'!C:C,0)-1) &amp; " 1)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C4,'WAR 2'!C:C,0)-1) &amp; " 2)", "") &amp;
@@ -2605,8 +3430,9 @@
  IFERROR(" (" &amp; (MATCH(C4,'WAR 6'!C:C,0)-1) &amp; " 6)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C4,'WAR 7'!C:C,0)-1) &amp; " 7)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C4,'WAR 8'!C:C,0)-1) &amp; " 8)", "") &amp;
- IFERROR(" (" &amp; (MATCH(C4,'WAR 9'!C:C,0)-1) &amp; " 9)", "")</f>
-        <v>9 (3 1) (3 2) (4 3) (3 4) (4 5) (3 6) (3 7) (4 8) (4 9)</v>
+ IFERROR(" (" &amp; (MATCH(C4,'WAR 9'!C:C,0)-1) &amp; " 9)", "") &amp;
+ IFERROR(" (" &amp; (MATCH(C4,'WAR 10'!C:C,0)-1) &amp; " 10)", "")</f>
+        <v>10 (3 1) (3 2) (4 3) (3 4) (4 5) (3 6) (3 7) (4 8) (4 9) (4 10)</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2619,27 +3445,29 @@
       <c r="C5" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="20" cm="1">
-        <f t="array" aca="1" ref="D5" ca="1">ROUND(
-  SUM(
-    IFERROR(VLOOKUP(C5,'WAR 1'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C5,'WAR 1'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C5,'WAR 2'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C5,'WAR 2'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C5,'WAR 3'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C5,'WAR 3'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C5,'WAR 4'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C5,'WAR 4'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C5,'WAR 5'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C5,'WAR 5'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C5,'WAR 6'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C5,'WAR 6'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C5,'WAR 7'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C5,'WAR 7'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C5,'WAR 8'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C5,'WAR 8'!C:E,3,FALSE),0),
-   IFERROR(VLOOKUP(C5,'WAR 9'!C:E,2,FALSE),0),
-   IFERROR(VLOOPUP(C5,'WAR 9'!C:E,3,FALSE),0)
+      <c r="D5" s="20">
+        <f>ROUND(
+  (
+    IFERROR(VLOOKUP(C5,'WAR 1'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C5,'WAR 1'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C5,'WAR 2'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C5,'WAR 2'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C5,'WAR 3'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C5,'WAR 3'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C5,'WAR 4'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C5,'WAR 4'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C5,'WAR 5'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C5,'WAR 5'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C5,'WAR 6'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C5,'WAR 6'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C5,'WAR 7'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C5,'WAR 7'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C5,'WAR 8'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C5,'WAR 8'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C5,'WAR 9'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C5,'WAR 9'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C5,'WAR 10'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C5,'WAR 10'!C:E,3,FALSE),0)
   ) /
   (
     COUNTIF('WAR 1'!C:C,C5)*2 +
@@ -2650,24 +3478,24 @@
     COUNTIF('WAR 6'!C:C,C5)*2 +
     COUNTIF('WAR 7'!C:C,C5)*2 +
     COUNTIF('WAR 8'!C:C,C5)*2 +
-    COUNTIF('WAR 9'!C:C,C5)*2
+    COUNTIF('WAR 9'!C:C,C5)*2 +
+    COUNTIF('WAR 10'!C:C,C5)*2
   ),
 2)</f>
-        <v>85.89</v>
+        <v>87.3</v>
       </c>
       <c r="E5" s="21">
-        <f>SUM(
-  IFERROR(VLOOKUP(C5,'WAR 1'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C5,'WAR 2'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C5,'WAR 3'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C5,'WAR 4'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C5,'WAR 5'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C5,'WAR 6'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C5,'WAR 7'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C5,'WAR 8'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C5,'WAR 9'!C:F,4,FALSE),0)
-)</f>
-        <v>10</v>
+        <f>IFERROR(VLOOKUP(C5,'WAR 1'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C5,'WAR 2'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C5,'WAR 3'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C5,'WAR 4'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C5,'WAR 5'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C5,'WAR 6'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C5,'WAR 7'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C5,'WAR 8'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C5,'WAR 9'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C5,'WAR 10'!C:F,4,FALSE),0)</f>
+        <v>12</v>
       </c>
       <c r="G5" t="s">
         <v>128</v>
@@ -2682,7 +3510,8 @@
  IFERROR((IF(MATCH(C5,'WAR 6'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C5,'WAR 7'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C5,'WAR 8'!C:C,0),1,0)),0) +
- IFERROR((IF(MATCH(C5,'WAR 9'!C:C,0),1,0)),0)
+ IFERROR((IF(MATCH(C5,'WAR 9'!C:C,0),1,0)),0) +
+ IFERROR((IF(MATCH(C5,'WAR 10'!C:C,0),1,0)),0)
 ) &amp; " " &amp;
  IFERROR("(" &amp; (MATCH(C5,'WAR 1'!C:C,0)-1) &amp; " 1)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C5,'WAR 2'!C:C,0)-1) &amp; " 2)", "") &amp;
@@ -2692,8 +3521,9 @@
  IFERROR(" (" &amp; (MATCH(C5,'WAR 6'!C:C,0)-1) &amp; " 6)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C5,'WAR 7'!C:C,0)-1) &amp; " 7)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C5,'WAR 8'!C:C,0)-1) &amp; " 8)", "") &amp;
- IFERROR(" (" &amp; (MATCH(C5,'WAR 9'!C:C,0)-1) &amp; " 9)", "")</f>
-        <v>9 (4 1) (5 2) (6 3) (6 4) (6 5) (5 6) (5 7) (5 8) (7 9)</v>
+ IFERROR(" (" &amp; (MATCH(C5,'WAR 9'!C:C,0)-1) &amp; " 9)", "") &amp;
+ IFERROR(" (" &amp; (MATCH(C5,'WAR 10'!C:C,0)-1) &amp; " 10)", "")</f>
+        <v>10 (4 1) (5 2) (6 3) (6 4) (6 5) (5 6) (5 7) (5 8) (7 9) (7 10)</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2706,27 +3536,29 @@
       <c r="C6" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="20" cm="1">
-        <f t="array" aca="1" ref="D6" ca="1">ROUND(
-  SUM(
-    IFERROR(VLOOKUP(C6,'WAR 1'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C6,'WAR 1'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C6,'WAR 2'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C6,'WAR 2'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C6,'WAR 3'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C6,'WAR 3'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C6,'WAR 4'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C6,'WAR 4'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C6,'WAR 5'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C6,'WAR 5'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C6,'WAR 6'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C6,'WAR 6'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C6,'WAR 7'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C6,'WAR 7'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C6,'WAR 8'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C6,'WAR 8'!C:E,3,FALSE),0),
-   IFERROR(VLOOKUP(C6,'WAR 9'!C:E,2,FALSE),0),
-   IFERROR(VLOOPUP(C6,'WAR 9'!C:E,3,FALSE),0)
+      <c r="D6" s="20">
+        <f>ROUND(
+  (
+    IFERROR(VLOOKUP(C6,'WAR 1'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C6,'WAR 1'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C6,'WAR 2'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C6,'WAR 2'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C6,'WAR 3'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C6,'WAR 3'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C6,'WAR 4'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C6,'WAR 4'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C6,'WAR 5'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C6,'WAR 5'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C6,'WAR 6'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C6,'WAR 6'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C6,'WAR 7'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C6,'WAR 7'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C6,'WAR 8'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C6,'WAR 8'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C6,'WAR 9'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C6,'WAR 9'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C6,'WAR 10'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C6,'WAR 10'!C:E,3,FALSE),0)
   ) /
   (
     COUNTIF('WAR 1'!C:C,C6)*2 +
@@ -2737,24 +3569,24 @@
     COUNTIF('WAR 6'!C:C,C6)*2 +
     COUNTIF('WAR 7'!C:C,C6)*2 +
     COUNTIF('WAR 8'!C:C,C6)*2 +
-    COUNTIF('WAR 9'!C:C,C6)*2
+    COUNTIF('WAR 9'!C:C,C6)*2 +
+    COUNTIF('WAR 10'!C:C,C6)*2
   ),
 2)</f>
-        <v>66.72</v>
+        <v>70.05</v>
       </c>
       <c r="E6" s="21">
-        <f>SUM(
-  IFERROR(VLOOKUP(C6,'WAR 1'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C6,'WAR 2'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C6,'WAR 3'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C6,'WAR 4'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C6,'WAR 5'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C6,'WAR 6'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C6,'WAR 7'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C6,'WAR 8'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C6,'WAR 9'!C:F,4,FALSE),0)
-)</f>
-        <v>4</v>
+        <f>IFERROR(VLOOKUP(C6,'WAR 1'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C6,'WAR 2'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C6,'WAR 3'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C6,'WAR 4'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C6,'WAR 5'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C6,'WAR 6'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C6,'WAR 7'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C6,'WAR 8'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C6,'WAR 9'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C6,'WAR 10'!C:F,4,FALSE),0)</f>
+        <v>6</v>
       </c>
       <c r="G6" t="s">
         <v>124</v>
@@ -2769,7 +3601,8 @@
  IFERROR((IF(MATCH(C6,'WAR 6'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C6,'WAR 7'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C6,'WAR 8'!C:C,0),1,0)),0) +
- IFERROR((IF(MATCH(C6,'WAR 9'!C:C,0),1,0)),0)
+ IFERROR((IF(MATCH(C6,'WAR 9'!C:C,0),1,0)),0) +
+ IFERROR((IF(MATCH(C6,'WAR 10'!C:C,0),1,0)),0)
 ) &amp; " " &amp;
  IFERROR("(" &amp; (MATCH(C6,'WAR 1'!C:C,0)-1) &amp; " 1)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C6,'WAR 2'!C:C,0)-1) &amp; " 2)", "") &amp;
@@ -2779,8 +3612,9 @@
  IFERROR(" (" &amp; (MATCH(C6,'WAR 6'!C:C,0)-1) &amp; " 6)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C6,'WAR 7'!C:C,0)-1) &amp; " 7)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C6,'WAR 8'!C:C,0)-1) &amp; " 8)", "") &amp;
- IFERROR(" (" &amp; (MATCH(C6,'WAR 9'!C:C,0)-1) &amp; " 9)", "")</f>
-        <v>9 (5 1) (6 2) (7 3) (7 4) (7 5) (7 6) (6 7) (7 8) (9 9)</v>
+ IFERROR(" (" &amp; (MATCH(C6,'WAR 9'!C:C,0)-1) &amp; " 9)", "") &amp;
+ IFERROR(" (" &amp; (MATCH(C6,'WAR 10'!C:C,0)-1) &amp; " 10)", "")</f>
+        <v>10 (5 1) (6 2) (7 3) (7 4) (7 5) (7 6) (6 7) (7 8) (9 9) (9 10)</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2793,27 +3627,29 @@
       <c r="C7" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="D7" s="20" cm="1">
-        <f t="array" aca="1" ref="D7" ca="1">ROUND(
-  SUM(
-    IFERROR(VLOOKUP(C7,'WAR 1'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C7,'WAR 1'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C7,'WAR 2'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C7,'WAR 2'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C7,'WAR 3'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C7,'WAR 3'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C7,'WAR 4'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C7,'WAR 4'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C7,'WAR 5'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C7,'WAR 5'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C7,'WAR 6'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C7,'WAR 6'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C7,'WAR 7'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C7,'WAR 7'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C7,'WAR 8'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C7,'WAR 8'!C:E,3,FALSE),0),
-   IFERROR(VLOOKUP(C7,'WAR 9'!C:E,2,FALSE),0),
-   IFERROR(VLOOPUP(C7,'WAR 9'!C:E,3,FALSE),0)
+      <c r="D7" s="20">
+        <f>ROUND(
+  (
+    IFERROR(VLOOKUP(C7,'WAR 1'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C7,'WAR 1'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C7,'WAR 2'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C7,'WAR 2'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C7,'WAR 3'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C7,'WAR 3'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C7,'WAR 4'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C7,'WAR 4'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C7,'WAR 5'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C7,'WAR 5'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C7,'WAR 6'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C7,'WAR 6'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C7,'WAR 7'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C7,'WAR 7'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C7,'WAR 8'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C7,'WAR 8'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C7,'WAR 9'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C7,'WAR 9'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C7,'WAR 10'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C7,'WAR 10'!C:E,3,FALSE),0)
   ) /
   (
     COUNTIF('WAR 1'!C:C,C7)*2 +
@@ -2824,23 +3660,23 @@
     COUNTIF('WAR 6'!C:C,C7)*2 +
     COUNTIF('WAR 7'!C:C,C7)*2 +
     COUNTIF('WAR 8'!C:C,C7)*2 +
-    COUNTIF('WAR 9'!C:C,C7)*2
+    COUNTIF('WAR 9'!C:C,C7)*2 +
+    COUNTIF('WAR 10'!C:C,C7)*2
   ),
 2)</f>
-        <v>76.72</v>
+        <v>78.599999999999994</v>
       </c>
       <c r="E7" s="21">
-        <f>SUM(
-  IFERROR(VLOOKUP(C7,'WAR 1'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C7,'WAR 2'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C7,'WAR 3'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C7,'WAR 4'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C7,'WAR 5'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C7,'WAR 6'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C7,'WAR 7'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C7,'WAR 8'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C7,'WAR 9'!C:F,4,FALSE),0)
-)</f>
+        <f>IFERROR(VLOOKUP(C7,'WAR 1'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C7,'WAR 2'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C7,'WAR 3'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C7,'WAR 4'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C7,'WAR 5'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C7,'WAR 6'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C7,'WAR 7'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C7,'WAR 8'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C7,'WAR 9'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C7,'WAR 10'!C:F,4,FALSE),0)</f>
         <v>4</v>
       </c>
       <c r="G7" t="s">
@@ -2856,7 +3692,8 @@
  IFERROR((IF(MATCH(C7,'WAR 6'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C7,'WAR 7'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C7,'WAR 8'!C:C,0),1,0)),0) +
- IFERROR((IF(MATCH(C7,'WAR 9'!C:C,0),1,0)),0)
+ IFERROR((IF(MATCH(C7,'WAR 9'!C:C,0),1,0)),0) +
+ IFERROR((IF(MATCH(C7,'WAR 10'!C:C,0),1,0)),0)
 ) &amp; " " &amp;
  IFERROR("(" &amp; (MATCH(C7,'WAR 1'!C:C,0)-1) &amp; " 1)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C7,'WAR 2'!C:C,0)-1) &amp; " 2)", "") &amp;
@@ -2866,8 +3703,9 @@
  IFERROR(" (" &amp; (MATCH(C7,'WAR 6'!C:C,0)-1) &amp; " 6)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C7,'WAR 7'!C:C,0)-1) &amp; " 7)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C7,'WAR 8'!C:C,0)-1) &amp; " 8)", "") &amp;
- IFERROR(" (" &amp; (MATCH(C7,'WAR 9'!C:C,0)-1) &amp; " 9)", "")</f>
-        <v>9 (6 1) (7 2) (8 3) (8 4) (8 5) (8 6) (8 7) (6 8) (6 9)</v>
+ IFERROR(" (" &amp; (MATCH(C7,'WAR 9'!C:C,0)-1) &amp; " 9)", "") &amp;
+ IFERROR(" (" &amp; (MATCH(C7,'WAR 10'!C:C,0)-1) &amp; " 10)", "")</f>
+        <v>10 (6 1) (7 2) (8 3) (8 4) (8 5) (8 6) (8 7) (6 8) (6 9) (6 10)</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2880,27 +3718,29 @@
       <c r="C8" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="D8" s="20" cm="1">
-        <f t="array" aca="1" ref="D8" ca="1">ROUND(
-  SUM(
-    IFERROR(VLOOKUP(C8,'WAR 1'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C8,'WAR 1'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C8,'WAR 2'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C8,'WAR 2'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C8,'WAR 3'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C8,'WAR 3'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C8,'WAR 4'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C8,'WAR 4'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C8,'WAR 5'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C8,'WAR 5'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C8,'WAR 6'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C8,'WAR 6'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C8,'WAR 7'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C8,'WAR 7'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C8,'WAR 8'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C8,'WAR 8'!C:E,3,FALSE),0),
-   IFERROR(VLOOKUP(C8,'WAR 9'!C:E,2,FALSE),0),
-   IFERROR(VLOOPUP(C8,'WAR 9'!C:E,3,FALSE),0)
+      <c r="D8" s="20">
+        <f>ROUND(
+  (
+    IFERROR(VLOOKUP(C8,'WAR 1'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C8,'WAR 1'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C8,'WAR 2'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C8,'WAR 2'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C8,'WAR 3'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C8,'WAR 3'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C8,'WAR 4'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C8,'WAR 4'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C8,'WAR 5'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C8,'WAR 5'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C8,'WAR 6'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C8,'WAR 6'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C8,'WAR 7'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C8,'WAR 7'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C8,'WAR 8'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C8,'WAR 8'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C8,'WAR 9'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C8,'WAR 9'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C8,'WAR 10'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C8,'WAR 10'!C:E,3,FALSE),0)
   ) /
   (
     COUNTIF('WAR 1'!C:C,C8)*2 +
@@ -2911,24 +3751,24 @@
     COUNTIF('WAR 6'!C:C,C8)*2 +
     COUNTIF('WAR 7'!C:C,C8)*2 +
     COUNTIF('WAR 8'!C:C,C8)*2 +
-    COUNTIF('WAR 9'!C:C,C8)*2
+    COUNTIF('WAR 9'!C:C,C8)*2 +
+    COUNTIF('WAR 10'!C:C,C8)*2
   ),
 2)</f>
-        <v>77.39</v>
+        <v>79.650000000000006</v>
       </c>
       <c r="E8" s="21">
-        <f>SUM(
-  IFERROR(VLOOKUP(C8,'WAR 1'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C8,'WAR 2'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C8,'WAR 3'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C8,'WAR 4'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C8,'WAR 5'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C8,'WAR 6'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C8,'WAR 7'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C8,'WAR 8'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C8,'WAR 9'!C:F,4,FALSE),0)
-)</f>
-        <v>6</v>
+        <f>IFERROR(VLOOKUP(C8,'WAR 1'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C8,'WAR 2'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C8,'WAR 3'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C8,'WAR 4'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C8,'WAR 5'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C8,'WAR 6'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C8,'WAR 7'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C8,'WAR 8'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C8,'WAR 9'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C8,'WAR 10'!C:F,4,FALSE),0)</f>
+        <v>8</v>
       </c>
       <c r="G8" t="s">
         <v>139</v>
@@ -2943,7 +3783,8 @@
  IFERROR((IF(MATCH(C8,'WAR 6'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C8,'WAR 7'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C8,'WAR 8'!C:C,0),1,0)),0) +
- IFERROR((IF(MATCH(C8,'WAR 9'!C:C,0),1,0)),0)
+ IFERROR((IF(MATCH(C8,'WAR 9'!C:C,0),1,0)),0) +
+ IFERROR((IF(MATCH(C8,'WAR 10'!C:C,0),1,0)),0)
 ) &amp; " " &amp;
  IFERROR("(" &amp; (MATCH(C8,'WAR 1'!C:C,0)-1) &amp; " 1)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C8,'WAR 2'!C:C,0)-1) &amp; " 2)", "") &amp;
@@ -2953,8 +3794,9 @@
  IFERROR(" (" &amp; (MATCH(C8,'WAR 6'!C:C,0)-1) &amp; " 6)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C8,'WAR 7'!C:C,0)-1) &amp; " 7)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C8,'WAR 8'!C:C,0)-1) &amp; " 8)", "") &amp;
- IFERROR(" (" &amp; (MATCH(C8,'WAR 9'!C:C,0)-1) &amp; " 9)", "")</f>
-        <v>9 (7 1) (8 2) (9 3) (9 4) (9 5) (9 6) (9 7) (9 8) (11 9)</v>
+ IFERROR(" (" &amp; (MATCH(C8,'WAR 9'!C:C,0)-1) &amp; " 9)", "") &amp;
+ IFERROR(" (" &amp; (MATCH(C8,'WAR 10'!C:C,0)-1) &amp; " 10)", "")</f>
+        <v>10 (7 1) (8 2) (9 3) (9 4) (9 5) (9 6) (9 7) (9 8) (11 9) (12 10)</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2967,27 +3809,29 @@
       <c r="C9" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="D9" s="20" cm="1">
-        <f t="array" aca="1" ref="D9" ca="1">ROUND(
-  SUM(
-    IFERROR(VLOOKUP(C9,'WAR 1'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C9,'WAR 1'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C9,'WAR 2'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C9,'WAR 2'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C9,'WAR 3'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C9,'WAR 3'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C9,'WAR 4'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C9,'WAR 4'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C9,'WAR 5'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C9,'WAR 5'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C9,'WAR 6'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C9,'WAR 6'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C9,'WAR 7'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C9,'WAR 7'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C9,'WAR 8'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C9,'WAR 8'!C:E,3,FALSE),0),
-   IFERROR(VLOOKUP(C9,'WAR 9'!C:E,2,FALSE),0),
-   IFERROR(VLOOPUP(C9,'WAR 9'!C:E,3,FALSE),0)
+      <c r="D9" s="20">
+        <f>ROUND(
+  (
+    IFERROR(VLOOKUP(C9,'WAR 1'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C9,'WAR 1'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C9,'WAR 2'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C9,'WAR 2'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C9,'WAR 3'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C9,'WAR 3'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C9,'WAR 4'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C9,'WAR 4'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C9,'WAR 5'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C9,'WAR 5'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C9,'WAR 6'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C9,'WAR 6'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C9,'WAR 7'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C9,'WAR 7'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C9,'WAR 8'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C9,'WAR 8'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C9,'WAR 9'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C9,'WAR 9'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C9,'WAR 10'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C9,'WAR 10'!C:E,3,FALSE),0)
   ) /
   (
     COUNTIF('WAR 1'!C:C,C9)*2 +
@@ -2998,23 +3842,23 @@
     COUNTIF('WAR 6'!C:C,C9)*2 +
     COUNTIF('WAR 7'!C:C,C9)*2 +
     COUNTIF('WAR 8'!C:C,C9)*2 +
-    COUNTIF('WAR 9'!C:C,C9)*2
+    COUNTIF('WAR 9'!C:C,C9)*2 +
+    COUNTIF('WAR 10'!C:C,C9)*2
   ),
 2)</f>
         <v>92.88</v>
       </c>
       <c r="E9" s="21">
-        <f>SUM(
-  IFERROR(VLOOKUP(C9,'WAR 1'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C9,'WAR 2'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C9,'WAR 3'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C9,'WAR 4'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C9,'WAR 5'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C9,'WAR 6'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C9,'WAR 7'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C9,'WAR 8'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C9,'WAR 9'!C:F,4,FALSE),0)
-)</f>
+        <f>IFERROR(VLOOKUP(C9,'WAR 1'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C9,'WAR 2'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C9,'WAR 3'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C9,'WAR 4'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C9,'WAR 5'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C9,'WAR 6'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C9,'WAR 7'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C9,'WAR 8'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C9,'WAR 9'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C9,'WAR 10'!C:F,4,FALSE),0)</f>
         <v>3</v>
       </c>
       <c r="G9" t="s">
@@ -3030,7 +3874,8 @@
  IFERROR((IF(MATCH(C9,'WAR 6'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C9,'WAR 7'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C9,'WAR 8'!C:C,0),1,0)),0) +
- IFERROR((IF(MATCH(C9,'WAR 9'!C:C,0),1,0)),0)
+ IFERROR((IF(MATCH(C9,'WAR 9'!C:C,0),1,0)),0) +
+ IFERROR((IF(MATCH(C9,'WAR 10'!C:C,0),1,0)),0)
 ) &amp; " " &amp;
  IFERROR("(" &amp; (MATCH(C9,'WAR 1'!C:C,0)-1) &amp; " 1)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C9,'WAR 2'!C:C,0)-1) &amp; " 2)", "") &amp;
@@ -3040,7 +3885,8 @@
  IFERROR(" (" &amp; (MATCH(C9,'WAR 6'!C:C,0)-1) &amp; " 6)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C9,'WAR 7'!C:C,0)-1) &amp; " 7)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C9,'WAR 8'!C:C,0)-1) &amp; " 8)", "") &amp;
- IFERROR(" (" &amp; (MATCH(C9,'WAR 9'!C:C,0)-1) &amp; " 9)", "")</f>
+ IFERROR(" (" &amp; (MATCH(C9,'WAR 9'!C:C,0)-1) &amp; " 9)", "") &amp;
+ IFERROR(" (" &amp; (MATCH(C9,'WAR 10'!C:C,0)-1) &amp; " 10)", "")</f>
         <v>4 (8 1) (10 2) (11 3) (11 4)</v>
       </c>
     </row>
@@ -3054,27 +3900,29 @@
       <c r="C10" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="D10" s="20" cm="1">
-        <f t="array" aca="1" ref="D10" ca="1">ROUND(
-  SUM(
-    IFERROR(VLOOKUP(C10,'WAR 1'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C10,'WAR 1'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C10,'WAR 2'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C10,'WAR 2'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C10,'WAR 3'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C10,'WAR 3'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C10,'WAR 4'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C10,'WAR 4'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C10,'WAR 5'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C10,'WAR 5'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C10,'WAR 6'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C10,'WAR 6'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C10,'WAR 7'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C10,'WAR 7'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C10,'WAR 8'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C10,'WAR 8'!C:E,3,FALSE),0),
-   IFERROR(VLOOKUP(C10,'WAR 9'!C:E,2,FALSE),0),
-   IFERROR(VLOOPUP(C10,'WAR 9'!C:E,3,FALSE),0)
+      <c r="D10" s="20">
+        <f>ROUND(
+  (
+    IFERROR(VLOOKUP(C10,'WAR 1'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C10,'WAR 1'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C10,'WAR 2'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C10,'WAR 2'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C10,'WAR 3'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C10,'WAR 3'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C10,'WAR 4'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C10,'WAR 4'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C10,'WAR 5'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C10,'WAR 5'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C10,'WAR 6'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C10,'WAR 6'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C10,'WAR 7'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C10,'WAR 7'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C10,'WAR 8'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C10,'WAR 8'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C10,'WAR 9'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C10,'WAR 9'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C10,'WAR 10'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C10,'WAR 10'!C:E,3,FALSE),0)
   ) /
   (
     COUNTIF('WAR 1'!C:C,C10)*2 +
@@ -3085,23 +3933,23 @@
     COUNTIF('WAR 6'!C:C,C10)*2 +
     COUNTIF('WAR 7'!C:C,C10)*2 +
     COUNTIF('WAR 8'!C:C,C10)*2 +
-    COUNTIF('WAR 9'!C:C,C10)*2
+    COUNTIF('WAR 9'!C:C,C10)*2 +
+    COUNTIF('WAR 10'!C:C,C10)*2
   ),
 2)</f>
-        <v>65.39</v>
+        <v>59.35</v>
       </c>
       <c r="E10" s="21">
-        <f>SUM(
-  IFERROR(VLOOKUP(C10,'WAR 1'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C10,'WAR 2'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C10,'WAR 3'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C10,'WAR 4'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C10,'WAR 5'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C10,'WAR 6'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C10,'WAR 7'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C10,'WAR 8'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C10,'WAR 9'!C:F,4,FALSE),0)
-)</f>
+        <f>IFERROR(VLOOKUP(C10,'WAR 1'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C10,'WAR 2'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C10,'WAR 3'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C10,'WAR 4'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C10,'WAR 5'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C10,'WAR 6'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C10,'WAR 7'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C10,'WAR 8'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C10,'WAR 9'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C10,'WAR 10'!C:F,4,FALSE),0)</f>
         <v>6</v>
       </c>
       <c r="G10" t="s">
@@ -3117,7 +3965,8 @@
  IFERROR((IF(MATCH(C10,'WAR 6'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C10,'WAR 7'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C10,'WAR 8'!C:C,0),1,0)),0) +
- IFERROR((IF(MATCH(C10,'WAR 9'!C:C,0),1,0)),0)
+ IFERROR((IF(MATCH(C10,'WAR 9'!C:C,0),1,0)),0) +
+ IFERROR((IF(MATCH(C10,'WAR 10'!C:C,0),1,0)),0)
 ) &amp; " " &amp;
  IFERROR("(" &amp; (MATCH(C10,'WAR 1'!C:C,0)-1) &amp; " 1)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C10,'WAR 2'!C:C,0)-1) &amp; " 2)", "") &amp;
@@ -3127,8 +3976,9 @@
  IFERROR(" (" &amp; (MATCH(C10,'WAR 6'!C:C,0)-1) &amp; " 6)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C10,'WAR 7'!C:C,0)-1) &amp; " 7)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C10,'WAR 8'!C:C,0)-1) &amp; " 8)", "") &amp;
- IFERROR(" (" &amp; (MATCH(C10,'WAR 9'!C:C,0)-1) &amp; " 9)", "")</f>
-        <v>9 (9 1) (11 2) (12 3) (12 4) (12 5) (13 6) (13 7) (13 8) (14 9)</v>
+ IFERROR(" (" &amp; (MATCH(C10,'WAR 9'!C:C,0)-1) &amp; " 9)", "") &amp;
+ IFERROR(" (" &amp; (MATCH(C10,'WAR 10'!C:C,0)-1) &amp; " 10)", "")</f>
+        <v>10 (9 1) (11 2) (12 3) (12 4) (12 5) (13 6) (13 7) (13 8) (14 9) (15 10)</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3141,27 +3991,29 @@
       <c r="C11" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="20" cm="1">
-        <f t="array" aca="1" ref="D11" ca="1">ROUND(
-  SUM(
-    IFERROR(VLOOKUP(C11,'WAR 1'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C11,'WAR 1'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C11,'WAR 2'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C11,'WAR 2'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C11,'WAR 3'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C11,'WAR 3'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C11,'WAR 4'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C11,'WAR 4'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C11,'WAR 5'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C11,'WAR 5'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C11,'WAR 6'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C11,'WAR 6'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C11,'WAR 7'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C11,'WAR 7'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C11,'WAR 8'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C11,'WAR 8'!C:E,3,FALSE),0),
-   IFERROR(VLOOKUP(C11,'WAR 9'!C:E,2,FALSE),0),
-   IFERROR(VLOOPUP(C11,'WAR 9'!C:E,3,FALSE),0)
+      <c r="D11" s="20">
+        <f>ROUND(
+  (
+    IFERROR(VLOOKUP(C11,'WAR 1'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C11,'WAR 1'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C11,'WAR 2'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C11,'WAR 2'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C11,'WAR 3'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C11,'WAR 3'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C11,'WAR 4'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C11,'WAR 4'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C11,'WAR 5'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C11,'WAR 5'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C11,'WAR 6'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C11,'WAR 6'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C11,'WAR 7'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C11,'WAR 7'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C11,'WAR 8'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C11,'WAR 8'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C11,'WAR 9'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C11,'WAR 9'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C11,'WAR 10'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C11,'WAR 10'!C:E,3,FALSE),0)
   ) /
   (
     COUNTIF('WAR 1'!C:C,C11)*2 +
@@ -3172,23 +4024,23 @@
     COUNTIF('WAR 6'!C:C,C11)*2 +
     COUNTIF('WAR 7'!C:C,C11)*2 +
     COUNTIF('WAR 8'!C:C,C11)*2 +
-    COUNTIF('WAR 9'!C:C,C11)*2
+    COUNTIF('WAR 9'!C:C,C11)*2 +
+    COUNTIF('WAR 10'!C:C,C11)*2
   ),
 2)</f>
-        <v>81</v>
+        <v>80.55</v>
       </c>
       <c r="E11" s="21">
-        <f>SUM(
-  IFERROR(VLOOKUP(C11,'WAR 1'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C11,'WAR 2'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C11,'WAR 3'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C11,'WAR 4'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C11,'WAR 5'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C11,'WAR 6'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C11,'WAR 7'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C11,'WAR 8'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C11,'WAR 9'!C:F,4,FALSE),0)
-)</f>
+        <f>IFERROR(VLOOKUP(C11,'WAR 1'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C11,'WAR 2'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C11,'WAR 3'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C11,'WAR 4'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C11,'WAR 5'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C11,'WAR 6'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C11,'WAR 7'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C11,'WAR 8'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C11,'WAR 9'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C11,'WAR 10'!C:F,4,FALSE),0)</f>
         <v>4</v>
       </c>
       <c r="G11" t="s">
@@ -3204,7 +4056,8 @@
  IFERROR((IF(MATCH(C11,'WAR 6'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C11,'WAR 7'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C11,'WAR 8'!C:C,0),1,0)),0) +
- IFERROR((IF(MATCH(C11,'WAR 9'!C:C,0),1,0)),0)
+ IFERROR((IF(MATCH(C11,'WAR 9'!C:C,0),1,0)),0) +
+ IFERROR((IF(MATCH(C11,'WAR 10'!C:C,0),1,0)),0)
 ) &amp; " " &amp;
  IFERROR("(" &amp; (MATCH(C11,'WAR 1'!C:C,0)-1) &amp; " 1)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C11,'WAR 2'!C:C,0)-1) &amp; " 2)", "") &amp;
@@ -3214,8 +4067,9 @@
  IFERROR(" (" &amp; (MATCH(C11,'WAR 6'!C:C,0)-1) &amp; " 6)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C11,'WAR 7'!C:C,0)-1) &amp; " 7)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C11,'WAR 8'!C:C,0)-1) &amp; " 8)", "") &amp;
- IFERROR(" (" &amp; (MATCH(C11,'WAR 9'!C:C,0)-1) &amp; " 9)", "")</f>
-        <v>9 (10 1) (12 2) (13 3) (13 4) (11 5) (12 6) (11 7) (11 8) (12 9)</v>
+ IFERROR(" (" &amp; (MATCH(C11,'WAR 9'!C:C,0)-1) &amp; " 9)", "") &amp;
+ IFERROR(" (" &amp; (MATCH(C11,'WAR 10'!C:C,0)-1) &amp; " 10)", "")</f>
+        <v>10 (10 1) (12 2) (13 3) (13 4) (11 5) (12 6) (11 7) (11 8) (12 9) (14 10)</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3228,27 +4082,29 @@
       <c r="C12" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="20" cm="1">
-        <f t="array" aca="1" ref="D12" ca="1">ROUND(
-  SUM(
-    IFERROR(VLOOKUP(C12,'WAR 1'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C12,'WAR 1'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C12,'WAR 2'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C12,'WAR 2'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C12,'WAR 3'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C12,'WAR 3'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C12,'WAR 4'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C12,'WAR 4'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C12,'WAR 5'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C12,'WAR 5'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C12,'WAR 6'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C12,'WAR 6'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C12,'WAR 7'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C12,'WAR 7'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C12,'WAR 8'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C12,'WAR 8'!C:E,3,FALSE),0),
-   IFERROR(VLOOKUP(C12,'WAR 9'!C:E,2,FALSE),0),
-   IFERROR(VLOOPUP(C12,'WAR 9'!C:E,3,FALSE),0)
+      <c r="D12" s="20">
+        <f>ROUND(
+  (
+    IFERROR(VLOOKUP(C12,'WAR 1'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C12,'WAR 1'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C12,'WAR 2'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C12,'WAR 2'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C12,'WAR 3'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C12,'WAR 3'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C12,'WAR 4'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C12,'WAR 4'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C12,'WAR 5'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C12,'WAR 5'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C12,'WAR 6'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C12,'WAR 6'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C12,'WAR 7'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C12,'WAR 7'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C12,'WAR 8'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C12,'WAR 8'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C12,'WAR 9'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C12,'WAR 9'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C12,'WAR 10'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C12,'WAR 10'!C:E,3,FALSE),0)
   ) /
   (
     COUNTIF('WAR 1'!C:C,C12)*2 +
@@ -3259,23 +4115,23 @@
     COUNTIF('WAR 6'!C:C,C12)*2 +
     COUNTIF('WAR 7'!C:C,C12)*2 +
     COUNTIF('WAR 8'!C:C,C12)*2 +
-    COUNTIF('WAR 9'!C:C,C12)*2
+    COUNTIF('WAR 9'!C:C,C12)*2 +
+    COUNTIF('WAR 10'!C:C,C12)*2
   ),
 2)</f>
-        <v>88.17</v>
+        <v>88.95</v>
       </c>
       <c r="E12" s="21">
-        <f>SUM(
-  IFERROR(VLOOKUP(C12,'WAR 1'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C12,'WAR 2'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C12,'WAR 3'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C12,'WAR 4'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C12,'WAR 5'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C12,'WAR 6'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C12,'WAR 7'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C12,'WAR 8'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C12,'WAR 9'!C:F,4,FALSE),0)
-)</f>
+        <f>IFERROR(VLOOKUP(C12,'WAR 1'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C12,'WAR 2'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C12,'WAR 3'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C12,'WAR 4'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C12,'WAR 5'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C12,'WAR 6'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C12,'WAR 7'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C12,'WAR 8'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C12,'WAR 9'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C12,'WAR 10'!C:F,4,FALSE),0)</f>
         <v>13</v>
       </c>
       <c r="G12" t="s">
@@ -3291,7 +4147,8 @@
  IFERROR((IF(MATCH(C12,'WAR 6'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C12,'WAR 7'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C12,'WAR 8'!C:C,0),1,0)),0) +
- IFERROR((IF(MATCH(C12,'WAR 9'!C:C,0),1,0)),0)
+ IFERROR((IF(MATCH(C12,'WAR 9'!C:C,0),1,0)),0) +
+ IFERROR((IF(MATCH(C12,'WAR 10'!C:C,0),1,0)),0)
 ) &amp; " " &amp;
  IFERROR("(" &amp; (MATCH(C12,'WAR 1'!C:C,0)-1) &amp; " 1)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C12,'WAR 2'!C:C,0)-1) &amp; " 2)", "") &amp;
@@ -3301,8 +4158,9 @@
  IFERROR(" (" &amp; (MATCH(C12,'WAR 6'!C:C,0)-1) &amp; " 6)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C12,'WAR 7'!C:C,0)-1) &amp; " 7)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C12,'WAR 8'!C:C,0)-1) &amp; " 8)", "") &amp;
- IFERROR(" (" &amp; (MATCH(C12,'WAR 9'!C:C,0)-1) &amp; " 9)", "")</f>
-        <v>9 (11 1) (13 2) (14 3) (14 4) (13 5) (15 6) (15 7) (15 8) (16 9)</v>
+ IFERROR(" (" &amp; (MATCH(C12,'WAR 9'!C:C,0)-1) &amp; " 9)", "") &amp;
+ IFERROR(" (" &amp; (MATCH(C12,'WAR 10'!C:C,0)-1) &amp; " 10)", "")</f>
+        <v>10 (11 1) (13 2) (14 3) (14 4) (13 5) (15 6) (15 7) (15 8) (16 9) (17 10)</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3315,27 +4173,29 @@
       <c r="C13" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="D13" s="20" cm="1">
-        <f t="array" aca="1" ref="D13" ca="1">ROUND(
-  SUM(
-    IFERROR(VLOOKUP(C13,'WAR 1'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C13,'WAR 1'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C13,'WAR 2'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C13,'WAR 2'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C13,'WAR 3'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C13,'WAR 3'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C13,'WAR 4'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C13,'WAR 4'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C13,'WAR 5'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C13,'WAR 5'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C13,'WAR 6'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C13,'WAR 6'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C13,'WAR 7'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C13,'WAR 7'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C13,'WAR 8'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C13,'WAR 8'!C:E,3,FALSE),0),
-   IFERROR(VLOOKUP(C13,'WAR 9'!C:E,2,FALSE),0),
-   IFERROR(VLOOPUP(C13,'WAR 9'!C:E,3,FALSE),0)
+      <c r="D13" s="20">
+        <f>ROUND(
+  (
+    IFERROR(VLOOKUP(C13,'WAR 1'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C13,'WAR 1'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C13,'WAR 2'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C13,'WAR 2'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C13,'WAR 3'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C13,'WAR 3'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C13,'WAR 4'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C13,'WAR 4'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C13,'WAR 5'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C13,'WAR 5'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C13,'WAR 6'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C13,'WAR 6'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C13,'WAR 7'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C13,'WAR 7'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C13,'WAR 8'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C13,'WAR 8'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C13,'WAR 9'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C13,'WAR 9'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C13,'WAR 10'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C13,'WAR 10'!C:E,3,FALSE),0)
   ) /
   (
     COUNTIF('WAR 1'!C:C,C13)*2 +
@@ -3346,23 +4206,23 @@
     COUNTIF('WAR 6'!C:C,C13)*2 +
     COUNTIF('WAR 7'!C:C,C13)*2 +
     COUNTIF('WAR 8'!C:C,C13)*2 +
-    COUNTIF('WAR 9'!C:C,C13)*2
+    COUNTIF('WAR 9'!C:C,C13)*2 +
+    COUNTIF('WAR 10'!C:C,C13)*2
   ),
 2)</f>
-        <v>87.78</v>
+        <v>89</v>
       </c>
       <c r="E13" s="21">
-        <f>SUM(
-  IFERROR(VLOOKUP(C13,'WAR 1'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C13,'WAR 2'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C13,'WAR 3'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C13,'WAR 4'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C13,'WAR 5'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C13,'WAR 6'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C13,'WAR 7'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C13,'WAR 8'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C13,'WAR 9'!C:F,4,FALSE),0)
-)</f>
+        <f>IFERROR(VLOOKUP(C13,'WAR 1'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C13,'WAR 2'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C13,'WAR 3'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C13,'WAR 4'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C13,'WAR 5'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C13,'WAR 6'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C13,'WAR 7'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C13,'WAR 8'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C13,'WAR 9'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C13,'WAR 10'!C:F,4,FALSE),0)</f>
         <v>14</v>
       </c>
       <c r="G13" t="s">
@@ -3378,7 +4238,8 @@
  IFERROR((IF(MATCH(C13,'WAR 6'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C13,'WAR 7'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C13,'WAR 8'!C:C,0),1,0)),0) +
- IFERROR((IF(MATCH(C13,'WAR 9'!C:C,0),1,0)),0)
+ IFERROR((IF(MATCH(C13,'WAR 9'!C:C,0),1,0)),0) +
+ IFERROR((IF(MATCH(C13,'WAR 10'!C:C,0),1,0)),0)
 ) &amp; " " &amp;
  IFERROR("(" &amp; (MATCH(C13,'WAR 1'!C:C,0)-1) &amp; " 1)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C13,'WAR 2'!C:C,0)-1) &amp; " 2)", "") &amp;
@@ -3388,8 +4249,9 @@
  IFERROR(" (" &amp; (MATCH(C13,'WAR 6'!C:C,0)-1) &amp; " 6)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C13,'WAR 7'!C:C,0)-1) &amp; " 7)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C13,'WAR 8'!C:C,0)-1) &amp; " 8)", "") &amp;
- IFERROR(" (" &amp; (MATCH(C13,'WAR 9'!C:C,0)-1) &amp; " 9)", "")</f>
-        <v>9 (12 1) (14 2) (15 3) (15 4) (14 5) (14 6) (14 7) (14 8) (15 9)</v>
+ IFERROR(" (" &amp; (MATCH(C13,'WAR 9'!C:C,0)-1) &amp; " 9)", "") &amp;
+ IFERROR(" (" &amp; (MATCH(C13,'WAR 10'!C:C,0)-1) &amp; " 10)", "")</f>
+        <v>10 (12 1) (14 2) (15 3) (15 4) (14 5) (14 6) (14 7) (14 8) (15 9) (16 10)</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3402,27 +4264,29 @@
       <c r="C14" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="D14" s="20" cm="1">
-        <f t="array" aca="1" ref="D14" ca="1">ROUND(
-  SUM(
-    IFERROR(VLOOKUP(C14,'WAR 1'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C14,'WAR 1'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C14,'WAR 2'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C14,'WAR 2'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C14,'WAR 3'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C14,'WAR 3'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C14,'WAR 4'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C14,'WAR 4'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C14,'WAR 5'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C14,'WAR 5'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C14,'WAR 6'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C14,'WAR 6'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C14,'WAR 7'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C14,'WAR 7'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C14,'WAR 8'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C14,'WAR 8'!C:E,3,FALSE),0),
-   IFERROR(VLOOKUP(C14,'WAR 9'!C:E,2,FALSE),0),
-   IFERROR(VLOOPUP(C14,'WAR 9'!C:E,3,FALSE),0)
+      <c r="D14" s="20">
+        <f>ROUND(
+  (
+    IFERROR(VLOOKUP(C14,'WAR 1'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C14,'WAR 1'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C14,'WAR 2'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C14,'WAR 2'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C14,'WAR 3'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C14,'WAR 3'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C14,'WAR 4'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C14,'WAR 4'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C14,'WAR 5'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C14,'WAR 5'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C14,'WAR 6'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C14,'WAR 6'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C14,'WAR 7'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C14,'WAR 7'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C14,'WAR 8'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C14,'WAR 8'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C14,'WAR 9'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C14,'WAR 9'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C14,'WAR 10'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C14,'WAR 10'!C:E,3,FALSE),0)
   ) /
   (
     COUNTIF('WAR 1'!C:C,C14)*2 +
@@ -3433,23 +4297,23 @@
     COUNTIF('WAR 6'!C:C,C14)*2 +
     COUNTIF('WAR 7'!C:C,C14)*2 +
     COUNTIF('WAR 8'!C:C,C14)*2 +
-    COUNTIF('WAR 9'!C:C,C14)*2
+    COUNTIF('WAR 9'!C:C,C14)*2 +
+    COUNTIF('WAR 10'!C:C,C14)*2
   ),
 2)</f>
         <v>57.63</v>
       </c>
       <c r="E14" s="21">
-        <f>SUM(
-  IFERROR(VLOOKUP(C14,'WAR 1'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C14,'WAR 2'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C14,'WAR 3'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C14,'WAR 4'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C14,'WAR 5'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C14,'WAR 6'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C14,'WAR 7'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C14,'WAR 8'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C14,'WAR 9'!C:F,4,FALSE),0)
-)</f>
+        <f>IFERROR(VLOOKUP(C14,'WAR 1'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C14,'WAR 2'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C14,'WAR 3'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C14,'WAR 4'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C14,'WAR 5'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C14,'WAR 6'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C14,'WAR 7'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C14,'WAR 8'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C14,'WAR 9'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C14,'WAR 10'!C:F,4,FALSE),0)</f>
         <v>7</v>
       </c>
       <c r="G14" t="s">
@@ -3465,7 +4329,8 @@
  IFERROR((IF(MATCH(C14,'WAR 6'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C14,'WAR 7'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C14,'WAR 8'!C:C,0),1,0)),0) +
- IFERROR((IF(MATCH(C14,'WAR 9'!C:C,0),1,0)),0)
+ IFERROR((IF(MATCH(C14,'WAR 9'!C:C,0),1,0)),0) +
+ IFERROR((IF(MATCH(C14,'WAR 10'!C:C,0),1,0)),0)
 ) &amp; " " &amp;
  IFERROR("(" &amp; (MATCH(C14,'WAR 1'!C:C,0)-1) &amp; " 1)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C14,'WAR 2'!C:C,0)-1) &amp; " 2)", "") &amp;
@@ -3475,7 +4340,8 @@
  IFERROR(" (" &amp; (MATCH(C14,'WAR 6'!C:C,0)-1) &amp; " 6)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C14,'WAR 7'!C:C,0)-1) &amp; " 7)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C14,'WAR 8'!C:C,0)-1) &amp; " 8)", "") &amp;
- IFERROR(" (" &amp; (MATCH(C14,'WAR 9'!C:C,0)-1) &amp; " 9)", "")</f>
+ IFERROR(" (" &amp; (MATCH(C14,'WAR 9'!C:C,0)-1) &amp; " 9)", "") &amp;
+ IFERROR(" (" &amp; (MATCH(C14,'WAR 10'!C:C,0)-1) &amp; " 10)", "")</f>
         <v>8 (13 1) (15 2) (16 3) (16 4) (15 5) (16 6) (16 7) (16 8)</v>
       </c>
     </row>
@@ -3489,27 +4355,29 @@
       <c r="C15" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="D15" s="20" cm="1">
-        <f t="array" aca="1" ref="D15" ca="1">ROUND(
-  SUM(
-    IFERROR(VLOOKUP(C15,'WAR 1'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C15,'WAR 1'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C15,'WAR 2'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C15,'WAR 2'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C15,'WAR 3'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C15,'WAR 3'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C15,'WAR 4'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C15,'WAR 4'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C15,'WAR 5'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C15,'WAR 5'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C15,'WAR 6'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C15,'WAR 6'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C15,'WAR 7'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C15,'WAR 7'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C15,'WAR 8'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C15,'WAR 8'!C:E,3,FALSE),0),
-   IFERROR(VLOOKUP(C15,'WAR 9'!C:E,2,FALSE),0),
-   IFERROR(VLOOPUP(C15,'WAR 9'!C:E,3,FALSE),0)
+      <c r="D15" s="20">
+        <f>ROUND(
+  (
+    IFERROR(VLOOKUP(C15,'WAR 1'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C15,'WAR 1'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C15,'WAR 2'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C15,'WAR 2'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C15,'WAR 3'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C15,'WAR 3'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C15,'WAR 4'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C15,'WAR 4'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C15,'WAR 5'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C15,'WAR 5'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C15,'WAR 6'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C15,'WAR 6'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C15,'WAR 7'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C15,'WAR 7'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C15,'WAR 8'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C15,'WAR 8'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C15,'WAR 9'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C15,'WAR 9'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C15,'WAR 10'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C15,'WAR 10'!C:E,3,FALSE),0)
   ) /
   (
     COUNTIF('WAR 1'!C:C,C15)*2 +
@@ -3520,23 +4388,23 @@
     COUNTIF('WAR 6'!C:C,C15)*2 +
     COUNTIF('WAR 7'!C:C,C15)*2 +
     COUNTIF('WAR 8'!C:C,C15)*2 +
-    COUNTIF('WAR 9'!C:C,C15)*2
+    COUNTIF('WAR 9'!C:C,C15)*2 +
+    COUNTIF('WAR 10'!C:C,C15)*2
   ),
 2)</f>
         <v>18.600000000000001</v>
       </c>
       <c r="E15" s="21">
-        <f>SUM(
-  IFERROR(VLOOKUP(C15,'WAR 1'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C15,'WAR 2'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C15,'WAR 3'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C15,'WAR 4'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C15,'WAR 5'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C15,'WAR 6'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C15,'WAR 7'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C15,'WAR 8'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C15,'WAR 9'!C:F,4,FALSE),0)
-)</f>
+        <f>IFERROR(VLOOKUP(C15,'WAR 1'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C15,'WAR 2'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C15,'WAR 3'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C15,'WAR 4'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C15,'WAR 5'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C15,'WAR 6'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C15,'WAR 7'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C15,'WAR 8'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C15,'WAR 9'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C15,'WAR 10'!C:F,4,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="G15" t="s">
@@ -3552,7 +4420,8 @@
  IFERROR((IF(MATCH(C15,'WAR 6'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C15,'WAR 7'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C15,'WAR 8'!C:C,0),1,0)),0) +
- IFERROR((IF(MATCH(C15,'WAR 9'!C:C,0),1,0)),0)
+ IFERROR((IF(MATCH(C15,'WAR 9'!C:C,0),1,0)),0) +
+ IFERROR((IF(MATCH(C15,'WAR 10'!C:C,0),1,0)),0)
 ) &amp; " " &amp;
  IFERROR("(" &amp; (MATCH(C15,'WAR 1'!C:C,0)-1) &amp; " 1)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C15,'WAR 2'!C:C,0)-1) &amp; " 2)", "") &amp;
@@ -3562,7 +4431,8 @@
  IFERROR(" (" &amp; (MATCH(C15,'WAR 6'!C:C,0)-1) &amp; " 6)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C15,'WAR 7'!C:C,0)-1) &amp; " 7)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C15,'WAR 8'!C:C,0)-1) &amp; " 8)", "") &amp;
- IFERROR(" (" &amp; (MATCH(C15,'WAR 9'!C:C,0)-1) &amp; " 9)", "")</f>
+ IFERROR(" (" &amp; (MATCH(C15,'WAR 9'!C:C,0)-1) &amp; " 9)", "") &amp;
+ IFERROR(" (" &amp; (MATCH(C15,'WAR 10'!C:C,0)-1) &amp; " 10)", "")</f>
         <v>5 (14 1) (16 2) (17 3) (16 5) (17 6)</v>
       </c>
     </row>
@@ -3576,27 +4446,29 @@
       <c r="C16" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="D16" s="20" cm="1">
-        <f t="array" aca="1" ref="D16" ca="1">ROUND(
-  SUM(
-    IFERROR(VLOOKUP(C16,'WAR 1'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C16,'WAR 1'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C16,'WAR 2'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C16,'WAR 2'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C16,'WAR 3'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C16,'WAR 3'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C16,'WAR 4'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C16,'WAR 4'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C16,'WAR 5'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C16,'WAR 5'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C16,'WAR 6'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C16,'WAR 6'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C16,'WAR 7'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C16,'WAR 7'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C16,'WAR 8'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C16,'WAR 8'!C:E,3,FALSE),0),
-   IFERROR(VLOOKUP(C16,'WAR 9'!C:E,2,FALSE),0),
-   IFERROR(VLOOPUP(C16,'WAR 9'!C:E,3,FALSE),0)
+      <c r="D16" s="20">
+        <f>ROUND(
+  (
+    IFERROR(VLOOKUP(C16,'WAR 1'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C16,'WAR 1'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C16,'WAR 2'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C16,'WAR 2'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C16,'WAR 3'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C16,'WAR 3'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C16,'WAR 4'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C16,'WAR 4'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C16,'WAR 5'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C16,'WAR 5'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C16,'WAR 6'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C16,'WAR 6'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C16,'WAR 7'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C16,'WAR 7'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C16,'WAR 8'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C16,'WAR 8'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C16,'WAR 9'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C16,'WAR 9'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C16,'WAR 10'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C16,'WAR 10'!C:E,3,FALSE),0)
   ) /
   (
     COUNTIF('WAR 1'!C:C,C16)*2 +
@@ -3607,24 +4479,24 @@
     COUNTIF('WAR 6'!C:C,C16)*2 +
     COUNTIF('WAR 7'!C:C,C16)*2 +
     COUNTIF('WAR 8'!C:C,C16)*2 +
-    COUNTIF('WAR 9'!C:C,C16)*2
+    COUNTIF('WAR 9'!C:C,C16)*2 +
+    COUNTIF('WAR 10'!C:C,C16)*2
   ),
 2)</f>
-        <v>81.56</v>
+        <v>82.4</v>
       </c>
       <c r="E16" s="21">
-        <f>SUM(
-  IFERROR(VLOOKUP(C16,'WAR 1'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C16,'WAR 2'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C16,'WAR 3'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C16,'WAR 4'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C16,'WAR 5'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C16,'WAR 6'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C16,'WAR 7'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C16,'WAR 8'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C16,'WAR 9'!C:F,4,FALSE),0)
-)</f>
-        <v>7</v>
+        <f>IFERROR(VLOOKUP(C16,'WAR 1'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C16,'WAR 2'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C16,'WAR 3'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C16,'WAR 4'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C16,'WAR 5'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C16,'WAR 6'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C16,'WAR 7'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C16,'WAR 8'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C16,'WAR 9'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C16,'WAR 10'!C:F,4,FALSE),0)</f>
+        <v>8</v>
       </c>
       <c r="G16" t="s">
         <v>126</v>
@@ -3639,7 +4511,8 @@
  IFERROR((IF(MATCH(C16,'WAR 6'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C16,'WAR 7'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C16,'WAR 8'!C:C,0),1,0)),0) +
- IFERROR((IF(MATCH(C16,'WAR 9'!C:C,0),1,0)),0)
+ IFERROR((IF(MATCH(C16,'WAR 9'!C:C,0),1,0)),0) +
+ IFERROR((IF(MATCH(C16,'WAR 10'!C:C,0),1,0)),0)
 ) &amp; " " &amp;
  IFERROR("(" &amp; (MATCH(C16,'WAR 1'!C:C,0)-1) &amp; " 1)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C16,'WAR 2'!C:C,0)-1) &amp; " 2)", "") &amp;
@@ -3649,8 +4522,9 @@
  IFERROR(" (" &amp; (MATCH(C16,'WAR 6'!C:C,0)-1) &amp; " 6)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C16,'WAR 7'!C:C,0)-1) &amp; " 7)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C16,'WAR 8'!C:C,0)-1) &amp; " 8)", "") &amp;
- IFERROR(" (" &amp; (MATCH(C16,'WAR 9'!C:C,0)-1) &amp; " 9)", "")</f>
-        <v>9 (15 1) (17 2) (18 3) (17 4) (20 5) (21 6) (20 7) (20 8) (20 9)</v>
+ IFERROR(" (" &amp; (MATCH(C16,'WAR 9'!C:C,0)-1) &amp; " 9)", "") &amp;
+ IFERROR(" (" &amp; (MATCH(C16,'WAR 10'!C:C,0)-1) &amp; " 10)", "")</f>
+        <v>10 (15 1) (17 2) (18 3) (17 4) (20 5) (21 6) (20 7) (20 8) (20 9) (22 10)</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3663,27 +4537,29 @@
       <c r="C17" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="20" cm="1">
-        <f t="array" aca="1" ref="D17" ca="1">ROUND(
-  SUM(
-    IFERROR(VLOOKUP(C17,'WAR 1'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C17,'WAR 1'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C17,'WAR 2'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C17,'WAR 2'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C17,'WAR 3'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C17,'WAR 3'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C17,'WAR 4'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C17,'WAR 4'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C17,'WAR 5'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C17,'WAR 5'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C17,'WAR 6'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C17,'WAR 6'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C17,'WAR 7'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C17,'WAR 7'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C17,'WAR 8'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C17,'WAR 8'!C:E,3,FALSE),0),
-   IFERROR(VLOOKUP(C17,'WAR 9'!C:E,2,FALSE),0),
-   IFERROR(VLOOPUP(C17,'WAR 9'!C:E,3,FALSE),0)
+      <c r="D17" s="20">
+        <f>ROUND(
+  (
+    IFERROR(VLOOKUP(C17,'WAR 1'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C17,'WAR 1'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C17,'WAR 2'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C17,'WAR 2'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C17,'WAR 3'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C17,'WAR 3'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C17,'WAR 4'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C17,'WAR 4'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C17,'WAR 5'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C17,'WAR 5'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C17,'WAR 6'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C17,'WAR 6'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C17,'WAR 7'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C17,'WAR 7'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C17,'WAR 8'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C17,'WAR 8'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C17,'WAR 9'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C17,'WAR 9'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C17,'WAR 10'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C17,'WAR 10'!C:E,3,FALSE),0)
   ) /
   (
     COUNTIF('WAR 1'!C:C,C17)*2 +
@@ -3694,24 +4570,24 @@
     COUNTIF('WAR 6'!C:C,C17)*2 +
     COUNTIF('WAR 7'!C:C,C17)*2 +
     COUNTIF('WAR 8'!C:C,C17)*2 +
-    COUNTIF('WAR 9'!C:C,C17)*2
+    COUNTIF('WAR 9'!C:C,C17)*2 +
+    COUNTIF('WAR 10'!C:C,C17)*2
   ),
 2)</f>
-        <v>85.78</v>
+        <v>87</v>
       </c>
       <c r="E17" s="21">
-        <f>SUM(
-  IFERROR(VLOOKUP(C17,'WAR 1'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C17,'WAR 2'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C17,'WAR 3'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C17,'WAR 4'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C17,'WAR 5'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C17,'WAR 6'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C17,'WAR 7'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C17,'WAR 8'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C17,'WAR 9'!C:F,4,FALSE),0)
-)</f>
-        <v>9</v>
+        <f>IFERROR(VLOOKUP(C17,'WAR 1'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C17,'WAR 2'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C17,'WAR 3'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C17,'WAR 4'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C17,'WAR 5'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C17,'WAR 6'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C17,'WAR 7'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C17,'WAR 8'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C17,'WAR 9'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C17,'WAR 10'!C:F,4,FALSE),0)</f>
+        <v>10</v>
       </c>
       <c r="G17" t="s">
         <v>133</v>
@@ -3726,7 +4602,8 @@
  IFERROR((IF(MATCH(C17,'WAR 6'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C17,'WAR 7'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C17,'WAR 8'!C:C,0),1,0)),0) +
- IFERROR((IF(MATCH(C17,'WAR 9'!C:C,0),1,0)),0)
+ IFERROR((IF(MATCH(C17,'WAR 9'!C:C,0),1,0)),0) +
+ IFERROR((IF(MATCH(C17,'WAR 10'!C:C,0),1,0)),0)
 ) &amp; " " &amp;
  IFERROR("(" &amp; (MATCH(C17,'WAR 1'!C:C,0)-1) &amp; " 1)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C17,'WAR 2'!C:C,0)-1) &amp; " 2)", "") &amp;
@@ -3736,8 +4613,9 @@
  IFERROR(" (" &amp; (MATCH(C17,'WAR 6'!C:C,0)-1) &amp; " 6)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C17,'WAR 7'!C:C,0)-1) &amp; " 7)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C17,'WAR 8'!C:C,0)-1) &amp; " 8)", "") &amp;
- IFERROR(" (" &amp; (MATCH(C17,'WAR 9'!C:C,0)-1) &amp; " 9)", "")</f>
-        <v>9 (16 1) (20 2) (19 3) (18 4) (22 5) (23 6) (23 7) (22 8) (22 9)</v>
+ IFERROR(" (" &amp; (MATCH(C17,'WAR 9'!C:C,0)-1) &amp; " 9)", "") &amp;
+ IFERROR(" (" &amp; (MATCH(C17,'WAR 10'!C:C,0)-1) &amp; " 10)", "")</f>
+        <v>10 (16 1) (20 2) (19 3) (18 4) (22 5) (23 6) (23 7) (22 8) (22 9) (21 10)</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3750,27 +4628,29 @@
       <c r="C18" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="D18" s="20" cm="1">
-        <f t="array" aca="1" ref="D18" ca="1">ROUND(
-  SUM(
-    IFERROR(VLOOKUP(C18,'WAR 1'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C18,'WAR 1'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C18,'WAR 2'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C18,'WAR 2'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C18,'WAR 3'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C18,'WAR 3'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C18,'WAR 4'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C18,'WAR 4'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C18,'WAR 5'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C18,'WAR 5'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C18,'WAR 6'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C18,'WAR 6'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C18,'WAR 7'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C18,'WAR 7'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C18,'WAR 8'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C18,'WAR 8'!C:E,3,FALSE),0),
-   IFERROR(VLOOKUP(C18,'WAR 9'!C:E,2,FALSE),0),
-   IFERROR(VLOOPUP(C18,'WAR 9'!C:E,3,FALSE),0)
+      <c r="D18" s="20">
+        <f>ROUND(
+  (
+    IFERROR(VLOOKUP(C18,'WAR 1'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C18,'WAR 1'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C18,'WAR 2'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C18,'WAR 2'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C18,'WAR 3'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C18,'WAR 3'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C18,'WAR 4'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C18,'WAR 4'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C18,'WAR 5'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C18,'WAR 5'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C18,'WAR 6'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C18,'WAR 6'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C18,'WAR 7'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C18,'WAR 7'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C18,'WAR 8'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C18,'WAR 8'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C18,'WAR 9'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C18,'WAR 9'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C18,'WAR 10'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C18,'WAR 10'!C:E,3,FALSE),0)
   ) /
   (
     COUNTIF('WAR 1'!C:C,C18)*2 +
@@ -3781,24 +4661,24 @@
     COUNTIF('WAR 6'!C:C,C18)*2 +
     COUNTIF('WAR 7'!C:C,C18)*2 +
     COUNTIF('WAR 8'!C:C,C18)*2 +
-    COUNTIF('WAR 9'!C:C,C18)*2
+    COUNTIF('WAR 9'!C:C,C18)*2 +
+    COUNTIF('WAR 10'!C:C,C18)*2
   ),
 2)</f>
-        <v>86.61</v>
+        <v>87.85</v>
       </c>
       <c r="E18" s="21">
-        <f>SUM(
-  IFERROR(VLOOKUP(C18,'WAR 1'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C18,'WAR 2'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C18,'WAR 3'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C18,'WAR 4'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C18,'WAR 5'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C18,'WAR 6'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C18,'WAR 7'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C18,'WAR 8'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C18,'WAR 9'!C:F,4,FALSE),0)
-)</f>
-        <v>10</v>
+        <f>IFERROR(VLOOKUP(C18,'WAR 1'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C18,'WAR 2'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C18,'WAR 3'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C18,'WAR 4'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C18,'WAR 5'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C18,'WAR 6'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C18,'WAR 7'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C18,'WAR 8'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C18,'WAR 9'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C18,'WAR 10'!C:F,4,FALSE),0)</f>
+        <v>11</v>
       </c>
       <c r="G18" t="s">
         <v>123</v>
@@ -3813,7 +4693,8 @@
  IFERROR((IF(MATCH(C18,'WAR 6'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C18,'WAR 7'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C18,'WAR 8'!C:C,0),1,0)),0) +
- IFERROR((IF(MATCH(C18,'WAR 9'!C:C,0),1,0)),0)
+ IFERROR((IF(MATCH(C18,'WAR 9'!C:C,0),1,0)),0) +
+ IFERROR((IF(MATCH(C18,'WAR 10'!C:C,0),1,0)),0)
 ) &amp; " " &amp;
  IFERROR("(" &amp; (MATCH(C18,'WAR 1'!C:C,0)-1) &amp; " 1)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C18,'WAR 2'!C:C,0)-1) &amp; " 2)", "") &amp;
@@ -3823,8 +4704,9 @@
  IFERROR(" (" &amp; (MATCH(C18,'WAR 6'!C:C,0)-1) &amp; " 6)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C18,'WAR 7'!C:C,0)-1) &amp; " 7)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C18,'WAR 8'!C:C,0)-1) &amp; " 8)", "") &amp;
- IFERROR(" (" &amp; (MATCH(C18,'WAR 9'!C:C,0)-1) &amp; " 9)", "")</f>
-        <v>9 (17 1) (18 2) (20 3) (19 4) (19 5) (20 6) (19 7) (19 8) (19 9)</v>
+ IFERROR(" (" &amp; (MATCH(C18,'WAR 9'!C:C,0)-1) &amp; " 9)", "") &amp;
+ IFERROR(" (" &amp; (MATCH(C18,'WAR 10'!C:C,0)-1) &amp; " 10)", "")</f>
+        <v>10 (17 1) (18 2) (20 3) (19 4) (19 5) (20 6) (19 7) (19 8) (19 9) (20 10)</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3837,27 +4719,29 @@
       <c r="C19" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="D19" s="20" cm="1">
-        <f t="array" aca="1" ref="D19" ca="1">ROUND(
-  SUM(
-    IFERROR(VLOOKUP(C19,'WAR 1'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C19,'WAR 1'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C19,'WAR 2'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C19,'WAR 2'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C19,'WAR 3'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C19,'WAR 3'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C19,'WAR 4'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C19,'WAR 4'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C19,'WAR 5'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C19,'WAR 5'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C19,'WAR 6'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C19,'WAR 6'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C19,'WAR 7'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C19,'WAR 7'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C19,'WAR 8'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C19,'WAR 8'!C:E,3,FALSE),0),
-   IFERROR(VLOOKUP(C19,'WAR 9'!C:E,2,FALSE),0),
-   IFERROR(VLOOPUP(C19,'WAR 9'!C:E,3,FALSE),0)
+      <c r="D19" s="20">
+        <f>ROUND(
+  (
+    IFERROR(VLOOKUP(C19,'WAR 1'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C19,'WAR 1'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C19,'WAR 2'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C19,'WAR 2'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C19,'WAR 3'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C19,'WAR 3'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C19,'WAR 4'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C19,'WAR 4'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C19,'WAR 5'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C19,'WAR 5'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C19,'WAR 6'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C19,'WAR 6'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C19,'WAR 7'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C19,'WAR 7'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C19,'WAR 8'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C19,'WAR 8'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C19,'WAR 9'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C19,'WAR 9'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C19,'WAR 10'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C19,'WAR 10'!C:E,3,FALSE),0)
   ) /
   (
     COUNTIF('WAR 1'!C:C,C19)*2 +
@@ -3868,24 +4752,24 @@
     COUNTIF('WAR 6'!C:C,C19)*2 +
     COUNTIF('WAR 7'!C:C,C19)*2 +
     COUNTIF('WAR 8'!C:C,C19)*2 +
-    COUNTIF('WAR 9'!C:C,C19)*2
+    COUNTIF('WAR 9'!C:C,C19)*2 +
+    COUNTIF('WAR 10'!C:C,C19)*2
   ),
 2)</f>
-        <v>87.28</v>
+        <v>88.45</v>
       </c>
       <c r="E19" s="21">
-        <f>SUM(
-  IFERROR(VLOOKUP(C19,'WAR 1'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C19,'WAR 2'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C19,'WAR 3'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C19,'WAR 4'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C19,'WAR 5'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C19,'WAR 6'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C19,'WAR 7'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C19,'WAR 8'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C19,'WAR 9'!C:F,4,FALSE),0)
-)</f>
-        <v>13</v>
+        <f>IFERROR(VLOOKUP(C19,'WAR 1'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C19,'WAR 2'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C19,'WAR 3'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C19,'WAR 4'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C19,'WAR 5'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C19,'WAR 6'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C19,'WAR 7'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C19,'WAR 8'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C19,'WAR 9'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C19,'WAR 10'!C:F,4,FALSE),0)</f>
+        <v>14</v>
       </c>
       <c r="G19" t="s">
         <v>124</v>
@@ -3900,7 +4784,8 @@
  IFERROR((IF(MATCH(C19,'WAR 6'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C19,'WAR 7'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C19,'WAR 8'!C:C,0),1,0)),0) +
- IFERROR((IF(MATCH(C19,'WAR 9'!C:C,0),1,0)),0)
+ IFERROR((IF(MATCH(C19,'WAR 9'!C:C,0),1,0)),0) +
+ IFERROR((IF(MATCH(C19,'WAR 10'!C:C,0),1,0)),0)
 ) &amp; " " &amp;
  IFERROR("(" &amp; (MATCH(C19,'WAR 1'!C:C,0)-1) &amp; " 1)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C19,'WAR 2'!C:C,0)-1) &amp; " 2)", "") &amp;
@@ -3910,8 +4795,9 @@
  IFERROR(" (" &amp; (MATCH(C19,'WAR 6'!C:C,0)-1) &amp; " 6)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C19,'WAR 7'!C:C,0)-1) &amp; " 7)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C19,'WAR 8'!C:C,0)-1) &amp; " 8)", "") &amp;
- IFERROR(" (" &amp; (MATCH(C19,'WAR 9'!C:C,0)-1) &amp; " 9)", "")</f>
-        <v>9 (18 1) (21 2) (21 3) (20 4) (17 5) (19 6) (18 7) (17 8) (17 9)</v>
+ IFERROR(" (" &amp; (MATCH(C19,'WAR 9'!C:C,0)-1) &amp; " 9)", "") &amp;
+ IFERROR(" (" &amp; (MATCH(C19,'WAR 10'!C:C,0)-1) &amp; " 10)", "")</f>
+        <v>10 (18 1) (21 2) (21 3) (20 4) (17 5) (19 6) (18 7) (17 8) (17 9) (19 10)</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3924,27 +4810,29 @@
       <c r="C20" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="D20" s="20" cm="1">
-        <f t="array" aca="1" ref="D20" ca="1">ROUND(
-  SUM(
-    IFERROR(VLOOKUP(C20,'WAR 1'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C20,'WAR 1'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C20,'WAR 2'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C20,'WAR 2'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C20,'WAR 3'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C20,'WAR 3'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C20,'WAR 4'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C20,'WAR 4'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C20,'WAR 5'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C20,'WAR 5'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C20,'WAR 6'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C20,'WAR 6'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C20,'WAR 7'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C20,'WAR 7'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C20,'WAR 8'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C20,'WAR 8'!C:E,3,FALSE),0),
-   IFERROR(VLOOKUP(C20,'WAR 9'!C:E,2,FALSE),0),
-   IFERROR(VLOOPUP(C20,'WAR 9'!C:E,3,FALSE),0)
+      <c r="D20" s="20">
+        <f>ROUND(
+  (
+    IFERROR(VLOOKUP(C20,'WAR 1'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C20,'WAR 1'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C20,'WAR 2'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C20,'WAR 2'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C20,'WAR 3'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C20,'WAR 3'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C20,'WAR 4'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C20,'WAR 4'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C20,'WAR 5'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C20,'WAR 5'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C20,'WAR 6'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C20,'WAR 6'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C20,'WAR 7'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C20,'WAR 7'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C20,'WAR 8'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C20,'WAR 8'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C20,'WAR 9'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C20,'WAR 9'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C20,'WAR 10'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C20,'WAR 10'!C:E,3,FALSE),0)
   ) /
   (
     COUNTIF('WAR 1'!C:C,C20)*2 +
@@ -3955,29 +4843,29 @@
     COUNTIF('WAR 6'!C:C,C20)*2 +
     COUNTIF('WAR 7'!C:C,C20)*2 +
     COUNTIF('WAR 8'!C:C,C20)*2 +
-    COUNTIF('WAR 9'!C:C,C20)*2
+    COUNTIF('WAR 9'!C:C,C20)*2 +
+    COUNTIF('WAR 10'!C:C,C20)*2
   ),
 2)</f>
-        <v>81</v>
+        <v>74.2</v>
       </c>
       <c r="E20" s="21">
-        <f>SUM(
-  IFERROR(VLOOKUP(C20,'WAR 1'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C20,'WAR 2'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C20,'WAR 3'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C20,'WAR 4'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C20,'WAR 5'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C20,'WAR 6'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C20,'WAR 7'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C20,'WAR 8'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C20,'WAR 9'!C:F,4,FALSE),0)
-)</f>
+        <f>IFERROR(VLOOKUP(C20,'WAR 1'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C20,'WAR 2'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C20,'WAR 3'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C20,'WAR 4'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C20,'WAR 5'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C20,'WAR 6'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C20,'WAR 7'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C20,'WAR 8'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C20,'WAR 9'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C20,'WAR 10'!C:F,4,FALSE),0)</f>
         <v>6</v>
       </c>
       <c r="G20" t="s">
         <v>137</v>
       </c>
-      <c r="H20" s="13" t="str">
+      <c r="H20" s="1" t="str">
         <f>(
  IFERROR((IF(MATCH(C20,'WAR 1'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C20,'WAR 2'!C:C,0),1,0)),0) +
@@ -3987,7 +4875,8 @@
  IFERROR((IF(MATCH(C20,'WAR 6'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C20,'WAR 7'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C20,'WAR 8'!C:C,0),1,0)),0) +
- IFERROR((IF(MATCH(C20,'WAR 9'!C:C,0),1,0)),0)
+ IFERROR((IF(MATCH(C20,'WAR 9'!C:C,0),1,0)),0) +
+ IFERROR((IF(MATCH(C20,'WAR 10'!C:C,0),1,0)),0)
 ) &amp; " " &amp;
  IFERROR("(" &amp; (MATCH(C20,'WAR 1'!C:C,0)-1) &amp; " 1)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C20,'WAR 2'!C:C,0)-1) &amp; " 2)", "") &amp;
@@ -3997,8 +4886,9 @@
  IFERROR(" (" &amp; (MATCH(C20,'WAR 6'!C:C,0)-1) &amp; " 6)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C20,'WAR 7'!C:C,0)-1) &amp; " 7)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C20,'WAR 8'!C:C,0)-1) &amp; " 8)", "") &amp;
- IFERROR(" (" &amp; (MATCH(C20,'WAR 9'!C:C,0)-1) &amp; " 9)", "")</f>
-        <v>9 (19 1) (22 2) (23 3) (22 4) (24 5) (25 6) (22 7) (23 8) (23 9)</v>
+ IFERROR(" (" &amp; (MATCH(C20,'WAR 9'!C:C,0)-1) &amp; " 9)", "") &amp;
+ IFERROR(" (" &amp; (MATCH(C20,'WAR 10'!C:C,0)-1) &amp; " 10)", "")</f>
+        <v>10 (19 1) (22 2) (23 3) (22 4) (24 5) (25 6) (22 7) (23 8) (23 9) (24 10)</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4011,27 +4901,29 @@
       <c r="C21" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="20" cm="1">
-        <f t="array" aca="1" ref="D21" ca="1">ROUND(
-  SUM(
-    IFERROR(VLOOKUP(C21,'WAR 1'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C21,'WAR 1'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C21,'WAR 2'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C21,'WAR 2'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C21,'WAR 3'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C21,'WAR 3'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C21,'WAR 4'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C21,'WAR 4'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C21,'WAR 5'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C21,'WAR 5'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C21,'WAR 6'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C21,'WAR 6'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C21,'WAR 7'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C21,'WAR 7'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C21,'WAR 8'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C21,'WAR 8'!C:E,3,FALSE),0),
-   IFERROR(VLOOKUP(C21,'WAR 9'!C:E,2,FALSE),0),
-   IFERROR(VLOOPUP(C21,'WAR 9'!C:E,3,FALSE),0)
+      <c r="D21" s="20">
+        <f>ROUND(
+  (
+    IFERROR(VLOOKUP(C21,'WAR 1'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C21,'WAR 1'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C21,'WAR 2'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C21,'WAR 2'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C21,'WAR 3'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C21,'WAR 3'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C21,'WAR 4'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C21,'WAR 4'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C21,'WAR 5'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C21,'WAR 5'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C21,'WAR 6'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C21,'WAR 6'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C21,'WAR 7'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C21,'WAR 7'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C21,'WAR 8'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C21,'WAR 8'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C21,'WAR 9'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C21,'WAR 9'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C21,'WAR 10'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C21,'WAR 10'!C:E,3,FALSE),0)
   ) /
   (
     COUNTIF('WAR 1'!C:C,C21)*2 +
@@ -4042,29 +4934,29 @@
     COUNTIF('WAR 6'!C:C,C21)*2 +
     COUNTIF('WAR 7'!C:C,C21)*2 +
     COUNTIF('WAR 8'!C:C,C21)*2 +
-    COUNTIF('WAR 9'!C:C,C21)*2
+    COUNTIF('WAR 9'!C:C,C21)*2 +
+    COUNTIF('WAR 10'!C:C,C21)*2
   ),
 2)</f>
-        <v>81.22</v>
+        <v>83.1</v>
       </c>
       <c r="E21" s="21">
-        <f>SUM(
-  IFERROR(VLOOKUP(C21,'WAR 1'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C21,'WAR 2'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C21,'WAR 3'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C21,'WAR 4'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C21,'WAR 5'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C21,'WAR 6'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C21,'WAR 7'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C21,'WAR 8'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C21,'WAR 9'!C:F,4,FALSE),0)
-)</f>
-        <v>13</v>
+        <f>IFERROR(VLOOKUP(C21,'WAR 1'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C21,'WAR 2'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C21,'WAR 3'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C21,'WAR 4'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C21,'WAR 5'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C21,'WAR 6'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C21,'WAR 7'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C21,'WAR 8'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C21,'WAR 9'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C21,'WAR 10'!C:F,4,FALSE),0)</f>
+        <v>15</v>
       </c>
       <c r="G21" t="s">
         <v>130</v>
       </c>
-      <c r="H21" s="13" t="str">
+      <c r="H21" s="1" t="str">
         <f>(
  IFERROR((IF(MATCH(C21,'WAR 1'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C21,'WAR 2'!C:C,0),1,0)),0) +
@@ -4074,7 +4966,8 @@
  IFERROR((IF(MATCH(C21,'WAR 6'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C21,'WAR 7'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C21,'WAR 8'!C:C,0),1,0)),0) +
- IFERROR((IF(MATCH(C21,'WAR 9'!C:C,0),1,0)),0)
+ IFERROR((IF(MATCH(C21,'WAR 9'!C:C,0),1,0)),0) +
+ IFERROR((IF(MATCH(C21,'WAR 10'!C:C,0),1,0)),0)
 ) &amp; " " &amp;
  IFERROR("(" &amp; (MATCH(C21,'WAR 1'!C:C,0)-1) &amp; " 1)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C21,'WAR 2'!C:C,0)-1) &amp; " 2)", "") &amp;
@@ -4084,8 +4977,9 @@
  IFERROR(" (" &amp; (MATCH(C21,'WAR 6'!C:C,0)-1) &amp; " 6)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C21,'WAR 7'!C:C,0)-1) &amp; " 7)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C21,'WAR 8'!C:C,0)-1) &amp; " 8)", "") &amp;
- IFERROR(" (" &amp; (MATCH(C21,'WAR 9'!C:C,0)-1) &amp; " 9)", "")</f>
-        <v>9 (20 1) (24 2) (24 3) (23 4) (25 5) (26 6) (25 7) (25 8) (25 9)</v>
+ IFERROR(" (" &amp; (MATCH(C21,'WAR 9'!C:C,0)-1) &amp; " 9)", "") &amp;
+ IFERROR(" (" &amp; (MATCH(C21,'WAR 10'!C:C,0)-1) &amp; " 10)", "")</f>
+        <v>10 (20 1) (24 2) (24 3) (23 4) (25 5) (26 6) (25 7) (25 8) (25 9) (26 10)</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4098,27 +4992,29 @@
       <c r="C22" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="20" cm="1">
-        <f t="array" aca="1" ref="D22" ca="1">ROUND(
-  SUM(
-    IFERROR(VLOOKUP(C22,'WAR 1'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C22,'WAR 1'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C22,'WAR 2'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C22,'WAR 2'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C22,'WAR 3'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C22,'WAR 3'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C22,'WAR 4'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C22,'WAR 4'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C22,'WAR 5'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C22,'WAR 5'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C22,'WAR 6'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C22,'WAR 6'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C22,'WAR 7'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C22,'WAR 7'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C22,'WAR 8'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C22,'WAR 8'!C:E,3,FALSE),0),
-   IFERROR(VLOOKUP(C22,'WAR 9'!C:E,2,FALSE),0),
-   IFERROR(VLOOPUP(C22,'WAR 9'!C:E,3,FALSE),0)
+      <c r="D22" s="20">
+        <f>ROUND(
+  (
+    IFERROR(VLOOKUP(C22,'WAR 1'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C22,'WAR 1'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C22,'WAR 2'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C22,'WAR 2'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C22,'WAR 3'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C22,'WAR 3'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C22,'WAR 4'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C22,'WAR 4'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C22,'WAR 5'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C22,'WAR 5'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C22,'WAR 6'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C22,'WAR 6'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C22,'WAR 7'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C22,'WAR 7'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C22,'WAR 8'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C22,'WAR 8'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C22,'WAR 9'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C22,'WAR 9'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C22,'WAR 10'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C22,'WAR 10'!C:E,3,FALSE),0)
   ) /
   (
     COUNTIF('WAR 1'!C:C,C22)*2 +
@@ -4129,29 +5025,29 @@
     COUNTIF('WAR 6'!C:C,C22)*2 +
     COUNTIF('WAR 7'!C:C,C22)*2 +
     COUNTIF('WAR 8'!C:C,C22)*2 +
-    COUNTIF('WAR 9'!C:C,C22)*2
+    COUNTIF('WAR 9'!C:C,C22)*2 +
+    COUNTIF('WAR 10'!C:C,C22)*2
   ),
 2)</f>
-        <v>86.39</v>
+        <v>82.4</v>
       </c>
       <c r="E22" s="21">
-        <f>SUM(
-  IFERROR(VLOOKUP(C22,'WAR 1'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C22,'WAR 2'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C22,'WAR 3'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C22,'WAR 4'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C22,'WAR 5'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C22,'WAR 6'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C22,'WAR 7'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C22,'WAR 8'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C22,'WAR 9'!C:F,4,FALSE),0)
-)</f>
+        <f>IFERROR(VLOOKUP(C22,'WAR 1'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C22,'WAR 2'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C22,'WAR 3'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C22,'WAR 4'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C22,'WAR 5'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C22,'WAR 6'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C22,'WAR 7'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C22,'WAR 8'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C22,'WAR 9'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C22,'WAR 10'!C:F,4,FALSE),0)</f>
         <v>10</v>
       </c>
       <c r="G22" t="s">
         <v>135</v>
       </c>
-      <c r="H22" s="13" t="str">
+      <c r="H22" s="1" t="str">
         <f>(
  IFERROR((IF(MATCH(C22,'WAR 1'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C22,'WAR 2'!C:C,0),1,0)),0) +
@@ -4161,7 +5057,8 @@
  IFERROR((IF(MATCH(C22,'WAR 6'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C22,'WAR 7'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C22,'WAR 8'!C:C,0),1,0)),0) +
- IFERROR((IF(MATCH(C22,'WAR 9'!C:C,0),1,0)),0)
+ IFERROR((IF(MATCH(C22,'WAR 9'!C:C,0),1,0)),0) +
+ IFERROR((IF(MATCH(C22,'WAR 10'!C:C,0),1,0)),0)
 ) &amp; " " &amp;
  IFERROR("(" &amp; (MATCH(C22,'WAR 1'!C:C,0)-1) &amp; " 1)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C22,'WAR 2'!C:C,0)-1) &amp; " 2)", "") &amp;
@@ -4171,8 +5068,9 @@
  IFERROR(" (" &amp; (MATCH(C22,'WAR 6'!C:C,0)-1) &amp; " 6)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C22,'WAR 7'!C:C,0)-1) &amp; " 7)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C22,'WAR 8'!C:C,0)-1) &amp; " 8)", "") &amp;
- IFERROR(" (" &amp; (MATCH(C22,'WAR 9'!C:C,0)-1) &amp; " 9)", "")</f>
-        <v>9 (21 1) (23 2) (22 3) (21 4) (23 5) (24 6) (24 7) (24 8) (24 9)</v>
+ IFERROR(" (" &amp; (MATCH(C22,'WAR 9'!C:C,0)-1) &amp; " 9)", "") &amp;
+ IFERROR(" (" &amp; (MATCH(C22,'WAR 10'!C:C,0)-1) &amp; " 10)", "")</f>
+        <v>10 (21 1) (23 2) (22 3) (21 4) (23 5) (24 6) (24 7) (24 8) (24 9) (25 10)</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4185,27 +5083,29 @@
       <c r="C23" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="D23" s="20" cm="1">
-        <f t="array" aca="1" ref="D23" ca="1">ROUND(
-  SUM(
-    IFERROR(VLOOKUP(C23,'WAR 1'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C23,'WAR 1'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C23,'WAR 2'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C23,'WAR 2'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C23,'WAR 3'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C23,'WAR 3'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C23,'WAR 4'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C23,'WAR 4'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C23,'WAR 5'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C23,'WAR 5'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C23,'WAR 6'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C23,'WAR 6'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C23,'WAR 7'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C23,'WAR 7'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C23,'WAR 8'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C23,'WAR 8'!C:E,3,FALSE),0),
-   IFERROR(VLOOKUP(C23,'WAR 9'!C:E,2,FALSE),0),
-   IFERROR(VLOOPUP(C23,'WAR 9'!C:E,3,FALSE),0)
+      <c r="D23" s="20">
+        <f>ROUND(
+  (
+    IFERROR(VLOOKUP(C23,'WAR 1'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C23,'WAR 1'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C23,'WAR 2'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C23,'WAR 2'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C23,'WAR 3'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C23,'WAR 3'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C23,'WAR 4'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C23,'WAR 4'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C23,'WAR 5'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C23,'WAR 5'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C23,'WAR 6'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C23,'WAR 6'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C23,'WAR 7'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C23,'WAR 7'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C23,'WAR 8'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C23,'WAR 8'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C23,'WAR 9'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C23,'WAR 9'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C23,'WAR 10'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C23,'WAR 10'!C:E,3,FALSE),0)
   ) /
   (
     COUNTIF('WAR 1'!C:C,C23)*2 +
@@ -4216,29 +5116,29 @@
     COUNTIF('WAR 6'!C:C,C23)*2 +
     COUNTIF('WAR 7'!C:C,C23)*2 +
     COUNTIF('WAR 8'!C:C,C23)*2 +
-    COUNTIF('WAR 9'!C:C,C23)*2
+    COUNTIF('WAR 9'!C:C,C23)*2 +
+    COUNTIF('WAR 10'!C:C,C23)*2
   ),
 2)</f>
-        <v>82.19</v>
+        <v>94.69</v>
       </c>
       <c r="E23" s="21">
-        <f>SUM(
-  IFERROR(VLOOKUP(C23,'WAR 1'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C23,'WAR 2'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C23,'WAR 3'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C23,'WAR 4'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C23,'WAR 5'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C23,'WAR 6'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C23,'WAR 7'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C23,'WAR 8'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C23,'WAR 9'!C:F,4,FALSE),0)
-)</f>
-        <v>11</v>
+        <f>IFERROR(VLOOKUP(C23,'WAR 1'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C23,'WAR 2'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C23,'WAR 3'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C23,'WAR 4'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C23,'WAR 5'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C23,'WAR 6'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C23,'WAR 7'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C23,'WAR 8'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C23,'WAR 9'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C23,'WAR 10'!C:F,4,FALSE),0)</f>
+        <v>13</v>
       </c>
       <c r="G23" t="s">
         <v>143</v>
       </c>
-      <c r="H23" s="13" t="str">
+      <c r="H23" s="1" t="str">
         <f>(
  IFERROR((IF(MATCH(C23,'WAR 1'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C23,'WAR 2'!C:C,0),1,0)),0) +
@@ -4248,7 +5148,8 @@
  IFERROR((IF(MATCH(C23,'WAR 6'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C23,'WAR 7'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C23,'WAR 8'!C:C,0),1,0)),0) +
- IFERROR((IF(MATCH(C23,'WAR 9'!C:C,0),1,0)),0)
+ IFERROR((IF(MATCH(C23,'WAR 9'!C:C,0),1,0)),0) +
+ IFERROR((IF(MATCH(C23,'WAR 10'!C:C,0),1,0)),0)
 ) &amp; " " &amp;
  IFERROR("(" &amp; (MATCH(C23,'WAR 1'!C:C,0)-1) &amp; " 1)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C23,'WAR 2'!C:C,0)-1) &amp; " 2)", "") &amp;
@@ -4258,7 +5159,8 @@
  IFERROR(" (" &amp; (MATCH(C23,'WAR 6'!C:C,0)-1) &amp; " 6)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C23,'WAR 7'!C:C,0)-1) &amp; " 7)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C23,'WAR 8'!C:C,0)-1) &amp; " 8)", "") &amp;
- IFERROR(" (" &amp; (MATCH(C23,'WAR 9'!C:C,0)-1) &amp; " 9)", "")</f>
+ IFERROR(" (" &amp; (MATCH(C23,'WAR 9'!C:C,0)-1) &amp; " 9)", "") &amp;
+ IFERROR(" (" &amp; (MATCH(C23,'WAR 10'!C:C,0)-1) &amp; " 10)", "")</f>
         <v>8 (22 1) (25 2) (25 3) (26 5) (27 6) (26 7) (26 8) (26 9)</v>
       </c>
     </row>
@@ -4272,27 +5174,29 @@
       <c r="C24" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D24" s="20" cm="1">
-        <f t="array" aca="1" ref="D24" ca="1">ROUND(
-  SUM(
-    IFERROR(VLOOKUP(C24,'WAR 1'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C24,'WAR 1'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C24,'WAR 2'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C24,'WAR 2'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C24,'WAR 3'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C24,'WAR 3'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C24,'WAR 4'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C24,'WAR 4'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C24,'WAR 5'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C24,'WAR 5'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C24,'WAR 6'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C24,'WAR 6'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C24,'WAR 7'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C24,'WAR 7'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C24,'WAR 8'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C24,'WAR 8'!C:E,3,FALSE),0),
-   IFERROR(VLOOKUP(C24,'WAR 9'!C:E,2,FALSE),0),
-   IFERROR(VLOOPUP(C24,'WAR 9'!C:E,3,FALSE),0)
+      <c r="D24" s="20">
+        <f>ROUND(
+  (
+    IFERROR(VLOOKUP(C24,'WAR 1'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C24,'WAR 1'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C24,'WAR 2'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C24,'WAR 2'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C24,'WAR 3'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C24,'WAR 3'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C24,'WAR 4'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C24,'WAR 4'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C24,'WAR 5'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C24,'WAR 5'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C24,'WAR 6'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C24,'WAR 6'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C24,'WAR 7'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C24,'WAR 7'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C24,'WAR 8'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C24,'WAR 8'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C24,'WAR 9'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C24,'WAR 9'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C24,'WAR 10'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C24,'WAR 10'!C:E,3,FALSE),0)
   ) /
   (
     COUNTIF('WAR 1'!C:C,C24)*2 +
@@ -4303,29 +5207,29 @@
     COUNTIF('WAR 6'!C:C,C24)*2 +
     COUNTIF('WAR 7'!C:C,C24)*2 +
     COUNTIF('WAR 8'!C:C,C24)*2 +
-    COUNTIF('WAR 9'!C:C,C24)*2
+    COUNTIF('WAR 9'!C:C,C24)*2 +
+    COUNTIF('WAR 10'!C:C,C24)*2
   ),
 2)</f>
-        <v>87.39</v>
+        <v>88.65</v>
       </c>
       <c r="E24" s="21">
-        <f>SUM(
-  IFERROR(VLOOKUP(C24,'WAR 1'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C24,'WAR 2'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C24,'WAR 3'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C24,'WAR 4'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C24,'WAR 5'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C24,'WAR 6'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C24,'WAR 7'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C24,'WAR 8'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C24,'WAR 9'!C:F,4,FALSE),0)
-)</f>
-        <v>13</v>
+        <f>IFERROR(VLOOKUP(C24,'WAR 1'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C24,'WAR 2'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C24,'WAR 3'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C24,'WAR 4'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C24,'WAR 5'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C24,'WAR 6'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C24,'WAR 7'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C24,'WAR 8'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C24,'WAR 9'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C24,'WAR 10'!C:F,4,FALSE),0)</f>
+        <v>15</v>
       </c>
       <c r="G24" t="s">
         <v>132</v>
       </c>
-      <c r="H24" s="13" t="str">
+      <c r="H24" s="1" t="str">
         <f>(
  IFERROR((IF(MATCH(C24,'WAR 1'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C24,'WAR 2'!C:C,0),1,0)),0) +
@@ -4335,7 +5239,8 @@
  IFERROR((IF(MATCH(C24,'WAR 6'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C24,'WAR 7'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C24,'WAR 8'!C:C,0),1,0)),0) +
- IFERROR((IF(MATCH(C24,'WAR 9'!C:C,0),1,0)),0)
+ IFERROR((IF(MATCH(C24,'WAR 9'!C:C,0),1,0)),0) +
+ IFERROR((IF(MATCH(C24,'WAR 10'!C:C,0),1,0)),0)
 ) &amp; " " &amp;
  IFERROR("(" &amp; (MATCH(C24,'WAR 1'!C:C,0)-1) &amp; " 1)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C24,'WAR 2'!C:C,0)-1) &amp; " 2)", "") &amp;
@@ -4345,8 +5250,9 @@
  IFERROR(" (" &amp; (MATCH(C24,'WAR 6'!C:C,0)-1) &amp; " 6)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C24,'WAR 7'!C:C,0)-1) &amp; " 7)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C24,'WAR 8'!C:C,0)-1) &amp; " 8)", "") &amp;
- IFERROR(" (" &amp; (MATCH(C24,'WAR 9'!C:C,0)-1) &amp; " 9)", "")</f>
-        <v>9 (23 1) (26 2) (26 3) (24 4) (27 5) (28 6) (27 7) (27 8) (27 9)</v>
+ IFERROR(" (" &amp; (MATCH(C24,'WAR 9'!C:C,0)-1) &amp; " 9)", "") &amp;
+ IFERROR(" (" &amp; (MATCH(C24,'WAR 10'!C:C,0)-1) &amp; " 10)", "")</f>
+        <v>10 (23 1) (26 2) (26 3) (24 4) (27 5) (28 6) (27 7) (27 8) (27 9) (27 10)</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4359,27 +5265,29 @@
       <c r="C25" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D25" s="20" cm="1">
-        <f t="array" aca="1" ref="D25" ca="1">ROUND(
-  SUM(
-    IFERROR(VLOOKUP(C25,'WAR 1'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C25,'WAR 1'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C25,'WAR 2'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C25,'WAR 2'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C25,'WAR 3'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C25,'WAR 3'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C25,'WAR 4'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C25,'WAR 4'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C25,'WAR 5'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C25,'WAR 5'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C25,'WAR 6'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C25,'WAR 6'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C25,'WAR 7'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C25,'WAR 7'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C25,'WAR 8'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C25,'WAR 8'!C:E,3,FALSE),0),
-   IFERROR(VLOOKUP(C25,'WAR 9'!C:E,2,FALSE),0),
-   IFERROR(VLOOPUP(C25,'WAR 9'!C:E,3,FALSE),0)
+      <c r="D25" s="20">
+        <f>ROUND(
+  (
+    IFERROR(VLOOKUP(C25,'WAR 1'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C25,'WAR 1'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C25,'WAR 2'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C25,'WAR 2'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C25,'WAR 3'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C25,'WAR 3'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C25,'WAR 4'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C25,'WAR 4'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C25,'WAR 5'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C25,'WAR 5'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C25,'WAR 6'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C25,'WAR 6'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C25,'WAR 7'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C25,'WAR 7'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C25,'WAR 8'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C25,'WAR 8'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C25,'WAR 9'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C25,'WAR 9'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C25,'WAR 10'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C25,'WAR 10'!C:E,3,FALSE),0)
   ) /
   (
     COUNTIF('WAR 1'!C:C,C25)*2 +
@@ -4390,29 +5298,29 @@
     COUNTIF('WAR 6'!C:C,C25)*2 +
     COUNTIF('WAR 7'!C:C,C25)*2 +
     COUNTIF('WAR 8'!C:C,C25)*2 +
-    COUNTIF('WAR 9'!C:C,C25)*2
+    COUNTIF('WAR 9'!C:C,C25)*2 +
+    COUNTIF('WAR 10'!C:C,C25)*2
   ),
 2)</f>
-        <v>81.56</v>
+        <v>83.3</v>
       </c>
       <c r="E25" s="21">
-        <f>SUM(
-  IFERROR(VLOOKUP(C25,'WAR 1'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C25,'WAR 2'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C25,'WAR 3'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C25,'WAR 4'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C25,'WAR 5'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C25,'WAR 6'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C25,'WAR 7'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C25,'WAR 8'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C25,'WAR 9'!C:F,4,FALSE),0)
-)</f>
-        <v>7</v>
+        <f>IFERROR(VLOOKUP(C25,'WAR 1'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C25,'WAR 2'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C25,'WAR 3'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C25,'WAR 4'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C25,'WAR 5'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C25,'WAR 6'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C25,'WAR 7'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C25,'WAR 8'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C25,'WAR 9'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C25,'WAR 10'!C:F,4,FALSE),0)</f>
+        <v>8</v>
       </c>
       <c r="G25" t="s">
         <v>136</v>
       </c>
-      <c r="H25" s="13" t="str">
+      <c r="H25" s="1" t="str">
         <f>(
  IFERROR((IF(MATCH(C25,'WAR 1'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C25,'WAR 2'!C:C,0),1,0)),0) +
@@ -4422,7 +5330,8 @@
  IFERROR((IF(MATCH(C25,'WAR 6'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C25,'WAR 7'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C25,'WAR 8'!C:C,0),1,0)),0) +
- IFERROR((IF(MATCH(C25,'WAR 9'!C:C,0),1,0)),0)
+ IFERROR((IF(MATCH(C25,'WAR 9'!C:C,0),1,0)),0) +
+ IFERROR((IF(MATCH(C25,'WAR 10'!C:C,0),1,0)),0)
 ) &amp; " " &amp;
  IFERROR("(" &amp; (MATCH(C25,'WAR 1'!C:C,0)-1) &amp; " 1)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C25,'WAR 2'!C:C,0)-1) &amp; " 2)", "") &amp;
@@ -4432,8 +5341,9 @@
  IFERROR(" (" &amp; (MATCH(C25,'WAR 6'!C:C,0)-1) &amp; " 6)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C25,'WAR 7'!C:C,0)-1) &amp; " 7)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C25,'WAR 8'!C:C,0)-1) &amp; " 8)", "") &amp;
- IFERROR(" (" &amp; (MATCH(C25,'WAR 9'!C:C,0)-1) &amp; " 9)", "")</f>
-        <v>9 (24 1) (27 2) (27 3) (25 4) (28 5) (29 6) (28 7) (28 8) (28 9)</v>
+ IFERROR(" (" &amp; (MATCH(C25,'WAR 9'!C:C,0)-1) &amp; " 9)", "") &amp;
+ IFERROR(" (" &amp; (MATCH(C25,'WAR 10'!C:C,0)-1) &amp; " 10)", "")</f>
+        <v>10 (24 1) (27 2) (27 3) (25 4) (28 5) (29 6) (28 7) (28 8) (28 9) (28 10)</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4446,27 +5356,29 @@
       <c r="C26" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D26" s="20" cm="1">
-        <f t="array" aca="1" ref="D26" ca="1">ROUND(
-  SUM(
-    IFERROR(VLOOKUP(C26,'WAR 1'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C26,'WAR 1'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C26,'WAR 2'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C26,'WAR 2'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C26,'WAR 3'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C26,'WAR 3'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C26,'WAR 4'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C26,'WAR 4'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C26,'WAR 5'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C26,'WAR 5'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C26,'WAR 6'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C26,'WAR 6'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C26,'WAR 7'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C26,'WAR 7'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C26,'WAR 8'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C26,'WAR 8'!C:E,3,FALSE),0),
-   IFERROR(VLOOKUP(C26,'WAR 9'!C:E,2,FALSE),0),
-   IFERROR(VLOOPUP(C26,'WAR 9'!C:E,3,FALSE),0)
+      <c r="D26" s="20">
+        <f>ROUND(
+  (
+    IFERROR(VLOOKUP(C26,'WAR 1'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C26,'WAR 1'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C26,'WAR 2'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C26,'WAR 2'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C26,'WAR 3'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C26,'WAR 3'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C26,'WAR 4'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C26,'WAR 4'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C26,'WAR 5'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C26,'WAR 5'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C26,'WAR 6'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C26,'WAR 6'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C26,'WAR 7'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C26,'WAR 7'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C26,'WAR 8'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C26,'WAR 8'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C26,'WAR 9'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C26,'WAR 9'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C26,'WAR 10'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C26,'WAR 10'!C:E,3,FALSE),0)
   ) /
   (
     COUNTIF('WAR 1'!C:C,C26)*2 +
@@ -4477,29 +5389,29 @@
     COUNTIF('WAR 6'!C:C,C26)*2 +
     COUNTIF('WAR 7'!C:C,C26)*2 +
     COUNTIF('WAR 8'!C:C,C26)*2 +
-    COUNTIF('WAR 9'!C:C,C26)*2
+    COUNTIF('WAR 9'!C:C,C26)*2 +
+    COUNTIF('WAR 10'!C:C,C26)*2
   ),
 2)</f>
-        <v>51.2</v>
+        <v>58.17</v>
       </c>
       <c r="E26" s="21">
-        <f>SUM(
-  IFERROR(VLOOKUP(C26,'WAR 1'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C26,'WAR 2'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C26,'WAR 3'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C26,'WAR 4'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C26,'WAR 5'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C26,'WAR 6'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C26,'WAR 7'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C26,'WAR 8'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C26,'WAR 9'!C:F,4,FALSE),0)
-)</f>
+        <f>IFERROR(VLOOKUP(C26,'WAR 1'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C26,'WAR 2'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C26,'WAR 3'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C26,'WAR 4'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C26,'WAR 5'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C26,'WAR 6'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C26,'WAR 7'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C26,'WAR 8'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C26,'WAR 9'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C26,'WAR 10'!C:F,4,FALSE),0)</f>
         <v>3</v>
       </c>
       <c r="G26" t="s">
         <v>125</v>
       </c>
-      <c r="H26" s="13" t="str">
+      <c r="H26" s="1" t="str">
         <f>(
  IFERROR((IF(MATCH(C26,'WAR 1'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C26,'WAR 2'!C:C,0),1,0)),0) +
@@ -4509,7 +5421,8 @@
  IFERROR((IF(MATCH(C26,'WAR 6'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C26,'WAR 7'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C26,'WAR 8'!C:C,0),1,0)),0) +
- IFERROR((IF(MATCH(C26,'WAR 9'!C:C,0),1,0)),0)
+ IFERROR((IF(MATCH(C26,'WAR 9'!C:C,0),1,0)),0) +
+ IFERROR((IF(MATCH(C26,'WAR 10'!C:C,0),1,0)),0)
 ) &amp; " " &amp;
  IFERROR("(" &amp; (MATCH(C26,'WAR 1'!C:C,0)-1) &amp; " 1)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C26,'WAR 2'!C:C,0)-1) &amp; " 2)", "") &amp;
@@ -4519,8 +5432,9 @@
  IFERROR(" (" &amp; (MATCH(C26,'WAR 6'!C:C,0)-1) &amp; " 6)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C26,'WAR 7'!C:C,0)-1) &amp; " 7)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C26,'WAR 8'!C:C,0)-1) &amp; " 8)", "") &amp;
- IFERROR(" (" &amp; (MATCH(C26,'WAR 9'!C:C,0)-1) &amp; " 9)", "")</f>
-        <v>5 (25 1) (28 2) (28 3) (30 8) (31 9)</v>
+ IFERROR(" (" &amp; (MATCH(C26,'WAR 9'!C:C,0)-1) &amp; " 9)", "") &amp;
+ IFERROR(" (" &amp; (MATCH(C26,'WAR 10'!C:C,0)-1) &amp; " 10)", "")</f>
+        <v>6 (25 1) (28 2) (28 3) (30 8) (31 9) (31 10)</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4533,27 +5447,29 @@
       <c r="C27" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="D27" s="20" cm="1">
-        <f t="array" aca="1" ref="D27" ca="1">ROUND(
-  SUM(
-    IFERROR(VLOOKUP(C27,'WAR 1'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C27,'WAR 1'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C27,'WAR 2'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C27,'WAR 2'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C27,'WAR 3'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C27,'WAR 3'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C27,'WAR 4'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C27,'WAR 4'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C27,'WAR 5'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C27,'WAR 5'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C27,'WAR 6'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C27,'WAR 6'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C27,'WAR 7'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C27,'WAR 7'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C27,'WAR 8'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C27,'WAR 8'!C:E,3,FALSE),0),
-   IFERROR(VLOOKUP(C27,'WAR 9'!C:E,2,FALSE),0),
-   IFERROR(VLOOPUP(C27,'WAR 9'!C:E,3,FALSE),0)
+      <c r="D27" s="20">
+        <f>ROUND(
+  (
+    IFERROR(VLOOKUP(C27,'WAR 1'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C27,'WAR 1'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C27,'WAR 2'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C27,'WAR 2'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C27,'WAR 3'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C27,'WAR 3'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C27,'WAR 4'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C27,'WAR 4'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C27,'WAR 5'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C27,'WAR 5'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C27,'WAR 6'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C27,'WAR 6'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C27,'WAR 7'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C27,'WAR 7'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C27,'WAR 8'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C27,'WAR 8'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C27,'WAR 9'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C27,'WAR 9'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C27,'WAR 10'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C27,'WAR 10'!C:E,3,FALSE),0)
   ) /
   (
     COUNTIF('WAR 1'!C:C,C27)*2 +
@@ -4564,29 +5480,29 @@
     COUNTIF('WAR 6'!C:C,C27)*2 +
     COUNTIF('WAR 7'!C:C,C27)*2 +
     COUNTIF('WAR 8'!C:C,C27)*2 +
-    COUNTIF('WAR 9'!C:C,C27)*2
+    COUNTIF('WAR 9'!C:C,C27)*2 +
+    COUNTIF('WAR 10'!C:C,C27)*2
   ),
 2)</f>
-        <v>79.06</v>
+        <v>80.55</v>
       </c>
       <c r="E27" s="21">
-        <f>SUM(
-  IFERROR(VLOOKUP(C27,'WAR 1'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C27,'WAR 2'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C27,'WAR 3'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C27,'WAR 4'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C27,'WAR 5'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C27,'WAR 6'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C27,'WAR 7'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C27,'WAR 8'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C27,'WAR 9'!C:F,4,FALSE),0)
-)</f>
-        <v>11</v>
+        <f>IFERROR(VLOOKUP(C27,'WAR 1'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C27,'WAR 2'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C27,'WAR 3'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C27,'WAR 4'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C27,'WAR 5'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C27,'WAR 6'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C27,'WAR 7'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C27,'WAR 8'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C27,'WAR 9'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C27,'WAR 10'!C:F,4,FALSE),0)</f>
+        <v>12</v>
       </c>
       <c r="G27" t="s">
         <v>127</v>
       </c>
-      <c r="H27" s="13" t="str">
+      <c r="H27" s="1" t="str">
         <f>(
  IFERROR((IF(MATCH(C27,'WAR 1'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C27,'WAR 2'!C:C,0),1,0)),0) +
@@ -4596,7 +5512,8 @@
  IFERROR((IF(MATCH(C27,'WAR 6'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C27,'WAR 7'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C27,'WAR 8'!C:C,0),1,0)),0) +
- IFERROR((IF(MATCH(C27,'WAR 9'!C:C,0),1,0)),0)
+ IFERROR((IF(MATCH(C27,'WAR 9'!C:C,0),1,0)),0) +
+ IFERROR((IF(MATCH(C27,'WAR 10'!C:C,0),1,0)),0)
 ) &amp; " " &amp;
  IFERROR("(" &amp; (MATCH(C27,'WAR 1'!C:C,0)-1) &amp; " 1)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C27,'WAR 2'!C:C,0)-1) &amp; " 2)", "") &amp;
@@ -4606,8 +5523,9 @@
  IFERROR(" (" &amp; (MATCH(C27,'WAR 6'!C:C,0)-1) &amp; " 6)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C27,'WAR 7'!C:C,0)-1) &amp; " 7)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C27,'WAR 8'!C:C,0)-1) &amp; " 8)", "") &amp;
- IFERROR(" (" &amp; (MATCH(C27,'WAR 9'!C:C,0)-1) &amp; " 9)", "")</f>
-        <v>9 (26 1) (29 2) (29 3) (26 4) (30 5) (31 6) (29 7) (29 8) (29 9)</v>
+ IFERROR(" (" &amp; (MATCH(C27,'WAR 9'!C:C,0)-1) &amp; " 9)", "") &amp;
+ IFERROR(" (" &amp; (MATCH(C27,'WAR 10'!C:C,0)-1) &amp; " 10)", "")</f>
+        <v>10 (26 1) (29 2) (29 3) (26 4) (30 5) (31 6) (29 7) (29 8) (29 9) (29 10)</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4620,27 +5538,29 @@
       <c r="C28" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="20" cm="1">
-        <f t="array" aca="1" ref="D28" ca="1">ROUND(
-  SUM(
-    IFERROR(VLOOKUP(C28,'WAR 1'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C28,'WAR 1'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C28,'WAR 2'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C28,'WAR 2'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C28,'WAR 3'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C28,'WAR 3'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C28,'WAR 4'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C28,'WAR 4'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C28,'WAR 5'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C28,'WAR 5'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C28,'WAR 6'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C28,'WAR 6'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C28,'WAR 7'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C28,'WAR 7'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C28,'WAR 8'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C28,'WAR 8'!C:E,3,FALSE),0),
-   IFERROR(VLOOKUP(C28,'WAR 9'!C:E,2,FALSE),0),
-   IFERROR(VLOOPUP(C28,'WAR 9'!C:E,3,FALSE),0)
+      <c r="D28" s="20">
+        <f>ROUND(
+  (
+    IFERROR(VLOOKUP(C28,'WAR 1'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C28,'WAR 1'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C28,'WAR 2'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C28,'WAR 2'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C28,'WAR 3'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C28,'WAR 3'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C28,'WAR 4'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C28,'WAR 4'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C28,'WAR 5'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C28,'WAR 5'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C28,'WAR 6'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C28,'WAR 6'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C28,'WAR 7'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C28,'WAR 7'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C28,'WAR 8'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C28,'WAR 8'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C28,'WAR 9'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C28,'WAR 9'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C28,'WAR 10'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C28,'WAR 10'!C:E,3,FALSE),0)
   ) /
   (
     COUNTIF('WAR 1'!C:C,C28)*2 +
@@ -4651,29 +5571,29 @@
     COUNTIF('WAR 6'!C:C,C28)*2 +
     COUNTIF('WAR 7'!C:C,C28)*2 +
     COUNTIF('WAR 8'!C:C,C28)*2 +
-    COUNTIF('WAR 9'!C:C,C28)*2
+    COUNTIF('WAR 9'!C:C,C28)*2 +
+    COUNTIF('WAR 10'!C:C,C28)*2
   ),
 2)</f>
-        <v>82.11</v>
+        <v>79.400000000000006</v>
       </c>
       <c r="E28" s="21">
-        <f>SUM(
-  IFERROR(VLOOKUP(C28,'WAR 1'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C28,'WAR 2'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C28,'WAR 3'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C28,'WAR 4'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C28,'WAR 5'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C28,'WAR 6'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C28,'WAR 7'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C28,'WAR 8'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C28,'WAR 9'!C:F,4,FALSE),0)
-)</f>
+        <f>IFERROR(VLOOKUP(C28,'WAR 1'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C28,'WAR 2'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C28,'WAR 3'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C28,'WAR 4'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C28,'WAR 5'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C28,'WAR 6'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C28,'WAR 7'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C28,'WAR 8'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C28,'WAR 9'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C28,'WAR 10'!C:F,4,FALSE),0)</f>
         <v>6</v>
       </c>
       <c r="G28" t="s">
         <v>123</v>
       </c>
-      <c r="H28" s="13" t="str">
+      <c r="H28" s="1" t="str">
         <f>(
  IFERROR((IF(MATCH(C28,'WAR 1'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C28,'WAR 2'!C:C,0),1,0)),0) +
@@ -4683,7 +5603,8 @@
  IFERROR((IF(MATCH(C28,'WAR 6'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C28,'WAR 7'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C28,'WAR 8'!C:C,0),1,0)),0) +
- IFERROR((IF(MATCH(C28,'WAR 9'!C:C,0),1,0)),0)
+ IFERROR((IF(MATCH(C28,'WAR 9'!C:C,0),1,0)),0) +
+ IFERROR((IF(MATCH(C28,'WAR 10'!C:C,0),1,0)),0)
 ) &amp; " " &amp;
  IFERROR("(" &amp; (MATCH(C28,'WAR 1'!C:C,0)-1) &amp; " 1)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C28,'WAR 2'!C:C,0)-1) &amp; " 2)", "") &amp;
@@ -4693,8 +5614,9 @@
  IFERROR(" (" &amp; (MATCH(C28,'WAR 6'!C:C,0)-1) &amp; " 6)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C28,'WAR 7'!C:C,0)-1) &amp; " 7)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C28,'WAR 8'!C:C,0)-1) &amp; " 8)", "") &amp;
- IFERROR(" (" &amp; (MATCH(C28,'WAR 9'!C:C,0)-1) &amp; " 9)", "")</f>
-        <v>9 (27 1) (30 2) (30 3) (27 4) (29 5) (30 6) (30 7) (31 8) (30 9)</v>
+ IFERROR(" (" &amp; (MATCH(C28,'WAR 9'!C:C,0)-1) &amp; " 9)", "") &amp;
+ IFERROR(" (" &amp; (MATCH(C28,'WAR 10'!C:C,0)-1) &amp; " 10)", "")</f>
+        <v>10 (27 1) (30 2) (30 3) (27 4) (29 5) (30 6) (30 7) (31 8) (30 9) (30 10)</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4707,27 +5629,29 @@
       <c r="C29" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="D29" s="20" cm="1">
-        <f t="array" aca="1" ref="D29" ca="1">ROUND(
-  SUM(
-    IFERROR(VLOOKUP(C29,'WAR 1'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C29,'WAR 1'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C29,'WAR 2'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C29,'WAR 2'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C29,'WAR 3'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C29,'WAR 3'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C29,'WAR 4'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C29,'WAR 4'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C29,'WAR 5'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C29,'WAR 5'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C29,'WAR 6'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C29,'WAR 6'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C29,'WAR 7'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C29,'WAR 7'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C29,'WAR 8'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C29,'WAR 8'!C:E,3,FALSE),0),
-   IFERROR(VLOOKUP(C29,'WAR 9'!C:E,2,FALSE),0),
-   IFERROR(VLOOPUP(C29,'WAR 9'!C:E,3,FALSE),0)
+      <c r="D29" s="20">
+        <f>ROUND(
+  (
+    IFERROR(VLOOKUP(C29,'WAR 1'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C29,'WAR 1'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C29,'WAR 2'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C29,'WAR 2'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C29,'WAR 3'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C29,'WAR 3'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C29,'WAR 4'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C29,'WAR 4'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C29,'WAR 5'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C29,'WAR 5'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C29,'WAR 6'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C29,'WAR 6'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C29,'WAR 7'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C29,'WAR 7'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C29,'WAR 8'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C29,'WAR 8'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C29,'WAR 9'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C29,'WAR 9'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C29,'WAR 10'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C29,'WAR 10'!C:E,3,FALSE),0)
   ) /
   (
     COUNTIF('WAR 1'!C:C,C29)*2 +
@@ -4738,29 +5662,29 @@
     COUNTIF('WAR 6'!C:C,C29)*2 +
     COUNTIF('WAR 7'!C:C,C29)*2 +
     COUNTIF('WAR 8'!C:C,C29)*2 +
-    COUNTIF('WAR 9'!C:C,C29)*2
+    COUNTIF('WAR 9'!C:C,C29)*2 +
+    COUNTIF('WAR 10'!C:C,C29)*2
   ),
 2)</f>
-        <v>77.94</v>
+        <v>79.75</v>
       </c>
       <c r="E29" s="21">
-        <f>SUM(
-  IFERROR(VLOOKUP(C29,'WAR 1'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C29,'WAR 2'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C29,'WAR 3'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C29,'WAR 4'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C29,'WAR 5'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C29,'WAR 6'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C29,'WAR 7'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C29,'WAR 8'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C29,'WAR 9'!C:F,4,FALSE),0)
-)</f>
-        <v>1</v>
+        <f>IFERROR(VLOOKUP(C29,'WAR 1'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C29,'WAR 2'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C29,'WAR 3'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C29,'WAR 4'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C29,'WAR 5'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C29,'WAR 6'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C29,'WAR 7'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C29,'WAR 8'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C29,'WAR 9'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C29,'WAR 10'!C:F,4,FALSE),0)</f>
+        <v>2</v>
       </c>
       <c r="G29" t="s">
         <v>138</v>
       </c>
-      <c r="H29" s="13" t="str">
+      <c r="H29" s="1" t="str">
         <f>(
  IFERROR((IF(MATCH(C29,'WAR 1'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C29,'WAR 2'!C:C,0),1,0)),0) +
@@ -4770,7 +5694,8 @@
  IFERROR((IF(MATCH(C29,'WAR 6'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C29,'WAR 7'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C29,'WAR 8'!C:C,0),1,0)),0) +
- IFERROR((IF(MATCH(C29,'WAR 9'!C:C,0),1,0)),0)
+ IFERROR((IF(MATCH(C29,'WAR 9'!C:C,0),1,0)),0) +
+ IFERROR((IF(MATCH(C29,'WAR 10'!C:C,0),1,0)),0)
 ) &amp; " " &amp;
  IFERROR("(" &amp; (MATCH(C29,'WAR 1'!C:C,0)-1) &amp; " 1)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C29,'WAR 2'!C:C,0)-1) &amp; " 2)", "") &amp;
@@ -4780,8 +5705,9 @@
  IFERROR(" (" &amp; (MATCH(C29,'WAR 6'!C:C,0)-1) &amp; " 6)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C29,'WAR 7'!C:C,0)-1) &amp; " 7)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C29,'WAR 8'!C:C,0)-1) &amp; " 8)", "") &amp;
- IFERROR(" (" &amp; (MATCH(C29,'WAR 9'!C:C,0)-1) &amp; " 9)", "")</f>
-        <v>9 (28 1) (31 2) (32 3) (28 4) (32 5) (33 6) (32 7) (33 8) (33 9)</v>
+ IFERROR(" (" &amp; (MATCH(C29,'WAR 9'!C:C,0)-1) &amp; " 9)", "") &amp;
+ IFERROR(" (" &amp; (MATCH(C29,'WAR 10'!C:C,0)-1) &amp; " 10)", "")</f>
+        <v>10 (28 1) (31 2) (32 3) (28 4) (32 5) (33 6) (32 7) (33 8) (33 9) (33 10)</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4794,27 +5720,29 @@
       <c r="C30" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="D30" s="20" cm="1">
-        <f t="array" aca="1" ref="D30" ca="1">ROUND(
-  SUM(
-    IFERROR(VLOOKUP(C30,'WAR 1'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C30,'WAR 1'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C30,'WAR 2'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C30,'WAR 2'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C30,'WAR 3'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C30,'WAR 3'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C30,'WAR 4'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C30,'WAR 4'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C30,'WAR 5'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C30,'WAR 5'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C30,'WAR 6'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C30,'WAR 6'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C30,'WAR 7'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C30,'WAR 7'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C30,'WAR 8'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C30,'WAR 8'!C:E,3,FALSE),0),
-   IFERROR(VLOOKUP(C30,'WAR 9'!C:E,2,FALSE),0),
-   IFERROR(VLOOPUP(C30,'WAR 9'!C:E,3,FALSE),0)
+      <c r="D30" s="20">
+        <f>ROUND(
+  (
+    IFERROR(VLOOKUP(C30,'WAR 1'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C30,'WAR 1'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C30,'WAR 2'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C30,'WAR 2'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C30,'WAR 3'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C30,'WAR 3'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C30,'WAR 4'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C30,'WAR 4'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C30,'WAR 5'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C30,'WAR 5'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C30,'WAR 6'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C30,'WAR 6'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C30,'WAR 7'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C30,'WAR 7'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C30,'WAR 8'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C30,'WAR 8'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C30,'WAR 9'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C30,'WAR 9'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C30,'WAR 10'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C30,'WAR 10'!C:E,3,FALSE),0)
   ) /
   (
     COUNTIF('WAR 1'!C:C,C30)*2 +
@@ -4825,29 +5753,29 @@
     COUNTIF('WAR 6'!C:C,C30)*2 +
     COUNTIF('WAR 7'!C:C,C30)*2 +
     COUNTIF('WAR 8'!C:C,C30)*2 +
-    COUNTIF('WAR 9'!C:C,C30)*2
+    COUNTIF('WAR 9'!C:C,C30)*2 +
+    COUNTIF('WAR 10'!C:C,C30)*2
   ),
 2)</f>
         <v>83.33</v>
       </c>
       <c r="E30" s="21">
-        <f>SUM(
-  IFERROR(VLOOKUP(C30,'WAR 1'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C30,'WAR 2'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C30,'WAR 3'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C30,'WAR 4'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C30,'WAR 5'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C30,'WAR 6'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C30,'WAR 7'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C30,'WAR 8'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C30,'WAR 9'!C:F,4,FALSE),0)
-)</f>
+        <f>IFERROR(VLOOKUP(C30,'WAR 1'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C30,'WAR 2'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C30,'WAR 3'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C30,'WAR 4'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C30,'WAR 5'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C30,'WAR 6'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C30,'WAR 7'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C30,'WAR 8'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C30,'WAR 9'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C30,'WAR 10'!C:F,4,FALSE),0)</f>
         <v>2</v>
       </c>
       <c r="G30" t="s">
         <v>136</v>
       </c>
-      <c r="H30" s="13" t="str">
+      <c r="H30" s="1" t="str">
         <f>(
  IFERROR((IF(MATCH(C30,'WAR 1'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C30,'WAR 2'!C:C,0),1,0)),0) +
@@ -4857,7 +5785,8 @@
  IFERROR((IF(MATCH(C30,'WAR 6'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C30,'WAR 7'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C30,'WAR 8'!C:C,0),1,0)),0) +
- IFERROR((IF(MATCH(C30,'WAR 9'!C:C,0),1,0)),0)
+ IFERROR((IF(MATCH(C30,'WAR 9'!C:C,0),1,0)),0) +
+ IFERROR((IF(MATCH(C30,'WAR 10'!C:C,0),1,0)),0)
 ) &amp; " " &amp;
  IFERROR("(" &amp; (MATCH(C30,'WAR 1'!C:C,0)-1) &amp; " 1)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C30,'WAR 2'!C:C,0)-1) &amp; " 2)", "") &amp;
@@ -4867,7 +5796,8 @@
  IFERROR(" (" &amp; (MATCH(C30,'WAR 6'!C:C,0)-1) &amp; " 6)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C30,'WAR 7'!C:C,0)-1) &amp; " 7)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C30,'WAR 8'!C:C,0)-1) &amp; " 8)", "") &amp;
- IFERROR(" (" &amp; (MATCH(C30,'WAR 9'!C:C,0)-1) &amp; " 9)", "")</f>
+ IFERROR(" (" &amp; (MATCH(C30,'WAR 9'!C:C,0)-1) &amp; " 9)", "") &amp;
+ IFERROR(" (" &amp; (MATCH(C30,'WAR 10'!C:C,0)-1) &amp; " 10)", "")</f>
         <v>6 (29 1) (32 2) (34 3) (31 4) (34 5) (35 6)</v>
       </c>
     </row>
@@ -4881,27 +5811,29 @@
       <c r="C31" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="D31" s="20" cm="1">
-        <f t="array" aca="1" ref="D31" ca="1">ROUND(
-  SUM(
-    IFERROR(VLOOKUP(C31,'WAR 1'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C31,'WAR 1'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C31,'WAR 2'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C31,'WAR 2'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C31,'WAR 3'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C31,'WAR 3'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C31,'WAR 4'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C31,'WAR 4'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C31,'WAR 5'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C31,'WAR 5'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C31,'WAR 6'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C31,'WAR 6'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C31,'WAR 7'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C31,'WAR 7'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C31,'WAR 8'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C31,'WAR 8'!C:E,3,FALSE),0),
-   IFERROR(VLOOKUP(C31,'WAR 9'!C:E,2,FALSE),0),
-   IFERROR(VLOOPUP(C31,'WAR 9'!C:E,3,FALSE),0)
+      <c r="D31" s="20">
+        <f>ROUND(
+  (
+    IFERROR(VLOOKUP(C31,'WAR 1'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C31,'WAR 1'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C31,'WAR 2'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C31,'WAR 2'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C31,'WAR 3'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C31,'WAR 3'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C31,'WAR 4'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C31,'WAR 4'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C31,'WAR 5'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C31,'WAR 5'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C31,'WAR 6'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C31,'WAR 6'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C31,'WAR 7'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C31,'WAR 7'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C31,'WAR 8'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C31,'WAR 8'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C31,'WAR 9'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C31,'WAR 9'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C31,'WAR 10'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C31,'WAR 10'!C:E,3,FALSE),0)
   ) /
   (
     COUNTIF('WAR 1'!C:C,C31)*2 +
@@ -4912,29 +5844,29 @@
     COUNTIF('WAR 6'!C:C,C31)*2 +
     COUNTIF('WAR 7'!C:C,C31)*2 +
     COUNTIF('WAR 8'!C:C,C31)*2 +
-    COUNTIF('WAR 9'!C:C,C31)*2
+    COUNTIF('WAR 9'!C:C,C31)*2 +
+    COUNTIF('WAR 10'!C:C,C31)*2
   ),
 2)</f>
-        <v>57.44</v>
+        <v>61.7</v>
       </c>
       <c r="E31" s="21">
-        <f>SUM(
-  IFERROR(VLOOKUP(C31,'WAR 1'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C31,'WAR 2'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C31,'WAR 3'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C31,'WAR 4'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C31,'WAR 5'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C31,'WAR 6'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C31,'WAR 7'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C31,'WAR 8'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C31,'WAR 9'!C:F,4,FALSE),0)
-)</f>
-        <v>5</v>
+        <f>IFERROR(VLOOKUP(C31,'WAR 1'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C31,'WAR 2'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C31,'WAR 3'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C31,'WAR 4'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C31,'WAR 5'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C31,'WAR 6'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C31,'WAR 7'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C31,'WAR 8'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C31,'WAR 9'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C31,'WAR 10'!C:F,4,FALSE),0)</f>
+        <v>7</v>
       </c>
       <c r="G31" t="s">
         <v>139</v>
       </c>
-      <c r="H31" s="13" t="str">
+      <c r="H31" s="1" t="str">
         <f>(
  IFERROR((IF(MATCH(C31,'WAR 1'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C31,'WAR 2'!C:C,0),1,0)),0) +
@@ -4944,7 +5876,8 @@
  IFERROR((IF(MATCH(C31,'WAR 6'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C31,'WAR 7'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C31,'WAR 8'!C:C,0),1,0)),0) +
- IFERROR((IF(MATCH(C31,'WAR 9'!C:C,0),1,0)),0)
+ IFERROR((IF(MATCH(C31,'WAR 9'!C:C,0),1,0)),0) +
+ IFERROR((IF(MATCH(C31,'WAR 10'!C:C,0),1,0)),0)
 ) &amp; " " &amp;
  IFERROR("(" &amp; (MATCH(C31,'WAR 1'!C:C,0)-1) &amp; " 1)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C31,'WAR 2'!C:C,0)-1) &amp; " 2)", "") &amp;
@@ -4954,8 +5887,9 @@
  IFERROR(" (" &amp; (MATCH(C31,'WAR 6'!C:C,0)-1) &amp; " 6)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C31,'WAR 7'!C:C,0)-1) &amp; " 7)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C31,'WAR 8'!C:C,0)-1) &amp; " 8)", "") &amp;
- IFERROR(" (" &amp; (MATCH(C31,'WAR 9'!C:C,0)-1) &amp; " 9)", "")</f>
-        <v>9 (30 1) (34 2) (31 3) (29 4) (31 5) (32 6) (31 7) (32 8) (32 9)</v>
+ IFERROR(" (" &amp; (MATCH(C31,'WAR 9'!C:C,0)-1) &amp; " 9)", "") &amp;
+ IFERROR(" (" &amp; (MATCH(C31,'WAR 10'!C:C,0)-1) &amp; " 10)", "")</f>
+        <v>10 (30 1) (34 2) (31 3) (29 4) (31 5) (32 6) (31 7) (32 8) (32 9) (32 10)</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4968,27 +5902,29 @@
       <c r="C32" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="D32" s="20" cm="1">
-        <f t="array" aca="1" ref="D32" ca="1">ROUND(
-  SUM(
-    IFERROR(VLOOKUP(C32,'WAR 1'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C32,'WAR 1'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C32,'WAR 2'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C32,'WAR 2'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C32,'WAR 3'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C32,'WAR 3'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C32,'WAR 4'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C32,'WAR 4'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C32,'WAR 5'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C32,'WAR 5'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C32,'WAR 6'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C32,'WAR 6'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C32,'WAR 7'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C32,'WAR 7'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C32,'WAR 8'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C32,'WAR 8'!C:E,3,FALSE),0),
-   IFERROR(VLOOKUP(C32,'WAR 9'!C:E,2,FALSE),0),
-   IFERROR(VLOOPUP(C32,'WAR 9'!C:E,3,FALSE),0)
+      <c r="D32" s="20">
+        <f>ROUND(
+  (
+    IFERROR(VLOOKUP(C32,'WAR 1'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C32,'WAR 1'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C32,'WAR 2'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C32,'WAR 2'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C32,'WAR 3'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C32,'WAR 3'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C32,'WAR 4'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C32,'WAR 4'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C32,'WAR 5'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C32,'WAR 5'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C32,'WAR 6'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C32,'WAR 6'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C32,'WAR 7'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C32,'WAR 7'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C32,'WAR 8'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C32,'WAR 8'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C32,'WAR 9'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C32,'WAR 9'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C32,'WAR 10'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C32,'WAR 10'!C:E,3,FALSE),0)
   ) /
   (
     COUNTIF('WAR 1'!C:C,C32)*2 +
@@ -4999,29 +5935,29 @@
     COUNTIF('WAR 6'!C:C,C32)*2 +
     COUNTIF('WAR 7'!C:C,C32)*2 +
     COUNTIF('WAR 8'!C:C,C32)*2 +
-    COUNTIF('WAR 9'!C:C,C32)*2
+    COUNTIF('WAR 9'!C:C,C32)*2 +
+    COUNTIF('WAR 10'!C:C,C32)*2
   ),
 2)</f>
-        <v>83.5</v>
+        <v>84.2</v>
       </c>
       <c r="E32" s="21">
-        <f>SUM(
-  IFERROR(VLOOKUP(C32,'WAR 1'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C32,'WAR 2'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C32,'WAR 3'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C32,'WAR 4'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C32,'WAR 5'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C32,'WAR 6'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C32,'WAR 7'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C32,'WAR 8'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C32,'WAR 9'!C:F,4,FALSE),0)
-)</f>
+        <f>IFERROR(VLOOKUP(C32,'WAR 1'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C32,'WAR 2'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C32,'WAR 3'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C32,'WAR 4'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C32,'WAR 5'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C32,'WAR 6'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C32,'WAR 7'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C32,'WAR 8'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C32,'WAR 9'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C32,'WAR 10'!C:F,4,FALSE),0)</f>
         <v>8</v>
       </c>
       <c r="G32" t="s">
         <v>124</v>
       </c>
-      <c r="H32" s="27" t="str">
+      <c r="H32" s="1" t="str">
         <f>(
  IFERROR((IF(MATCH(C32,'WAR 1'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C32,'WAR 2'!C:C,0),1,0)),0) +
@@ -5031,7 +5967,8 @@
  IFERROR((IF(MATCH(C32,'WAR 6'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C32,'WAR 7'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C32,'WAR 8'!C:C,0),1,0)),0) +
- IFERROR((IF(MATCH(C32,'WAR 9'!C:C,0),1,0)),0)
+ IFERROR((IF(MATCH(C32,'WAR 9'!C:C,0),1,0)),0) +
+ IFERROR((IF(MATCH(C32,'WAR 10'!C:C,0),1,0)),0)
 ) &amp; " " &amp;
  IFERROR("(" &amp; (MATCH(C32,'WAR 1'!C:C,0)-1) &amp; " 1)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C32,'WAR 2'!C:C,0)-1) &amp; " 2)", "") &amp;
@@ -5041,8 +5978,9 @@
  IFERROR(" (" &amp; (MATCH(C32,'WAR 6'!C:C,0)-1) &amp; " 6)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C32,'WAR 7'!C:C,0)-1) &amp; " 7)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C32,'WAR 8'!C:C,0)-1) &amp; " 8)", "") &amp;
- IFERROR(" (" &amp; (MATCH(C32,'WAR 9'!C:C,0)-1) &amp; " 9)", "")</f>
-        <v>9 (31 1) (33 2) (33 3) (30 4) (33 5) (34 6) (33 7) (34 8) (34 9)</v>
+ IFERROR(" (" &amp; (MATCH(C32,'WAR 9'!C:C,0)-1) &amp; " 9)", "") &amp;
+ IFERROR(" (" &amp; (MATCH(C32,'WAR 10'!C:C,0)-1) &amp; " 10)", "")</f>
+        <v>10 (31 1) (33 2) (33 3) (30 4) (33 5) (34 6) (33 7) (34 8) (34 9) (34 10)</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -5055,27 +5993,29 @@
       <c r="C33" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="D33" s="20" cm="1">
-        <f t="array" aca="1" ref="D33" ca="1">ROUND(
-  SUM(
-    IFERROR(VLOOKUP(C33,'WAR 1'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C33,'WAR 1'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C33,'WAR 2'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C33,'WAR 2'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C33,'WAR 3'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C33,'WAR 3'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C33,'WAR 4'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C33,'WAR 4'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C33,'WAR 5'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C33,'WAR 5'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C33,'WAR 6'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C33,'WAR 6'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C33,'WAR 7'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C33,'WAR 7'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C33,'WAR 8'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C33,'WAR 8'!C:E,3,FALSE),0),
-   IFERROR(VLOOKUP(C33,'WAR 9'!C:E,2,FALSE),0),
-   IFERROR(VLOOPUP(C33,'WAR 9'!C:E,3,FALSE),0)
+      <c r="D33" s="20">
+        <f>ROUND(
+  (
+    IFERROR(VLOOKUP(C33,'WAR 1'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C33,'WAR 1'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C33,'WAR 2'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C33,'WAR 2'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C33,'WAR 3'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C33,'WAR 3'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C33,'WAR 4'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C33,'WAR 4'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C33,'WAR 5'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C33,'WAR 5'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C33,'WAR 6'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C33,'WAR 6'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C33,'WAR 7'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C33,'WAR 7'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C33,'WAR 8'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C33,'WAR 8'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C33,'WAR 9'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C33,'WAR 9'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C33,'WAR 10'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C33,'WAR 10'!C:E,3,FALSE),0)
   ) /
   (
     COUNTIF('WAR 1'!C:C,C33)*2 +
@@ -5086,24 +6026,24 @@
     COUNTIF('WAR 6'!C:C,C33)*2 +
     COUNTIF('WAR 7'!C:C,C33)*2 +
     COUNTIF('WAR 8'!C:C,C33)*2 +
-    COUNTIF('WAR 9'!C:C,C33)*2
+    COUNTIF('WAR 9'!C:C,C33)*2 +
+    COUNTIF('WAR 10'!C:C,C33)*2
   ),
 2)</f>
-        <v>85.61</v>
+        <v>86.75</v>
       </c>
       <c r="E33" s="21">
-        <f>SUM(
-  IFERROR(VLOOKUP(C33,'WAR 1'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C33,'WAR 2'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C33,'WAR 3'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C33,'WAR 4'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C33,'WAR 5'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C33,'WAR 6'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C33,'WAR 7'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C33,'WAR 8'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C33,'WAR 9'!C:F,4,FALSE),0)
-)</f>
-        <v>11</v>
+        <f>IFERROR(VLOOKUP(C33,'WAR 1'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C33,'WAR 2'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C33,'WAR 3'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C33,'WAR 4'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C33,'WAR 5'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C33,'WAR 6'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C33,'WAR 7'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C33,'WAR 8'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C33,'WAR 9'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C33,'WAR 10'!C:F,4,FALSE),0)</f>
+        <v>12</v>
       </c>
       <c r="G33" t="s">
         <v>131</v>
@@ -5118,7 +6058,8 @@
  IFERROR((IF(MATCH(C33,'WAR 6'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C33,'WAR 7'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C33,'WAR 8'!C:C,0),1,0)),0) +
- IFERROR((IF(MATCH(C33,'WAR 9'!C:C,0),1,0)),0)
+ IFERROR((IF(MATCH(C33,'WAR 9'!C:C,0),1,0)),0) +
+ IFERROR((IF(MATCH(C33,'WAR 10'!C:C,0),1,0)),0)
 ) &amp; " " &amp;
  IFERROR("(" &amp; (MATCH(C33,'WAR 1'!C:C,0)-1) &amp; " 1)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C33,'WAR 2'!C:C,0)-1) &amp; " 2)", "") &amp;
@@ -5128,8 +6069,9 @@
  IFERROR(" (" &amp; (MATCH(C33,'WAR 6'!C:C,0)-1) &amp; " 6)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C33,'WAR 7'!C:C,0)-1) &amp; " 7)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C33,'WAR 8'!C:C,0)-1) &amp; " 8)", "") &amp;
- IFERROR(" (" &amp; (MATCH(C33,'WAR 9'!C:C,0)-1) &amp; " 9)", "")</f>
-        <v>9 (32 1) (35 2) (35 3) (32 4) (35 5) (36 6) (34 7) (35 8) (35 9)</v>
+ IFERROR(" (" &amp; (MATCH(C33,'WAR 9'!C:C,0)-1) &amp; " 9)", "") &amp;
+ IFERROR(" (" &amp; (MATCH(C33,'WAR 10'!C:C,0)-1) &amp; " 10)", "")</f>
+        <v>10 (32 1) (35 2) (35 3) (32 4) (35 5) (36 6) (34 7) (35 8) (35 9) (35 10)</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -5142,27 +6084,29 @@
       <c r="C34" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="D34" s="20" cm="1">
-        <f t="array" aca="1" ref="D34" ca="1">ROUND(
-  SUM(
-    IFERROR(VLOOKUP(C34,'WAR 1'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C34,'WAR 1'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C34,'WAR 2'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C34,'WAR 2'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C34,'WAR 3'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C34,'WAR 3'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C34,'WAR 4'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C34,'WAR 4'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C34,'WAR 5'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C34,'WAR 5'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C34,'WAR 6'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C34,'WAR 6'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C34,'WAR 7'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C34,'WAR 7'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C34,'WAR 8'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C34,'WAR 8'!C:E,3,FALSE),0),
-   IFERROR(VLOOKUP(C34,'WAR 9'!C:E,2,FALSE),0),
-   IFERROR(VLOOPUP(C34,'WAR 9'!C:E,3,FALSE),0)
+      <c r="D34" s="20">
+        <f>ROUND(
+  (
+    IFERROR(VLOOKUP(C34,'WAR 1'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C34,'WAR 1'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C34,'WAR 2'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C34,'WAR 2'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C34,'WAR 3'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C34,'WAR 3'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C34,'WAR 4'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C34,'WAR 4'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C34,'WAR 5'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C34,'WAR 5'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C34,'WAR 6'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C34,'WAR 6'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C34,'WAR 7'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C34,'WAR 7'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C34,'WAR 8'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C34,'WAR 8'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C34,'WAR 9'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C34,'WAR 9'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C34,'WAR 10'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C34,'WAR 10'!C:E,3,FALSE),0)
   ) /
   (
     COUNTIF('WAR 1'!C:C,C34)*2 +
@@ -5173,23 +6117,23 @@
     COUNTIF('WAR 6'!C:C,C34)*2 +
     COUNTIF('WAR 7'!C:C,C34)*2 +
     COUNTIF('WAR 8'!C:C,C34)*2 +
-    COUNTIF('WAR 9'!C:C,C34)*2
+    COUNTIF('WAR 9'!C:C,C34)*2 +
+    COUNTIF('WAR 10'!C:C,C34)*2
   ),
 2)</f>
-        <v>50.61</v>
+        <v>49</v>
       </c>
       <c r="E34" s="21">
-        <f>SUM(
-  IFERROR(VLOOKUP(C34,'WAR 1'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C34,'WAR 2'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C34,'WAR 3'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C34,'WAR 4'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C34,'WAR 5'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C34,'WAR 6'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C34,'WAR 7'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C34,'WAR 8'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C34,'WAR 9'!C:F,4,FALSE),0)
-)</f>
+        <f>IFERROR(VLOOKUP(C34,'WAR 1'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C34,'WAR 2'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C34,'WAR 3'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C34,'WAR 4'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C34,'WAR 5'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C34,'WAR 6'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C34,'WAR 7'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C34,'WAR 8'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C34,'WAR 9'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C34,'WAR 10'!C:F,4,FALSE),0)</f>
         <v>2</v>
       </c>
       <c r="G34" t="s">
@@ -5205,7 +6149,8 @@
  IFERROR((IF(MATCH(C34,'WAR 6'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C34,'WAR 7'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C34,'WAR 8'!C:C,0),1,0)),0) +
- IFERROR((IF(MATCH(C34,'WAR 9'!C:C,0),1,0)),0)
+ IFERROR((IF(MATCH(C34,'WAR 9'!C:C,0),1,0)),0) +
+ IFERROR((IF(MATCH(C34,'WAR 10'!C:C,0),1,0)),0)
 ) &amp; " " &amp;
  IFERROR("(" &amp; (MATCH(C34,'WAR 1'!C:C,0)-1) &amp; " 1)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C34,'WAR 2'!C:C,0)-1) &amp; " 2)", "") &amp;
@@ -5215,8 +6160,9 @@
  IFERROR(" (" &amp; (MATCH(C34,'WAR 6'!C:C,0)-1) &amp; " 6)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C34,'WAR 7'!C:C,0)-1) &amp; " 7)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C34,'WAR 8'!C:C,0)-1) &amp; " 8)", "") &amp;
- IFERROR(" (" &amp; (MATCH(C34,'WAR 9'!C:C,0)-1) &amp; " 9)", "")</f>
-        <v>9 (33 1) (36 2) (36 3) (34 4) (37 5) (38 6) (36 7) (37 8) (37 9)</v>
+ IFERROR(" (" &amp; (MATCH(C34,'WAR 9'!C:C,0)-1) &amp; " 9)", "") &amp;
+ IFERROR(" (" &amp; (MATCH(C34,'WAR 10'!C:C,0)-1) &amp; " 10)", "")</f>
+        <v>10 (33 1) (36 2) (36 3) (34 4) (37 5) (38 6) (36 7) (37 8) (37 9) (37 10)</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -5229,27 +6175,29 @@
       <c r="C35" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="D35" s="20" cm="1">
-        <f t="array" aca="1" ref="D35" ca="1">ROUND(
-  SUM(
-    IFERROR(VLOOKUP(C35,'WAR 1'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C35,'WAR 1'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C35,'WAR 2'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C35,'WAR 2'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C35,'WAR 3'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C35,'WAR 3'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C35,'WAR 4'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C35,'WAR 4'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C35,'WAR 5'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C35,'WAR 5'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C35,'WAR 6'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C35,'WAR 6'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C35,'WAR 7'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C35,'WAR 7'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C35,'WAR 8'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C35,'WAR 8'!C:E,3,FALSE),0),
-   IFERROR(VLOOKUP(C35,'WAR 9'!C:E,2,FALSE),0),
-   IFERROR(VLOOPUP(C35,'WAR 9'!C:E,3,FALSE),0)
+      <c r="D35" s="20">
+        <f>ROUND(
+  (
+    IFERROR(VLOOKUP(C35,'WAR 1'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C35,'WAR 1'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C35,'WAR 2'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C35,'WAR 2'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C35,'WAR 3'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C35,'WAR 3'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C35,'WAR 4'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C35,'WAR 4'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C35,'WAR 5'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C35,'WAR 5'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C35,'WAR 6'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C35,'WAR 6'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C35,'WAR 7'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C35,'WAR 7'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C35,'WAR 8'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C35,'WAR 8'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C35,'WAR 9'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C35,'WAR 9'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C35,'WAR 10'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C35,'WAR 10'!C:E,3,FALSE),0)
   ) /
   (
     COUNTIF('WAR 1'!C:C,C35)*2 +
@@ -5260,24 +6208,24 @@
     COUNTIF('WAR 6'!C:C,C35)*2 +
     COUNTIF('WAR 7'!C:C,C35)*2 +
     COUNTIF('WAR 8'!C:C,C35)*2 +
-    COUNTIF('WAR 9'!C:C,C35)*2
+    COUNTIF('WAR 9'!C:C,C35)*2 +
+    COUNTIF('WAR 10'!C:C,C35)*2
   ),
 2)</f>
-        <v>85.61</v>
+        <v>86.95</v>
       </c>
       <c r="E35" s="21">
-        <f>SUM(
-  IFERROR(VLOOKUP(C35,'WAR 1'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C35,'WAR 2'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C35,'WAR 3'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C35,'WAR 4'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C35,'WAR 5'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C35,'WAR 6'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C35,'WAR 7'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C35,'WAR 8'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C35,'WAR 9'!C:F,4,FALSE),0)
-)</f>
-        <v>13</v>
+        <f>IFERROR(VLOOKUP(C35,'WAR 1'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C35,'WAR 2'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C35,'WAR 3'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C35,'WAR 4'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C35,'WAR 5'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C35,'WAR 6'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C35,'WAR 7'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C35,'WAR 8'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C35,'WAR 9'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C35,'WAR 10'!C:F,4,FALSE),0)</f>
+        <v>14</v>
       </c>
       <c r="G35" t="s">
         <v>133</v>
@@ -5292,7 +6240,8 @@
  IFERROR((IF(MATCH(C35,'WAR 6'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C35,'WAR 7'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C35,'WAR 8'!C:C,0),1,0)),0) +
- IFERROR((IF(MATCH(C35,'WAR 9'!C:C,0),1,0)),0)
+ IFERROR((IF(MATCH(C35,'WAR 9'!C:C,0),1,0)),0) +
+ IFERROR((IF(MATCH(C35,'WAR 10'!C:C,0),1,0)),0)
 ) &amp; " " &amp;
  IFERROR("(" &amp; (MATCH(C35,'WAR 1'!C:C,0)-1) &amp; " 1)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C35,'WAR 2'!C:C,0)-1) &amp; " 2)", "") &amp;
@@ -5302,8 +6251,9 @@
  IFERROR(" (" &amp; (MATCH(C35,'WAR 6'!C:C,0)-1) &amp; " 6)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C35,'WAR 7'!C:C,0)-1) &amp; " 7)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C35,'WAR 8'!C:C,0)-1) &amp; " 8)", "") &amp;
- IFERROR(" (" &amp; (MATCH(C35,'WAR 9'!C:C,0)-1) &amp; " 9)", "")</f>
-        <v>9 (34 1) (37 2) (37 3) (36 4) (39 5) (40 6) (38 7) (40 8) (40 9)</v>
+ IFERROR(" (" &amp; (MATCH(C35,'WAR 9'!C:C,0)-1) &amp; " 9)", "") &amp;
+ IFERROR(" (" &amp; (MATCH(C35,'WAR 10'!C:C,0)-1) &amp; " 10)", "")</f>
+        <v>10 (34 1) (37 2) (37 3) (36 4) (39 5) (40 6) (38 7) (40 8) (40 9) (40 10)</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -5316,27 +6266,29 @@
       <c r="C36" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="D36" s="20" cm="1">
-        <f t="array" aca="1" ref="D36" ca="1">ROUND(
-  SUM(
-    IFERROR(VLOOKUP(C36,'WAR 1'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C36,'WAR 1'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C36,'WAR 2'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C36,'WAR 2'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C36,'WAR 3'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C36,'WAR 3'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C36,'WAR 4'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C36,'WAR 4'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C36,'WAR 5'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C36,'WAR 5'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C36,'WAR 6'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C36,'WAR 6'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C36,'WAR 7'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C36,'WAR 7'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C36,'WAR 8'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C36,'WAR 8'!C:E,3,FALSE),0),
-   IFERROR(VLOOKUP(C36,'WAR 9'!C:E,2,FALSE),0),
-   IFERROR(VLOOPUP(C36,'WAR 9'!C:E,3,FALSE),0)
+      <c r="D36" s="20">
+        <f>ROUND(
+  (
+    IFERROR(VLOOKUP(C36,'WAR 1'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C36,'WAR 1'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C36,'WAR 2'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C36,'WAR 2'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C36,'WAR 3'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C36,'WAR 3'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C36,'WAR 4'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C36,'WAR 4'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C36,'WAR 5'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C36,'WAR 5'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C36,'WAR 6'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C36,'WAR 6'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C36,'WAR 7'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C36,'WAR 7'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C36,'WAR 8'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C36,'WAR 8'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C36,'WAR 9'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C36,'WAR 9'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C36,'WAR 10'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C36,'WAR 10'!C:E,3,FALSE),0)
   ) /
   (
     COUNTIF('WAR 1'!C:C,C36)*2 +
@@ -5347,23 +6299,23 @@
     COUNTIF('WAR 6'!C:C,C36)*2 +
     COUNTIF('WAR 7'!C:C,C36)*2 +
     COUNTIF('WAR 8'!C:C,C36)*2 +
-    COUNTIF('WAR 9'!C:C,C36)*2
+    COUNTIF('WAR 9'!C:C,C36)*2 +
+    COUNTIF('WAR 10'!C:C,C36)*2
   ),
 2)</f>
-        <v>45.13</v>
+        <v>36.1</v>
       </c>
       <c r="E36" s="21">
-        <f>SUM(
-  IFERROR(VLOOKUP(C36,'WAR 1'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C36,'WAR 2'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C36,'WAR 3'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C36,'WAR 4'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C36,'WAR 5'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C36,'WAR 6'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C36,'WAR 7'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C36,'WAR 8'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C36,'WAR 9'!C:F,4,FALSE),0)
-)</f>
+        <f>IFERROR(VLOOKUP(C36,'WAR 1'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C36,'WAR 2'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C36,'WAR 3'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C36,'WAR 4'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C36,'WAR 5'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C36,'WAR 6'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C36,'WAR 7'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C36,'WAR 8'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C36,'WAR 9'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C36,'WAR 10'!C:F,4,FALSE),0)</f>
         <v>1</v>
       </c>
       <c r="G36" t="s">
@@ -5379,7 +6331,8 @@
  IFERROR((IF(MATCH(C36,'WAR 6'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C36,'WAR 7'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C36,'WAR 8'!C:C,0),1,0)),0) +
- IFERROR((IF(MATCH(C36,'WAR 9'!C:C,0),1,0)),0)
+ IFERROR((IF(MATCH(C36,'WAR 9'!C:C,0),1,0)),0) +
+ IFERROR((IF(MATCH(C36,'WAR 10'!C:C,0),1,0)),0)
 ) &amp; " " &amp;
  IFERROR("(" &amp; (MATCH(C36,'WAR 1'!C:C,0)-1) &amp; " 1)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C36,'WAR 2'!C:C,0)-1) &amp; " 2)", "") &amp;
@@ -5389,8 +6342,9 @@
  IFERROR(" (" &amp; (MATCH(C36,'WAR 6'!C:C,0)-1) &amp; " 6)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C36,'WAR 7'!C:C,0)-1) &amp; " 7)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C36,'WAR 8'!C:C,0)-1) &amp; " 8)", "") &amp;
- IFERROR(" (" &amp; (MATCH(C36,'WAR 9'!C:C,0)-1) &amp; " 9)", "")</f>
-        <v>4 (35 1) (39 2) (39 3) (41 9)</v>
+ IFERROR(" (" &amp; (MATCH(C36,'WAR 9'!C:C,0)-1) &amp; " 9)", "") &amp;
+ IFERROR(" (" &amp; (MATCH(C36,'WAR 10'!C:C,0)-1) &amp; " 10)", "")</f>
+        <v>5 (35 1) (39 2) (39 3) (41 9) (41 10)</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -5403,27 +6357,29 @@
       <c r="C37" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="D37" s="20" cm="1">
-        <f t="array" aca="1" ref="D37" ca="1">ROUND(
-  SUM(
-    IFERROR(VLOOKUP(C37,'WAR 1'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C37,'WAR 1'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C37,'WAR 2'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C37,'WAR 2'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C37,'WAR 3'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C37,'WAR 3'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C37,'WAR 4'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C37,'WAR 4'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C37,'WAR 5'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C37,'WAR 5'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C37,'WAR 6'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C37,'WAR 6'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C37,'WAR 7'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C37,'WAR 7'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C37,'WAR 8'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C37,'WAR 8'!C:E,3,FALSE),0),
-   IFERROR(VLOOKUP(C37,'WAR 9'!C:E,2,FALSE),0),
-   IFERROR(VLOOPUP(C37,'WAR 9'!C:E,3,FALSE),0)
+      <c r="D37" s="20">
+        <f>ROUND(
+  (
+    IFERROR(VLOOKUP(C37,'WAR 1'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C37,'WAR 1'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C37,'WAR 2'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C37,'WAR 2'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C37,'WAR 3'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C37,'WAR 3'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C37,'WAR 4'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C37,'WAR 4'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C37,'WAR 5'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C37,'WAR 5'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C37,'WAR 6'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C37,'WAR 6'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C37,'WAR 7'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C37,'WAR 7'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C37,'WAR 8'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C37,'WAR 8'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C37,'WAR 9'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C37,'WAR 9'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C37,'WAR 10'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C37,'WAR 10'!C:E,3,FALSE),0)
   ) /
   (
     COUNTIF('WAR 1'!C:C,C37)*2 +
@@ -5434,23 +6390,23 @@
     COUNTIF('WAR 6'!C:C,C37)*2 +
     COUNTIF('WAR 7'!C:C,C37)*2 +
     COUNTIF('WAR 8'!C:C,C37)*2 +
-    COUNTIF('WAR 9'!C:C,C37)*2
+    COUNTIF('WAR 9'!C:C,C37)*2 +
+    COUNTIF('WAR 10'!C:C,C37)*2
   ),
 2)</f>
-        <v>79.5</v>
+        <v>80.05</v>
       </c>
       <c r="E37" s="21">
-        <f>SUM(
-  IFERROR(VLOOKUP(C37,'WAR 1'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C37,'WAR 2'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C37,'WAR 3'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C37,'WAR 4'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C37,'WAR 5'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C37,'WAR 6'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C37,'WAR 7'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C37,'WAR 8'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C37,'WAR 9'!C:F,4,FALSE),0)
-)</f>
+        <f>IFERROR(VLOOKUP(C37,'WAR 1'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C37,'WAR 2'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C37,'WAR 3'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C37,'WAR 4'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C37,'WAR 5'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C37,'WAR 6'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C37,'WAR 7'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C37,'WAR 8'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C37,'WAR 9'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C37,'WAR 10'!C:F,4,FALSE),0)</f>
         <v>6</v>
       </c>
       <c r="G37" t="s">
@@ -5466,7 +6422,8 @@
  IFERROR((IF(MATCH(C37,'WAR 6'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C37,'WAR 7'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C37,'WAR 8'!C:C,0),1,0)),0) +
- IFERROR((IF(MATCH(C37,'WAR 9'!C:C,0),1,0)),0)
+ IFERROR((IF(MATCH(C37,'WAR 9'!C:C,0),1,0)),0) +
+ IFERROR((IF(MATCH(C37,'WAR 10'!C:C,0),1,0)),0)
 ) &amp; " " &amp;
  IFERROR("(" &amp; (MATCH(C37,'WAR 1'!C:C,0)-1) &amp; " 1)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C37,'WAR 2'!C:C,0)-1) &amp; " 2)", "") &amp;
@@ -5476,8 +6433,9 @@
  IFERROR(" (" &amp; (MATCH(C37,'WAR 6'!C:C,0)-1) &amp; " 6)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C37,'WAR 7'!C:C,0)-1) &amp; " 7)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C37,'WAR 8'!C:C,0)-1) &amp; " 8)", "") &amp;
- IFERROR(" (" &amp; (MATCH(C37,'WAR 9'!C:C,0)-1) &amp; " 9)", "")</f>
-        <v>9 (36 1) (38 2) (38 3) (35 4) (38 5) (39 6) (37 7) (39 8) (39 9)</v>
+ IFERROR(" (" &amp; (MATCH(C37,'WAR 9'!C:C,0)-1) &amp; " 9)", "") &amp;
+ IFERROR(" (" &amp; (MATCH(C37,'WAR 10'!C:C,0)-1) &amp; " 10)", "")</f>
+        <v>10 (36 1) (38 2) (38 3) (35 4) (38 5) (39 6) (37 7) (39 8) (39 9) (39 10)</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -5490,27 +6448,29 @@
       <c r="C38" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="D38" s="20" cm="1">
-        <f t="array" aca="1" ref="D38" ca="1">ROUND(
-  SUM(
-    IFERROR(VLOOKUP(C38,'WAR 1'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C38,'WAR 1'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C38,'WAR 2'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C38,'WAR 2'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C38,'WAR 3'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C38,'WAR 3'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C38,'WAR 4'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C38,'WAR 4'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C38,'WAR 5'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C38,'WAR 5'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C38,'WAR 6'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C38,'WAR 6'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C38,'WAR 7'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C38,'WAR 7'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C38,'WAR 8'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C38,'WAR 8'!C:E,3,FALSE),0),
-   IFERROR(VLOOKUP(C38,'WAR 9'!C:E,2,FALSE),0),
-   IFERROR(VLOOPUP(C38,'WAR 9'!C:E,3,FALSE),0)
+      <c r="D38" s="20">
+        <f>ROUND(
+  (
+    IFERROR(VLOOKUP(C38,'WAR 1'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C38,'WAR 1'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C38,'WAR 2'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C38,'WAR 2'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C38,'WAR 3'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C38,'WAR 3'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C38,'WAR 4'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C38,'WAR 4'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C38,'WAR 5'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C38,'WAR 5'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C38,'WAR 6'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C38,'WAR 6'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C38,'WAR 7'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C38,'WAR 7'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C38,'WAR 8'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C38,'WAR 8'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C38,'WAR 9'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C38,'WAR 9'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C38,'WAR 10'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C38,'WAR 10'!C:E,3,FALSE),0)
   ) /
   (
     COUNTIF('WAR 1'!C:C,C38)*2 +
@@ -5521,23 +6481,23 @@
     COUNTIF('WAR 6'!C:C,C38)*2 +
     COUNTIF('WAR 7'!C:C,C38)*2 +
     COUNTIF('WAR 8'!C:C,C38)*2 +
-    COUNTIF('WAR 9'!C:C,C38)*2
+    COUNTIF('WAR 9'!C:C,C38)*2 +
+    COUNTIF('WAR 10'!C:C,C38)*2
   ),
 2)</f>
         <v>48.08</v>
       </c>
       <c r="E38" s="21">
-        <f>SUM(
-  IFERROR(VLOOKUP(C38,'WAR 1'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C38,'WAR 2'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C38,'WAR 3'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C38,'WAR 4'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C38,'WAR 5'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C38,'WAR 6'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C38,'WAR 7'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C38,'WAR 8'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C38,'WAR 9'!C:F,4,FALSE),0)
-)</f>
+        <f>IFERROR(VLOOKUP(C38,'WAR 1'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C38,'WAR 2'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C38,'WAR 3'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C38,'WAR 4'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C38,'WAR 5'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C38,'WAR 6'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C38,'WAR 7'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C38,'WAR 8'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C38,'WAR 9'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C38,'WAR 10'!C:F,4,FALSE),0)</f>
         <v>2</v>
       </c>
       <c r="G38" t="s">
@@ -5553,7 +6513,8 @@
  IFERROR((IF(MATCH(C38,'WAR 6'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C38,'WAR 7'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C38,'WAR 8'!C:C,0),1,0)),0) +
- IFERROR((IF(MATCH(C38,'WAR 9'!C:C,0),1,0)),0)
+ IFERROR((IF(MATCH(C38,'WAR 9'!C:C,0),1,0)),0) +
+ IFERROR((IF(MATCH(C38,'WAR 10'!C:C,0),1,0)),0)
 ) &amp; " " &amp;
  IFERROR("(" &amp; (MATCH(C38,'WAR 1'!C:C,0)-1) &amp; " 1)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C38,'WAR 2'!C:C,0)-1) &amp; " 2)", "") &amp;
@@ -5563,7 +6524,8 @@
  IFERROR(" (" &amp; (MATCH(C38,'WAR 6'!C:C,0)-1) &amp; " 6)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C38,'WAR 7'!C:C,0)-1) &amp; " 7)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C38,'WAR 8'!C:C,0)-1) &amp; " 8)", "") &amp;
- IFERROR(" (" &amp; (MATCH(C38,'WAR 9'!C:C,0)-1) &amp; " 9)", "")</f>
+ IFERROR(" (" &amp; (MATCH(C38,'WAR 9'!C:C,0)-1) &amp; " 9)", "") &amp;
+ IFERROR(" (" &amp; (MATCH(C38,'WAR 10'!C:C,0)-1) &amp; " 10)", "")</f>
         <v>6 (37 1) (40 2) (40 3) (37 4) (41 5) (42 6)</v>
       </c>
     </row>
@@ -5577,27 +6539,29 @@
       <c r="C39" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="D39" s="20" cm="1">
-        <f t="array" aca="1" ref="D39" ca="1">ROUND(
-  SUM(
-    IFERROR(VLOOKUP(C39,'WAR 1'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C39,'WAR 1'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C39,'WAR 2'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C39,'WAR 2'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C39,'WAR 3'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C39,'WAR 3'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C39,'WAR 4'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C39,'WAR 4'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C39,'WAR 5'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C39,'WAR 5'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C39,'WAR 6'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C39,'WAR 6'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C39,'WAR 7'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C39,'WAR 7'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C39,'WAR 8'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C39,'WAR 8'!C:E,3,FALSE),0),
-   IFERROR(VLOOKUP(C39,'WAR 9'!C:E,2,FALSE),0),
-   IFERROR(VLOOPUP(C39,'WAR 9'!C:E,3,FALSE),0)
+      <c r="D39" s="20">
+        <f>ROUND(
+  (
+    IFERROR(VLOOKUP(C39,'WAR 1'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C39,'WAR 1'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C39,'WAR 2'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C39,'WAR 2'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C39,'WAR 3'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C39,'WAR 3'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C39,'WAR 4'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C39,'WAR 4'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C39,'WAR 5'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C39,'WAR 5'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C39,'WAR 6'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C39,'WAR 6'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C39,'WAR 7'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C39,'WAR 7'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C39,'WAR 8'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C39,'WAR 8'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C39,'WAR 9'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C39,'WAR 9'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C39,'WAR 10'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C39,'WAR 10'!C:E,3,FALSE),0)
   ) /
   (
     COUNTIF('WAR 1'!C:C,C39)*2 +
@@ -5608,24 +6572,24 @@
     COUNTIF('WAR 6'!C:C,C39)*2 +
     COUNTIF('WAR 7'!C:C,C39)*2 +
     COUNTIF('WAR 8'!C:C,C39)*2 +
-    COUNTIF('WAR 9'!C:C,C39)*2
+    COUNTIF('WAR 9'!C:C,C39)*2 +
+    COUNTIF('WAR 10'!C:C,C39)*2
   ),
 2)</f>
-        <v>76.28</v>
+        <v>78.650000000000006</v>
       </c>
       <c r="E39" s="21">
-        <f>SUM(
-  IFERROR(VLOOKUP(C39,'WAR 1'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C39,'WAR 2'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C39,'WAR 3'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C39,'WAR 4'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C39,'WAR 5'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C39,'WAR 6'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C39,'WAR 7'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C39,'WAR 8'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C39,'WAR 9'!C:F,4,FALSE),0)
-)</f>
-        <v>9</v>
+        <f>IFERROR(VLOOKUP(C39,'WAR 1'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C39,'WAR 2'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C39,'WAR 3'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C39,'WAR 4'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C39,'WAR 5'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C39,'WAR 6'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C39,'WAR 7'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C39,'WAR 8'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C39,'WAR 9'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C39,'WAR 10'!C:F,4,FALSE),0)</f>
+        <v>11</v>
       </c>
       <c r="G39" t="s">
         <v>146</v>
@@ -5640,7 +6604,8 @@
  IFERROR((IF(MATCH(C39,'WAR 6'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C39,'WAR 7'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C39,'WAR 8'!C:C,0),1,0)),0) +
- IFERROR((IF(MATCH(C39,'WAR 9'!C:C,0),1,0)),0)
+ IFERROR((IF(MATCH(C39,'WAR 9'!C:C,0),1,0)),0) +
+ IFERROR((IF(MATCH(C39,'WAR 10'!C:C,0),1,0)),0)
 ) &amp; " " &amp;
  IFERROR("(" &amp; (MATCH(C39,'WAR 1'!C:C,0)-1) &amp; " 1)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C39,'WAR 2'!C:C,0)-1) &amp; " 2)", "") &amp;
@@ -5650,8 +6615,9 @@
  IFERROR(" (" &amp; (MATCH(C39,'WAR 6'!C:C,0)-1) &amp; " 6)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C39,'WAR 7'!C:C,0)-1) &amp; " 7)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C39,'WAR 8'!C:C,0)-1) &amp; " 8)", "") &amp;
- IFERROR(" (" &amp; (MATCH(C39,'WAR 9'!C:C,0)-1) &amp; " 9)", "")</f>
-        <v>9 (38 1) (41 2) (41 3) (38 4) (43 5) (44 6) (41 7) (43 8) (44 9)</v>
+ IFERROR(" (" &amp; (MATCH(C39,'WAR 9'!C:C,0)-1) &amp; " 9)", "") &amp;
+ IFERROR(" (" &amp; (MATCH(C39,'WAR 10'!C:C,0)-1) &amp; " 10)", "")</f>
+        <v>10 (38 1) (41 2) (41 3) (38 4) (43 5) (44 6) (41 7) (43 8) (44 9) (44 10)</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -5664,27 +6630,29 @@
       <c r="C40" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="D40" s="20" cm="1">
-        <f t="array" aca="1" ref="D40" ca="1">ROUND(
-  SUM(
-    IFERROR(VLOOKUP(C40,'WAR 1'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C40,'WAR 1'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C40,'WAR 2'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C40,'WAR 2'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C40,'WAR 3'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C40,'WAR 3'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C40,'WAR 4'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C40,'WAR 4'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C40,'WAR 5'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C40,'WAR 5'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C40,'WAR 6'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C40,'WAR 6'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C40,'WAR 7'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C40,'WAR 7'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C40,'WAR 8'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C40,'WAR 8'!C:E,3,FALSE),0),
-   IFERROR(VLOOKUP(C40,'WAR 9'!C:E,2,FALSE),0),
-   IFERROR(VLOOPUP(C40,'WAR 9'!C:E,3,FALSE),0)
+      <c r="D40" s="20">
+        <f>ROUND(
+  (
+    IFERROR(VLOOKUP(C40,'WAR 1'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C40,'WAR 1'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C40,'WAR 2'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C40,'WAR 2'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C40,'WAR 3'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C40,'WAR 3'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C40,'WAR 4'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C40,'WAR 4'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C40,'WAR 5'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C40,'WAR 5'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C40,'WAR 6'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C40,'WAR 6'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C40,'WAR 7'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C40,'WAR 7'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C40,'WAR 8'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C40,'WAR 8'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C40,'WAR 9'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C40,'WAR 9'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C40,'WAR 10'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C40,'WAR 10'!C:E,3,FALSE),0)
   ) /
   (
     COUNTIF('WAR 1'!C:C,C40)*2 +
@@ -5695,23 +6663,23 @@
     COUNTIF('WAR 6'!C:C,C40)*2 +
     COUNTIF('WAR 7'!C:C,C40)*2 +
     COUNTIF('WAR 8'!C:C,C40)*2 +
-    COUNTIF('WAR 9'!C:C,C40)*2
+    COUNTIF('WAR 9'!C:C,C40)*2 +
+    COUNTIF('WAR 10'!C:C,C40)*2
   ),
 2)</f>
-        <v>43.17</v>
+        <v>38.85</v>
       </c>
       <c r="E40" s="21">
-        <f>SUM(
-  IFERROR(VLOOKUP(C40,'WAR 1'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C40,'WAR 2'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C40,'WAR 3'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C40,'WAR 4'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C40,'WAR 5'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C40,'WAR 6'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C40,'WAR 7'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C40,'WAR 8'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C40,'WAR 9'!C:F,4,FALSE),0)
-)</f>
+        <f>IFERROR(VLOOKUP(C40,'WAR 1'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C40,'WAR 2'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C40,'WAR 3'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C40,'WAR 4'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C40,'WAR 5'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C40,'WAR 6'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C40,'WAR 7'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C40,'WAR 8'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C40,'WAR 9'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C40,'WAR 10'!C:F,4,FALSE),0)</f>
         <v>3</v>
       </c>
       <c r="G40" t="s">
@@ -5727,7 +6695,8 @@
  IFERROR((IF(MATCH(C40,'WAR 6'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C40,'WAR 7'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C40,'WAR 8'!C:C,0),1,0)),0) +
- IFERROR((IF(MATCH(C40,'WAR 9'!C:C,0),1,0)),0)
+ IFERROR((IF(MATCH(C40,'WAR 9'!C:C,0),1,0)),0) +
+ IFERROR((IF(MATCH(C40,'WAR 10'!C:C,0),1,0)),0)
 ) &amp; " " &amp;
  IFERROR("(" &amp; (MATCH(C40,'WAR 1'!C:C,0)-1) &amp; " 1)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C40,'WAR 2'!C:C,0)-1) &amp; " 2)", "") &amp;
@@ -5737,8 +6706,9 @@
  IFERROR(" (" &amp; (MATCH(C40,'WAR 6'!C:C,0)-1) &amp; " 6)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C40,'WAR 7'!C:C,0)-1) &amp; " 7)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C40,'WAR 8'!C:C,0)-1) &amp; " 8)", "") &amp;
- IFERROR(" (" &amp; (MATCH(C40,'WAR 9'!C:C,0)-1) &amp; " 9)", "")</f>
-        <v>9 (39 1) (42 2) (42 3) (39 4) (44 5) (45 6) (42 7) (44 8) (45 9)</v>
+ IFERROR(" (" &amp; (MATCH(C40,'WAR 9'!C:C,0)-1) &amp; " 9)", "") &amp;
+ IFERROR(" (" &amp; (MATCH(C40,'WAR 10'!C:C,0)-1) &amp; " 10)", "")</f>
+        <v>10 (39 1) (42 2) (42 3) (39 4) (44 5) (45 6) (42 7) (44 8) (45 9) (45 10)</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -5751,27 +6721,29 @@
       <c r="C41" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="D41" s="20" cm="1">
-        <f t="array" aca="1" ref="D41" ca="1">ROUND(
-  SUM(
-    IFERROR(VLOOKUP(C41,'WAR 1'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C41,'WAR 1'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C41,'WAR 2'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C41,'WAR 2'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C41,'WAR 3'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C41,'WAR 3'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C41,'WAR 4'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C41,'WAR 4'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C41,'WAR 5'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C41,'WAR 5'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C41,'WAR 6'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C41,'WAR 6'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C41,'WAR 7'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C41,'WAR 7'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C41,'WAR 8'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C41,'WAR 8'!C:E,3,FALSE),0),
-   IFERROR(VLOOKUP(C41,'WAR 9'!C:E,2,FALSE),0),
-   IFERROR(VLOOPUP(C41,'WAR 9'!C:E,3,FALSE),0)
+      <c r="D41" s="20">
+        <f>ROUND(
+  (
+    IFERROR(VLOOKUP(C41,'WAR 1'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C41,'WAR 1'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C41,'WAR 2'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C41,'WAR 2'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C41,'WAR 3'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C41,'WAR 3'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C41,'WAR 4'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C41,'WAR 4'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C41,'WAR 5'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C41,'WAR 5'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C41,'WAR 6'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C41,'WAR 6'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C41,'WAR 7'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C41,'WAR 7'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C41,'WAR 8'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C41,'WAR 8'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C41,'WAR 9'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C41,'WAR 9'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C41,'WAR 10'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C41,'WAR 10'!C:E,3,FALSE),0)
   ) /
   (
     COUNTIF('WAR 1'!C:C,C41)*2 +
@@ -5782,24 +6754,24 @@
     COUNTIF('WAR 6'!C:C,C41)*2 +
     COUNTIF('WAR 7'!C:C,C41)*2 +
     COUNTIF('WAR 8'!C:C,C41)*2 +
-    COUNTIF('WAR 9'!C:C,C41)*2
+    COUNTIF('WAR 9'!C:C,C41)*2 +
+    COUNTIF('WAR 10'!C:C,C41)*2
   ),
 2)</f>
-        <v>80.33</v>
+        <v>82.3</v>
       </c>
       <c r="E41" s="21">
-        <f>SUM(
-  IFERROR(VLOOKUP(C41,'WAR 1'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C41,'WAR 2'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C41,'WAR 3'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C41,'WAR 4'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C41,'WAR 5'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C41,'WAR 6'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C41,'WAR 7'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C41,'WAR 8'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C41,'WAR 9'!C:F,4,FALSE),0)
-)</f>
-        <v>7</v>
+        <f>IFERROR(VLOOKUP(C41,'WAR 1'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C41,'WAR 2'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C41,'WAR 3'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C41,'WAR 4'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C41,'WAR 5'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C41,'WAR 6'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C41,'WAR 7'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C41,'WAR 8'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C41,'WAR 9'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C41,'WAR 10'!C:F,4,FALSE),0)</f>
+        <v>9</v>
       </c>
       <c r="G41" t="s">
         <v>138</v>
@@ -5814,7 +6786,8 @@
  IFERROR((IF(MATCH(C41,'WAR 6'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C41,'WAR 7'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C41,'WAR 8'!C:C,0),1,0)),0) +
- IFERROR((IF(MATCH(C41,'WAR 9'!C:C,0),1,0)),0)
+ IFERROR((IF(MATCH(C41,'WAR 9'!C:C,0),1,0)),0) +
+ IFERROR((IF(MATCH(C41,'WAR 10'!C:C,0),1,0)),0)
 ) &amp; " " &amp;
  IFERROR("(" &amp; (MATCH(C41,'WAR 1'!C:C,0)-1) &amp; " 1)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C41,'WAR 2'!C:C,0)-1) &amp; " 2)", "") &amp;
@@ -5824,8 +6797,9 @@
  IFERROR(" (" &amp; (MATCH(C41,'WAR 6'!C:C,0)-1) &amp; " 6)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C41,'WAR 7'!C:C,0)-1) &amp; " 7)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C41,'WAR 8'!C:C,0)-1) &amp; " 8)", "") &amp;
- IFERROR(" (" &amp; (MATCH(C41,'WAR 9'!C:C,0)-1) &amp; " 9)", "")</f>
-        <v>9 (40 1) (43 2) (44 3) (40 4) (45 5) (46 6) (43 7) (45 8) (46 9)</v>
+ IFERROR(" (" &amp; (MATCH(C41,'WAR 9'!C:C,0)-1) &amp; " 9)", "") &amp;
+ IFERROR(" (" &amp; (MATCH(C41,'WAR 10'!C:C,0)-1) &amp; " 10)", "")</f>
+        <v>10 (40 1) (43 2) (44 3) (40 4) (45 5) (46 6) (43 7) (45 8) (46 9) (46 10)</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -5838,27 +6812,29 @@
       <c r="C42" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="D42" s="20" cm="1">
-        <f t="array" aca="1" ref="D42" ca="1">ROUND(
-  SUM(
-    IFERROR(VLOOKUP(C42,'WAR 1'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C42,'WAR 1'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C42,'WAR 2'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C42,'WAR 2'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C42,'WAR 3'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C42,'WAR 3'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C42,'WAR 4'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C42,'WAR 4'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C42,'WAR 5'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C42,'WAR 5'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C42,'WAR 6'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C42,'WAR 6'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C42,'WAR 7'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C42,'WAR 7'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C42,'WAR 8'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C42,'WAR 8'!C:E,3,FALSE),0),
-   IFERROR(VLOOKUP(C42,'WAR 9'!C:E,2,FALSE),0),
-   IFERROR(VLOOPUP(C42,'WAR 9'!C:E,3,FALSE),0)
+      <c r="D42" s="20">
+        <f>ROUND(
+  (
+    IFERROR(VLOOKUP(C42,'WAR 1'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C42,'WAR 1'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C42,'WAR 2'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C42,'WAR 2'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C42,'WAR 3'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C42,'WAR 3'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C42,'WAR 4'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C42,'WAR 4'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C42,'WAR 5'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C42,'WAR 5'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C42,'WAR 6'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C42,'WAR 6'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C42,'WAR 7'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C42,'WAR 7'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C42,'WAR 8'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C42,'WAR 8'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C42,'WAR 9'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C42,'WAR 9'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C42,'WAR 10'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C42,'WAR 10'!C:E,3,FALSE),0)
   ) /
   (
     COUNTIF('WAR 1'!C:C,C42)*2 +
@@ -5869,23 +6845,23 @@
     COUNTIF('WAR 6'!C:C,C42)*2 +
     COUNTIF('WAR 7'!C:C,C42)*2 +
     COUNTIF('WAR 8'!C:C,C42)*2 +
-    COUNTIF('WAR 9'!C:C,C42)*2
+    COUNTIF('WAR 9'!C:C,C42)*2 +
+    COUNTIF('WAR 10'!C:C,C42)*2
   ),
 2)</f>
         <v>41</v>
       </c>
       <c r="E42" s="21">
-        <f>SUM(
-  IFERROR(VLOOKUP(C42,'WAR 1'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C42,'WAR 2'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C42,'WAR 3'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C42,'WAR 4'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C42,'WAR 5'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C42,'WAR 6'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C42,'WAR 7'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C42,'WAR 8'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C42,'WAR 9'!C:F,4,FALSE),0)
-)</f>
+        <f>IFERROR(VLOOKUP(C42,'WAR 1'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C42,'WAR 2'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C42,'WAR 3'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C42,'WAR 4'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C42,'WAR 5'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C42,'WAR 6'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C42,'WAR 7'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C42,'WAR 8'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C42,'WAR 9'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C42,'WAR 10'!C:F,4,FALSE),0)</f>
         <v>1</v>
       </c>
       <c r="G42" t="s">
@@ -5901,7 +6877,8 @@
  IFERROR((IF(MATCH(C42,'WAR 6'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C42,'WAR 7'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C42,'WAR 8'!C:C,0),1,0)),0) +
- IFERROR((IF(MATCH(C42,'WAR 9'!C:C,0),1,0)),0)
+ IFERROR((IF(MATCH(C42,'WAR 9'!C:C,0),1,0)),0) +
+ IFERROR((IF(MATCH(C42,'WAR 10'!C:C,0),1,0)),0)
 ) &amp; " " &amp;
  IFERROR("(" &amp; (MATCH(C42,'WAR 1'!C:C,0)-1) &amp; " 1)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C42,'WAR 2'!C:C,0)-1) &amp; " 2)", "") &amp;
@@ -5911,7 +6888,8 @@
  IFERROR(" (" &amp; (MATCH(C42,'WAR 6'!C:C,0)-1) &amp; " 6)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C42,'WAR 7'!C:C,0)-1) &amp; " 7)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C42,'WAR 8'!C:C,0)-1) &amp; " 8)", "") &amp;
- IFERROR(" (" &amp; (MATCH(C42,'WAR 9'!C:C,0)-1) &amp; " 9)", "")</f>
+ IFERROR(" (" &amp; (MATCH(C42,'WAR 9'!C:C,0)-1) &amp; " 9)", "") &amp;
+ IFERROR(" (" &amp; (MATCH(C42,'WAR 10'!C:C,0)-1) &amp; " 10)", "")</f>
         <v>2 (41 1) (44 2)</v>
       </c>
     </row>
@@ -5925,27 +6903,29 @@
       <c r="C43" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="D43" s="20" cm="1">
-        <f t="array" aca="1" ref="D43" ca="1">ROUND(
-  SUM(
-    IFERROR(VLOOKUP(C43,'WAR 1'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C43,'WAR 1'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C43,'WAR 2'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C43,'WAR 2'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C43,'WAR 3'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C43,'WAR 3'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C43,'WAR 4'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C43,'WAR 4'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C43,'WAR 5'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C43,'WAR 5'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C43,'WAR 6'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C43,'WAR 6'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C43,'WAR 7'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C43,'WAR 7'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C43,'WAR 8'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C43,'WAR 8'!C:E,3,FALSE),0),
-   IFERROR(VLOOKUP(C43,'WAR 9'!C:E,2,FALSE),0),
-   IFERROR(VLOOPUP(C43,'WAR 9'!C:E,3,FALSE),0)
+      <c r="D43" s="20">
+        <f>ROUND(
+  (
+    IFERROR(VLOOKUP(C43,'WAR 1'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C43,'WAR 1'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C43,'WAR 2'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C43,'WAR 2'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C43,'WAR 3'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C43,'WAR 3'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C43,'WAR 4'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C43,'WAR 4'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C43,'WAR 5'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C43,'WAR 5'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C43,'WAR 6'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C43,'WAR 6'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C43,'WAR 7'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C43,'WAR 7'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C43,'WAR 8'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C43,'WAR 8'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C43,'WAR 9'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C43,'WAR 9'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C43,'WAR 10'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C43,'WAR 10'!C:E,3,FALSE),0)
   ) /
   (
     COUNTIF('WAR 1'!C:C,C43)*2 +
@@ -5956,23 +6936,23 @@
     COUNTIF('WAR 6'!C:C,C43)*2 +
     COUNTIF('WAR 7'!C:C,C43)*2 +
     COUNTIF('WAR 8'!C:C,C43)*2 +
-    COUNTIF('WAR 9'!C:C,C43)*2
+    COUNTIF('WAR 9'!C:C,C43)*2 +
+    COUNTIF('WAR 10'!C:C,C43)*2
   ),
 2)</f>
         <v>60.83</v>
       </c>
       <c r="E43" s="21">
-        <f>SUM(
-  IFERROR(VLOOKUP(C43,'WAR 1'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C43,'WAR 2'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C43,'WAR 3'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C43,'WAR 4'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C43,'WAR 5'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C43,'WAR 6'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C43,'WAR 7'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C43,'WAR 8'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C43,'WAR 9'!C:F,4,FALSE),0)
-)</f>
+        <f>IFERROR(VLOOKUP(C43,'WAR 1'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C43,'WAR 2'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C43,'WAR 3'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C43,'WAR 4'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C43,'WAR 5'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C43,'WAR 6'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C43,'WAR 7'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C43,'WAR 8'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C43,'WAR 9'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C43,'WAR 10'!C:F,4,FALSE),0)</f>
         <v>2</v>
       </c>
       <c r="G43" t="s">
@@ -5988,7 +6968,8 @@
  IFERROR((IF(MATCH(C43,'WAR 6'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C43,'WAR 7'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C43,'WAR 8'!C:C,0),1,0)),0) +
- IFERROR((IF(MATCH(C43,'WAR 9'!C:C,0),1,0)),0)
+ IFERROR((IF(MATCH(C43,'WAR 9'!C:C,0),1,0)),0) +
+ IFERROR((IF(MATCH(C43,'WAR 10'!C:C,0),1,0)),0)
 ) &amp; " " &amp;
  IFERROR("(" &amp; (MATCH(C43,'WAR 1'!C:C,0)-1) &amp; " 1)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C43,'WAR 2'!C:C,0)-1) &amp; " 2)", "") &amp;
@@ -5998,7 +6979,8 @@
  IFERROR(" (" &amp; (MATCH(C43,'WAR 6'!C:C,0)-1) &amp; " 6)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C43,'WAR 7'!C:C,0)-1) &amp; " 7)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C43,'WAR 8'!C:C,0)-1) &amp; " 8)", "") &amp;
- IFERROR(" (" &amp; (MATCH(C43,'WAR 9'!C:C,0)-1) &amp; " 9)", "")</f>
+ IFERROR(" (" &amp; (MATCH(C43,'WAR 9'!C:C,0)-1) &amp; " 9)", "") &amp;
+ IFERROR(" (" &amp; (MATCH(C43,'WAR 10'!C:C,0)-1) &amp; " 10)", "")</f>
         <v>3 (42 1) (47 2) (46 3)</v>
       </c>
     </row>
@@ -6012,27 +6994,29 @@
       <c r="C44" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="D44" s="20" cm="1">
-        <f t="array" aca="1" ref="D44" ca="1">ROUND(
-  SUM(
-    IFERROR(VLOOKUP(C44,'WAR 1'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C44,'WAR 1'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C44,'WAR 2'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C44,'WAR 2'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C44,'WAR 3'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C44,'WAR 3'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C44,'WAR 4'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C44,'WAR 4'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C44,'WAR 5'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C44,'WAR 5'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C44,'WAR 6'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C44,'WAR 6'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C44,'WAR 7'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C44,'WAR 7'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C44,'WAR 8'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C44,'WAR 8'!C:E,3,FALSE),0),
-   IFERROR(VLOOKUP(C44,'WAR 9'!C:E,2,FALSE),0),
-   IFERROR(VLOOPUP(C44,'WAR 9'!C:E,3,FALSE),0)
+      <c r="D44" s="20">
+        <f>ROUND(
+  (
+    IFERROR(VLOOKUP(C44,'WAR 1'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C44,'WAR 1'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C44,'WAR 2'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C44,'WAR 2'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C44,'WAR 3'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C44,'WAR 3'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C44,'WAR 4'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C44,'WAR 4'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C44,'WAR 5'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C44,'WAR 5'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C44,'WAR 6'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C44,'WAR 6'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C44,'WAR 7'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C44,'WAR 7'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C44,'WAR 8'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C44,'WAR 8'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C44,'WAR 9'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C44,'WAR 9'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C44,'WAR 10'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C44,'WAR 10'!C:E,3,FALSE),0)
   ) /
   (
     COUNTIF('WAR 1'!C:C,C44)*2 +
@@ -6043,23 +7027,23 @@
     COUNTIF('WAR 6'!C:C,C44)*2 +
     COUNTIF('WAR 7'!C:C,C44)*2 +
     COUNTIF('WAR 8'!C:C,C44)*2 +
-    COUNTIF('WAR 9'!C:C,C44)*2
+    COUNTIF('WAR 9'!C:C,C44)*2 +
+    COUNTIF('WAR 10'!C:C,C44)*2
   ),
 2)</f>
-        <v>39.380000000000003</v>
+        <v>43.94</v>
       </c>
       <c r="E44" s="21">
-        <f>SUM(
-  IFERROR(VLOOKUP(C44,'WAR 1'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C44,'WAR 2'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C44,'WAR 3'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C44,'WAR 4'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C44,'WAR 5'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C44,'WAR 6'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C44,'WAR 7'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C44,'WAR 8'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C44,'WAR 9'!C:F,4,FALSE),0)
-)</f>
+        <f>IFERROR(VLOOKUP(C44,'WAR 1'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C44,'WAR 2'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C44,'WAR 3'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C44,'WAR 4'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C44,'WAR 5'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C44,'WAR 6'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C44,'WAR 7'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C44,'WAR 8'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C44,'WAR 9'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C44,'WAR 10'!C:F,4,FALSE),0)</f>
         <v>3</v>
       </c>
       <c r="G44" t="s">
@@ -6075,7 +7059,8 @@
  IFERROR((IF(MATCH(C44,'WAR 6'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C44,'WAR 7'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C44,'WAR 8'!C:C,0),1,0)),0) +
- IFERROR((IF(MATCH(C44,'WAR 9'!C:C,0),1,0)),0)
+ IFERROR((IF(MATCH(C44,'WAR 9'!C:C,0),1,0)),0) +
+ IFERROR((IF(MATCH(C44,'WAR 10'!C:C,0),1,0)),0)
 ) &amp; " " &amp;
  IFERROR("(" &amp; (MATCH(C44,'WAR 1'!C:C,0)-1) &amp; " 1)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C44,'WAR 2'!C:C,0)-1) &amp; " 2)", "") &amp;
@@ -6085,8 +7070,9 @@
  IFERROR(" (" &amp; (MATCH(C44,'WAR 6'!C:C,0)-1) &amp; " 6)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C44,'WAR 7'!C:C,0)-1) &amp; " 7)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C44,'WAR 8'!C:C,0)-1) &amp; " 8)", "") &amp;
- IFERROR(" (" &amp; (MATCH(C44,'WAR 9'!C:C,0)-1) &amp; " 9)", "")</f>
-        <v>8 (43 1) (46 2) (43 3) (40 5) (41 6) (39 7) (41 8) (42 9)</v>
+ IFERROR(" (" &amp; (MATCH(C44,'WAR 9'!C:C,0)-1) &amp; " 9)", "") &amp;
+ IFERROR(" (" &amp; (MATCH(C44,'WAR 10'!C:C,0)-1) &amp; " 10)", "")</f>
+        <v>9 (43 1) (46 2) (43 3) (40 5) (41 6) (39 7) (41 8) (42 9) (42 10)</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -6099,27 +7085,29 @@
       <c r="C45" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="D45" s="20" cm="1">
-        <f t="array" aca="1" ref="D45" ca="1">ROUND(
-  SUM(
-    IFERROR(VLOOKUP(C45,'WAR 1'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C45,'WAR 1'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C45,'WAR 2'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C45,'WAR 2'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C45,'WAR 3'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C45,'WAR 3'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C45,'WAR 4'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C45,'WAR 4'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C45,'WAR 5'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C45,'WAR 5'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C45,'WAR 6'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C45,'WAR 6'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C45,'WAR 7'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C45,'WAR 7'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C45,'WAR 8'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C45,'WAR 8'!C:E,3,FALSE),0),
-   IFERROR(VLOOKUP(C45,'WAR 9'!C:E,2,FALSE),0),
-   IFERROR(VLOOPUP(C45,'WAR 9'!C:E,3,FALSE),0)
+      <c r="D45" s="20">
+        <f>ROUND(
+  (
+    IFERROR(VLOOKUP(C45,'WAR 1'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C45,'WAR 1'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C45,'WAR 2'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C45,'WAR 2'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C45,'WAR 3'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C45,'WAR 3'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C45,'WAR 4'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C45,'WAR 4'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C45,'WAR 5'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C45,'WAR 5'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C45,'WAR 6'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C45,'WAR 6'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C45,'WAR 7'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C45,'WAR 7'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C45,'WAR 8'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C45,'WAR 8'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C45,'WAR 9'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C45,'WAR 9'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C45,'WAR 10'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C45,'WAR 10'!C:E,3,FALSE),0)
   ) /
   (
     COUNTIF('WAR 1'!C:C,C45)*2 +
@@ -6130,23 +7118,23 @@
     COUNTIF('WAR 6'!C:C,C45)*2 +
     COUNTIF('WAR 7'!C:C,C45)*2 +
     COUNTIF('WAR 8'!C:C,C45)*2 +
-    COUNTIF('WAR 9'!C:C,C45)*2
+    COUNTIF('WAR 9'!C:C,C45)*2 +
+    COUNTIF('WAR 10'!C:C,C45)*2
   ),
 2)</f>
         <v>93</v>
       </c>
       <c r="E45" s="21">
-        <f>SUM(
-  IFERROR(VLOOKUP(C45,'WAR 1'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C45,'WAR 2'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C45,'WAR 3'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C45,'WAR 4'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C45,'WAR 5'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C45,'WAR 6'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C45,'WAR 7'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C45,'WAR 8'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C45,'WAR 9'!C:F,4,FALSE),0)
-)</f>
+        <f>IFERROR(VLOOKUP(C45,'WAR 1'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C45,'WAR 2'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C45,'WAR 3'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C45,'WAR 4'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C45,'WAR 5'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C45,'WAR 6'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C45,'WAR 7'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C45,'WAR 8'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C45,'WAR 9'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C45,'WAR 10'!C:F,4,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="G45" t="s">
@@ -6162,7 +7150,8 @@
  IFERROR((IF(MATCH(C45,'WAR 6'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C45,'WAR 7'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C45,'WAR 8'!C:C,0),1,0)),0) +
- IFERROR((IF(MATCH(C45,'WAR 9'!C:C,0),1,0)),0)
+ IFERROR((IF(MATCH(C45,'WAR 9'!C:C,0),1,0)),0) +
+ IFERROR((IF(MATCH(C45,'WAR 10'!C:C,0),1,0)),0)
 ) &amp; " " &amp;
  IFERROR("(" &amp; (MATCH(C45,'WAR 1'!C:C,0)-1) &amp; " 1)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C45,'WAR 2'!C:C,0)-1) &amp; " 2)", "") &amp;
@@ -6172,7 +7161,8 @@
  IFERROR(" (" &amp; (MATCH(C45,'WAR 6'!C:C,0)-1) &amp; " 6)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C45,'WAR 7'!C:C,0)-1) &amp; " 7)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C45,'WAR 8'!C:C,0)-1) &amp; " 8)", "") &amp;
- IFERROR(" (" &amp; (MATCH(C45,'WAR 9'!C:C,0)-1) &amp; " 9)", "")</f>
+ IFERROR(" (" &amp; (MATCH(C45,'WAR 9'!C:C,0)-1) &amp; " 9)", "") &amp;
+ IFERROR(" (" &amp; (MATCH(C45,'WAR 10'!C:C,0)-1) &amp; " 10)", "")</f>
         <v>1 (44 1)</v>
       </c>
     </row>
@@ -6186,27 +7176,29 @@
       <c r="C46" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="D46" s="20" cm="1">
-        <f t="array" aca="1" ref="D46" ca="1">ROUND(
-  SUM(
-    IFERROR(VLOOKUP(C46,'WAR 1'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C46,'WAR 1'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C46,'WAR 2'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C46,'WAR 2'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C46,'WAR 3'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C46,'WAR 3'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C46,'WAR 4'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C46,'WAR 4'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C46,'WAR 5'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C46,'WAR 5'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C46,'WAR 6'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C46,'WAR 6'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C46,'WAR 7'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C46,'WAR 7'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C46,'WAR 8'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C46,'WAR 8'!C:E,3,FALSE),0),
-   IFERROR(VLOOKUP(C46,'WAR 9'!C:E,2,FALSE),0),
-   IFERROR(VLOOPUP(C46,'WAR 9'!C:E,3,FALSE),0)
+      <c r="D46" s="20">
+        <f>ROUND(
+  (
+    IFERROR(VLOOKUP(C46,'WAR 1'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C46,'WAR 1'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C46,'WAR 2'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C46,'WAR 2'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C46,'WAR 3'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C46,'WAR 3'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C46,'WAR 4'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C46,'WAR 4'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C46,'WAR 5'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C46,'WAR 5'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C46,'WAR 6'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C46,'WAR 6'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C46,'WAR 7'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C46,'WAR 7'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C46,'WAR 8'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C46,'WAR 8'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C46,'WAR 9'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C46,'WAR 9'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C46,'WAR 10'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C46,'WAR 10'!C:E,3,FALSE),0)
   ) /
   (
     COUNTIF('WAR 1'!C:C,C46)*2 +
@@ -6217,24 +7209,24 @@
     COUNTIF('WAR 6'!C:C,C46)*2 +
     COUNTIF('WAR 7'!C:C,C46)*2 +
     COUNTIF('WAR 8'!C:C,C46)*2 +
-    COUNTIF('WAR 9'!C:C,C46)*2
+    COUNTIF('WAR 9'!C:C,C46)*2 +
+    COUNTIF('WAR 10'!C:C,C46)*2
   ),
 2)</f>
-        <v>85.88</v>
+        <v>85.72</v>
       </c>
       <c r="E46" s="21">
-        <f>SUM(
-  IFERROR(VLOOKUP(C46,'WAR 1'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C46,'WAR 2'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C46,'WAR 3'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C46,'WAR 4'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C46,'WAR 5'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C46,'WAR 6'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C46,'WAR 7'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C46,'WAR 8'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C46,'WAR 9'!C:F,4,FALSE),0)
-)</f>
-        <v>9</v>
+        <f>IFERROR(VLOOKUP(C46,'WAR 1'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C46,'WAR 2'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C46,'WAR 3'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C46,'WAR 4'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C46,'WAR 5'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C46,'WAR 6'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C46,'WAR 7'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C46,'WAR 8'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C46,'WAR 9'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C46,'WAR 10'!C:F,4,FALSE),0)</f>
+        <v>10</v>
       </c>
       <c r="G46" t="s">
         <v>128</v>
@@ -6249,7 +7241,8 @@
  IFERROR((IF(MATCH(C46,'WAR 6'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C46,'WAR 7'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C46,'WAR 8'!C:C,0),1,0)),0) +
- IFERROR((IF(MATCH(C46,'WAR 9'!C:C,0),1,0)),0)
+ IFERROR((IF(MATCH(C46,'WAR 9'!C:C,0),1,0)),0) +
+ IFERROR((IF(MATCH(C46,'WAR 10'!C:C,0),1,0)),0)
 ) &amp; " " &amp;
  IFERROR("(" &amp; (MATCH(C46,'WAR 1'!C:C,0)-1) &amp; " 1)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C46,'WAR 2'!C:C,0)-1) &amp; " 2)", "") &amp;
@@ -6259,8 +7252,9 @@
  IFERROR(" (" &amp; (MATCH(C46,'WAR 6'!C:C,0)-1) &amp; " 6)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C46,'WAR 7'!C:C,0)-1) &amp; " 7)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C46,'WAR 8'!C:C,0)-1) &amp; " 8)", "") &amp;
- IFERROR(" (" &amp; (MATCH(C46,'WAR 9'!C:C,0)-1) &amp; " 9)", "")</f>
-        <v>8 (45 1) (48 2) (47 3) (42 4) (48 5) (48 6) (48 8) (49 9)</v>
+ IFERROR(" (" &amp; (MATCH(C46,'WAR 9'!C:C,0)-1) &amp; " 9)", "") &amp;
+ IFERROR(" (" &amp; (MATCH(C46,'WAR 10'!C:C,0)-1) &amp; " 10)", "")</f>
+        <v>9 (45 1) (48 2) (47 3) (42 4) (48 5) (48 6) (48 8) (49 9) (49 10)</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -6273,27 +7267,29 @@
       <c r="C47" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="D47" s="20" cm="1">
-        <f t="array" aca="1" ref="D47" ca="1">ROUND(
-  SUM(
-    IFERROR(VLOOKUP(C47,'WAR 1'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C47,'WAR 1'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C47,'WAR 2'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C47,'WAR 2'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C47,'WAR 3'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C47,'WAR 3'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C47,'WAR 4'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C47,'WAR 4'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C47,'WAR 5'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C47,'WAR 5'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C47,'WAR 6'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C47,'WAR 6'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C47,'WAR 7'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C47,'WAR 7'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C47,'WAR 8'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C47,'WAR 8'!C:E,3,FALSE),0),
-   IFERROR(VLOOKUP(C47,'WAR 9'!C:E,2,FALSE),0),
-   IFERROR(VLOOPUP(C47,'WAR 9'!C:E,3,FALSE),0)
+      <c r="D47" s="20">
+        <f>ROUND(
+  (
+    IFERROR(VLOOKUP(C47,'WAR 1'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C47,'WAR 1'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C47,'WAR 2'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C47,'WAR 2'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C47,'WAR 3'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C47,'WAR 3'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C47,'WAR 4'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C47,'WAR 4'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C47,'WAR 5'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C47,'WAR 5'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C47,'WAR 6'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C47,'WAR 6'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C47,'WAR 7'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C47,'WAR 7'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C47,'WAR 8'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C47,'WAR 8'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C47,'WAR 9'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C47,'WAR 9'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C47,'WAR 10'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C47,'WAR 10'!C:E,3,FALSE),0)
   ) /
   (
     COUNTIF('WAR 1'!C:C,C47)*2 +
@@ -6304,24 +7300,24 @@
     COUNTIF('WAR 6'!C:C,C47)*2 +
     COUNTIF('WAR 7'!C:C,C47)*2 +
     COUNTIF('WAR 8'!C:C,C47)*2 +
-    COUNTIF('WAR 9'!C:C,C47)*2
+    COUNTIF('WAR 9'!C:C,C47)*2 +
+    COUNTIF('WAR 10'!C:C,C47)*2
   ),
 2)</f>
-        <v>86.56</v>
+        <v>87.9</v>
       </c>
       <c r="E47" s="21">
-        <f>SUM(
-  IFERROR(VLOOKUP(C47,'WAR 1'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C47,'WAR 2'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C47,'WAR 3'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C47,'WAR 4'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C47,'WAR 5'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C47,'WAR 6'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C47,'WAR 7'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C47,'WAR 8'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C47,'WAR 9'!C:F,4,FALSE),0)
-)</f>
-        <v>12</v>
+        <f>IFERROR(VLOOKUP(C47,'WAR 1'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C47,'WAR 2'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C47,'WAR 3'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C47,'WAR 4'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C47,'WAR 5'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C47,'WAR 6'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C47,'WAR 7'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C47,'WAR 8'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C47,'WAR 9'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C47,'WAR 10'!C:F,4,FALSE),0)</f>
+        <v>14</v>
       </c>
       <c r="G47" t="s">
         <v>137</v>
@@ -6336,7 +7332,8 @@
  IFERROR((IF(MATCH(C47,'WAR 6'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C47,'WAR 7'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C47,'WAR 8'!C:C,0),1,0)),0) +
- IFERROR((IF(MATCH(C47,'WAR 9'!C:C,0),1,0)),0)
+ IFERROR((IF(MATCH(C47,'WAR 9'!C:C,0),1,0)),0) +
+ IFERROR((IF(MATCH(C47,'WAR 10'!C:C,0),1,0)),0)
 ) &amp; " " &amp;
  IFERROR("(" &amp; (MATCH(C47,'WAR 1'!C:C,0)-1) &amp; " 1)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C47,'WAR 2'!C:C,0)-1) &amp; " 2)", "") &amp;
@@ -6346,8 +7343,9 @@
  IFERROR(" (" &amp; (MATCH(C47,'WAR 6'!C:C,0)-1) &amp; " 6)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C47,'WAR 7'!C:C,0)-1) &amp; " 7)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C47,'WAR 8'!C:C,0)-1) &amp; " 8)", "") &amp;
- IFERROR(" (" &amp; (MATCH(C47,'WAR 9'!C:C,0)-1) &amp; " 9)", "")</f>
-        <v>9 (46 1) (49 2) (48 3) (44 4) (49 5) (49 6) (45 7) (47 8) (48 9)</v>
+ IFERROR(" (" &amp; (MATCH(C47,'WAR 9'!C:C,0)-1) &amp; " 9)", "") &amp;
+ IFERROR(" (" &amp; (MATCH(C47,'WAR 10'!C:C,0)-1) &amp; " 10)", "")</f>
+        <v>10 (46 1) (49 2) (48 3) (44 4) (49 5) (49 6) (45 7) (47 8) (48 9) (48 10)</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -6360,27 +7358,29 @@
       <c r="C48" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="D48" s="20" cm="1">
-        <f t="array" aca="1" ref="D48" ca="1">ROUND(
-  SUM(
-    IFERROR(VLOOKUP(C48,'WAR 1'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C48,'WAR 1'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C48,'WAR 2'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C48,'WAR 2'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C48,'WAR 3'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C48,'WAR 3'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C48,'WAR 4'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C48,'WAR 4'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C48,'WAR 5'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C48,'WAR 5'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C48,'WAR 6'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C48,'WAR 6'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C48,'WAR 7'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C48,'WAR 7'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C48,'WAR 8'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C48,'WAR 8'!C:E,3,FALSE),0),
-   IFERROR(VLOOKUP(C48,'WAR 9'!C:E,2,FALSE),0),
-   IFERROR(VLOOPUP(C48,'WAR 9'!C:E,3,FALSE),0)
+      <c r="D48" s="20">
+        <f>ROUND(
+  (
+    IFERROR(VLOOKUP(C48,'WAR 1'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C48,'WAR 1'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C48,'WAR 2'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C48,'WAR 2'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C48,'WAR 3'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C48,'WAR 3'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C48,'WAR 4'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C48,'WAR 4'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C48,'WAR 5'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C48,'WAR 5'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C48,'WAR 6'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C48,'WAR 6'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C48,'WAR 7'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C48,'WAR 7'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C48,'WAR 8'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C48,'WAR 8'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C48,'WAR 9'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C48,'WAR 9'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C48,'WAR 10'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C48,'WAR 10'!C:E,3,FALSE),0)
   ) /
   (
     COUNTIF('WAR 1'!C:C,C48)*2 +
@@ -6391,24 +7391,24 @@
     COUNTIF('WAR 6'!C:C,C48)*2 +
     COUNTIF('WAR 7'!C:C,C48)*2 +
     COUNTIF('WAR 8'!C:C,C48)*2 +
-    COUNTIF('WAR 9'!C:C,C48)*2
+    COUNTIF('WAR 9'!C:C,C48)*2 +
+    COUNTIF('WAR 10'!C:C,C48)*2
   ),
 2)</f>
-        <v>73.69</v>
+        <v>76.61</v>
       </c>
       <c r="E48" s="21">
-        <f>SUM(
-  IFERROR(VLOOKUP(C48,'WAR 1'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C48,'WAR 2'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C48,'WAR 3'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C48,'WAR 4'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C48,'WAR 5'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C48,'WAR 6'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C48,'WAR 7'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C48,'WAR 8'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C48,'WAR 9'!C:F,4,FALSE),0)
-)</f>
-        <v>5</v>
+        <f>IFERROR(VLOOKUP(C48,'WAR 1'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C48,'WAR 2'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C48,'WAR 3'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C48,'WAR 4'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C48,'WAR 5'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C48,'WAR 6'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C48,'WAR 7'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C48,'WAR 8'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C48,'WAR 9'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C48,'WAR 10'!C:F,4,FALSE),0)</f>
+        <v>7</v>
       </c>
       <c r="G48" t="s">
         <v>144</v>
@@ -6423,7 +7423,8 @@
  IFERROR((IF(MATCH(C48,'WAR 6'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C48,'WAR 7'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C48,'WAR 8'!C:C,0),1,0)),0) +
- IFERROR((IF(MATCH(C48,'WAR 9'!C:C,0),1,0)),0)
+ IFERROR((IF(MATCH(C48,'WAR 9'!C:C,0),1,0)),0) +
+ IFERROR((IF(MATCH(C48,'WAR 10'!C:C,0),1,0)),0)
 ) &amp; " " &amp;
  IFERROR("(" &amp; (MATCH(C48,'WAR 1'!C:C,0)-1) &amp; " 1)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C48,'WAR 2'!C:C,0)-1) &amp; " 2)", "") &amp;
@@ -6433,8 +7434,9 @@
  IFERROR(" (" &amp; (MATCH(C48,'WAR 6'!C:C,0)-1) &amp; " 6)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C48,'WAR 7'!C:C,0)-1) &amp; " 7)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C48,'WAR 8'!C:C,0)-1) &amp; " 8)", "") &amp;
- IFERROR(" (" &amp; (MATCH(C48,'WAR 9'!C:C,0)-1) &amp; " 9)", "")</f>
-        <v>8 (47 1) (50 2) (49 3) (45 4) (50 5) (50 6) (49 8) (50 9)</v>
+ IFERROR(" (" &amp; (MATCH(C48,'WAR 9'!C:C,0)-1) &amp; " 9)", "") &amp;
+ IFERROR(" (" &amp; (MATCH(C48,'WAR 10'!C:C,0)-1) &amp; " 10)", "")</f>
+        <v>9 (47 1) (50 2) (49 3) (45 4) (50 5) (50 6) (49 8) (50 9) (50 10)</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -6447,27 +7449,29 @@
       <c r="C49" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="D49" s="20" cm="1">
-        <f t="array" aca="1" ref="D49" ca="1">ROUND(
-  SUM(
-    IFERROR(VLOOKUP(C49,'WAR 1'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C49,'WAR 1'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C49,'WAR 2'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C49,'WAR 2'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C49,'WAR 3'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C49,'WAR 3'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C49,'WAR 4'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C49,'WAR 4'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C49,'WAR 5'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C49,'WAR 5'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C49,'WAR 6'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C49,'WAR 6'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C49,'WAR 7'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C49,'WAR 7'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C49,'WAR 8'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C49,'WAR 8'!C:E,3,FALSE),0),
-   IFERROR(VLOOKUP(C49,'WAR 9'!C:E,2,FALSE),0),
-   IFERROR(VLOOPUP(C49,'WAR 9'!C:E,3,FALSE),0)
+      <c r="D49" s="20">
+        <f>ROUND(
+  (
+    IFERROR(VLOOKUP(C49,'WAR 1'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C49,'WAR 1'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C49,'WAR 2'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C49,'WAR 2'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C49,'WAR 3'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C49,'WAR 3'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C49,'WAR 4'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C49,'WAR 4'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C49,'WAR 5'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C49,'WAR 5'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C49,'WAR 6'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C49,'WAR 6'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C49,'WAR 7'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C49,'WAR 7'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C49,'WAR 8'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C49,'WAR 8'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C49,'WAR 9'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C49,'WAR 9'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C49,'WAR 10'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C49,'WAR 10'!C:E,3,FALSE),0)
   ) /
   (
     COUNTIF('WAR 1'!C:C,C49)*2 +
@@ -6478,23 +7482,23 @@
     COUNTIF('WAR 6'!C:C,C49)*2 +
     COUNTIF('WAR 7'!C:C,C49)*2 +
     COUNTIF('WAR 8'!C:C,C49)*2 +
-    COUNTIF('WAR 9'!C:C,C49)*2
+    COUNTIF('WAR 9'!C:C,C49)*2 +
+    COUNTIF('WAR 10'!C:C,C49)*2
   ),
 2)</f>
         <v>99.5</v>
       </c>
       <c r="E49" s="21">
-        <f>SUM(
-  IFERROR(VLOOKUP(C49,'WAR 1'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C49,'WAR 2'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C49,'WAR 3'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C49,'WAR 4'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C49,'WAR 5'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C49,'WAR 6'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C49,'WAR 7'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C49,'WAR 8'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C49,'WAR 9'!C:F,4,FALSE),0)
-)</f>
+        <f>IFERROR(VLOOKUP(C49,'WAR 1'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C49,'WAR 2'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C49,'WAR 3'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C49,'WAR 4'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C49,'WAR 5'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C49,'WAR 6'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C49,'WAR 7'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C49,'WAR 8'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C49,'WAR 9'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C49,'WAR 10'!C:F,4,FALSE),0)</f>
         <v>1</v>
       </c>
       <c r="G49" t="s">
@@ -6510,7 +7514,8 @@
  IFERROR((IF(MATCH(C49,'WAR 6'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C49,'WAR 7'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C49,'WAR 8'!C:C,0),1,0)),0) +
- IFERROR((IF(MATCH(C49,'WAR 9'!C:C,0),1,0)),0)
+ IFERROR((IF(MATCH(C49,'WAR 9'!C:C,0),1,0)),0) +
+ IFERROR((IF(MATCH(C49,'WAR 10'!C:C,0),1,0)),0)
 ) &amp; " " &amp;
  IFERROR("(" &amp; (MATCH(C49,'WAR 1'!C:C,0)-1) &amp; " 1)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C49,'WAR 2'!C:C,0)-1) &amp; " 2)", "") &amp;
@@ -6520,7 +7525,8 @@
  IFERROR(" (" &amp; (MATCH(C49,'WAR 6'!C:C,0)-1) &amp; " 6)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C49,'WAR 7'!C:C,0)-1) &amp; " 7)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C49,'WAR 8'!C:C,0)-1) &amp; " 8)", "") &amp;
- IFERROR(" (" &amp; (MATCH(C49,'WAR 9'!C:C,0)-1) &amp; " 9)", "")</f>
+ IFERROR(" (" &amp; (MATCH(C49,'WAR 9'!C:C,0)-1) &amp; " 9)", "") &amp;
+ IFERROR(" (" &amp; (MATCH(C49,'WAR 10'!C:C,0)-1) &amp; " 10)", "")</f>
         <v>1 (48 1)</v>
       </c>
     </row>
@@ -6534,27 +7540,29 @@
       <c r="C50" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="D50" s="20" cm="1">
-        <f t="array" aca="1" ref="D50" ca="1">ROUND(
-  SUM(
-    IFERROR(VLOOKUP(C50,'WAR 1'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C50,'WAR 1'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C50,'WAR 2'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C50,'WAR 2'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C50,'WAR 3'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C50,'WAR 3'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C50,'WAR 4'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C50,'WAR 4'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C50,'WAR 5'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C50,'WAR 5'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C50,'WAR 6'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C50,'WAR 6'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C50,'WAR 7'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C50,'WAR 7'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C50,'WAR 8'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C50,'WAR 8'!C:E,3,FALSE),0),
-   IFERROR(VLOOKUP(C50,'WAR 9'!C:E,2,FALSE),0),
-   IFERROR(VLOOPUP(C50,'WAR 9'!C:E,3,FALSE),0)
+      <c r="D50" s="20">
+        <f>ROUND(
+  (
+    IFERROR(VLOOKUP(C50,'WAR 1'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C50,'WAR 1'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C50,'WAR 2'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C50,'WAR 2'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C50,'WAR 3'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C50,'WAR 3'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C50,'WAR 4'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C50,'WAR 4'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C50,'WAR 5'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C50,'WAR 5'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C50,'WAR 6'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C50,'WAR 6'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C50,'WAR 7'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C50,'WAR 7'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C50,'WAR 8'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C50,'WAR 8'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C50,'WAR 9'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C50,'WAR 9'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C50,'WAR 10'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C50,'WAR 10'!C:E,3,FALSE),0)
   ) /
   (
     COUNTIF('WAR 1'!C:C,C50)*2 +
@@ -6565,23 +7573,23 @@
     COUNTIF('WAR 6'!C:C,C50)*2 +
     COUNTIF('WAR 7'!C:C,C50)*2 +
     COUNTIF('WAR 8'!C:C,C50)*2 +
-    COUNTIF('WAR 9'!C:C,C50)*2
+    COUNTIF('WAR 9'!C:C,C50)*2 +
+    COUNTIF('WAR 10'!C:C,C50)*2
   ),
 2)</f>
         <v>0</v>
       </c>
       <c r="E50" s="21">
-        <f>SUM(
-  IFERROR(VLOOKUP(C50,'WAR 1'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C50,'WAR 2'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C50,'WAR 3'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C50,'WAR 4'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C50,'WAR 5'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C50,'WAR 6'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C50,'WAR 7'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C50,'WAR 8'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C50,'WAR 9'!C:F,4,FALSE),0)
-)</f>
+        <f>IFERROR(VLOOKUP(C50,'WAR 1'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C50,'WAR 2'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C50,'WAR 3'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C50,'WAR 4'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C50,'WAR 5'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C50,'WAR 6'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C50,'WAR 7'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C50,'WAR 8'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C50,'WAR 9'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C50,'WAR 10'!C:F,4,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="G50" t="s">
@@ -6597,7 +7605,8 @@
  IFERROR((IF(MATCH(C50,'WAR 6'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C50,'WAR 7'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C50,'WAR 8'!C:C,0),1,0)),0) +
- IFERROR((IF(MATCH(C50,'WAR 9'!C:C,0),1,0)),0)
+ IFERROR((IF(MATCH(C50,'WAR 9'!C:C,0),1,0)),0) +
+ IFERROR((IF(MATCH(C50,'WAR 10'!C:C,0),1,0)),0)
 ) &amp; " " &amp;
  IFERROR("(" &amp; (MATCH(C50,'WAR 1'!C:C,0)-1) &amp; " 1)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C50,'WAR 2'!C:C,0)-1) &amp; " 2)", "") &amp;
@@ -6607,7 +7616,8 @@
  IFERROR(" (" &amp; (MATCH(C50,'WAR 6'!C:C,0)-1) &amp; " 6)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C50,'WAR 7'!C:C,0)-1) &amp; " 7)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C50,'WAR 8'!C:C,0)-1) &amp; " 8)", "") &amp;
- IFERROR(" (" &amp; (MATCH(C50,'WAR 9'!C:C,0)-1) &amp; " 9)", "")</f>
+ IFERROR(" (" &amp; (MATCH(C50,'WAR 9'!C:C,0)-1) &amp; " 9)", "") &amp;
+ IFERROR(" (" &amp; (MATCH(C50,'WAR 10'!C:C,0)-1) &amp; " 10)", "")</f>
         <v>1 (49 1)</v>
       </c>
     </row>
@@ -6621,27 +7631,29 @@
       <c r="C51" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="D51" s="20" cm="1">
-        <f t="array" aca="1" ref="D51" ca="1">ROUND(
-  SUM(
-    IFERROR(VLOOKUP(C51,'WAR 1'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C51,'WAR 1'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C51,'WAR 2'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C51,'WAR 2'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C51,'WAR 3'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C51,'WAR 3'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C51,'WAR 4'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C51,'WAR 4'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C51,'WAR 5'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C51,'WAR 5'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C51,'WAR 6'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C51,'WAR 6'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C51,'WAR 7'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C51,'WAR 7'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C51,'WAR 8'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C51,'WAR 8'!C:E,3,FALSE),0),
-   IFERROR(VLOOKUP(C51,'WAR 9'!C:E,2,FALSE),0),
-   IFERROR(VLOOPUP(C51,'WAR 9'!C:E,3,FALSE),0)
+      <c r="D51" s="20">
+        <f>ROUND(
+  (
+    IFERROR(VLOOKUP(C51,'WAR 1'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C51,'WAR 1'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C51,'WAR 2'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C51,'WAR 2'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C51,'WAR 3'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C51,'WAR 3'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C51,'WAR 4'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C51,'WAR 4'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C51,'WAR 5'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C51,'WAR 5'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C51,'WAR 6'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C51,'WAR 6'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C51,'WAR 7'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C51,'WAR 7'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C51,'WAR 8'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C51,'WAR 8'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C51,'WAR 9'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C51,'WAR 9'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C51,'WAR 10'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C51,'WAR 10'!C:E,3,FALSE),0)
   ) /
   (
     COUNTIF('WAR 1'!C:C,C51)*2 +
@@ -6652,23 +7664,23 @@
     COUNTIF('WAR 6'!C:C,C51)*2 +
     COUNTIF('WAR 7'!C:C,C51)*2 +
     COUNTIF('WAR 8'!C:C,C51)*2 +
-    COUNTIF('WAR 9'!C:C,C51)*2
+    COUNTIF('WAR 9'!C:C,C51)*2 +
+    COUNTIF('WAR 10'!C:C,C51)*2
   ),
 2)</f>
         <v>0</v>
       </c>
       <c r="E51" s="21">
-        <f>SUM(
-  IFERROR(VLOOKUP(C51,'WAR 1'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C51,'WAR 2'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C51,'WAR 3'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C51,'WAR 4'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C51,'WAR 5'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C51,'WAR 6'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C51,'WAR 7'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C51,'WAR 8'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C51,'WAR 9'!C:F,4,FALSE),0)
-)</f>
+        <f>IFERROR(VLOOKUP(C51,'WAR 1'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C51,'WAR 2'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C51,'WAR 3'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C51,'WAR 4'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C51,'WAR 5'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C51,'WAR 6'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C51,'WAR 7'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C51,'WAR 8'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C51,'WAR 9'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C51,'WAR 10'!C:F,4,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="G51" t="s">
@@ -6684,7 +7696,8 @@
  IFERROR((IF(MATCH(C51,'WAR 6'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C51,'WAR 7'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C51,'WAR 8'!C:C,0),1,0)),0) +
- IFERROR((IF(MATCH(C51,'WAR 9'!C:C,0),1,0)),0)
+ IFERROR((IF(MATCH(C51,'WAR 9'!C:C,0),1,0)),0) +
+ IFERROR((IF(MATCH(C51,'WAR 10'!C:C,0),1,0)),0)
 ) &amp; " " &amp;
  IFERROR("(" &amp; (MATCH(C51,'WAR 1'!C:C,0)-1) &amp; " 1)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C51,'WAR 2'!C:C,0)-1) &amp; " 2)", "") &amp;
@@ -6694,7 +7707,8 @@
  IFERROR(" (" &amp; (MATCH(C51,'WAR 6'!C:C,0)-1) &amp; " 6)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C51,'WAR 7'!C:C,0)-1) &amp; " 7)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C51,'WAR 8'!C:C,0)-1) &amp; " 8)", "") &amp;
- IFERROR(" (" &amp; (MATCH(C51,'WAR 9'!C:C,0)-1) &amp; " 9)", "")</f>
+ IFERROR(" (" &amp; (MATCH(C51,'WAR 9'!C:C,0)-1) &amp; " 9)", "") &amp;
+ IFERROR(" (" &amp; (MATCH(C51,'WAR 10'!C:C,0)-1) &amp; " 10)", "")</f>
         <v>2 (50 1) (50 8)</v>
       </c>
     </row>
@@ -6708,27 +7722,29 @@
       <c r="C52" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="D52" s="20" cm="1">
-        <f t="array" aca="1" ref="D52" ca="1">ROUND(
-  SUM(
-    IFERROR(VLOOKUP(C52,'WAR 1'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C52,'WAR 1'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C52,'WAR 2'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C52,'WAR 2'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C52,'WAR 3'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C52,'WAR 3'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C52,'WAR 4'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C52,'WAR 4'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C52,'WAR 5'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C52,'WAR 5'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C52,'WAR 6'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C52,'WAR 6'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C52,'WAR 7'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C52,'WAR 7'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C52,'WAR 8'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C52,'WAR 8'!C:E,3,FALSE),0),
-   IFERROR(VLOOKUP(C52,'WAR 9'!C:E,2,FALSE),0),
-   IFERROR(VLOOPUP(C52,'WAR 9'!C:E,3,FALSE),0)
+      <c r="D52" s="20">
+        <f>ROUND(
+  (
+    IFERROR(VLOOKUP(C52,'WAR 1'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C52,'WAR 1'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C52,'WAR 2'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C52,'WAR 2'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C52,'WAR 3'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C52,'WAR 3'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C52,'WAR 4'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C52,'WAR 4'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C52,'WAR 5'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C52,'WAR 5'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C52,'WAR 6'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C52,'WAR 6'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C52,'WAR 7'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C52,'WAR 7'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C52,'WAR 8'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C52,'WAR 8'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C52,'WAR 9'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C52,'WAR 9'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C52,'WAR 10'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C52,'WAR 10'!C:E,3,FALSE),0)
   ) /
   (
     COUNTIF('WAR 1'!C:C,C52)*2 +
@@ -6739,24 +7755,24 @@
     COUNTIF('WAR 6'!C:C,C52)*2 +
     COUNTIF('WAR 7'!C:C,C52)*2 +
     COUNTIF('WAR 8'!C:C,C52)*2 +
-    COUNTIF('WAR 9'!C:C,C52)*2
+    COUNTIF('WAR 9'!C:C,C52)*2 +
+    COUNTIF('WAR 10'!C:C,C52)*2
   ),
 2)</f>
-        <v>61.13</v>
+        <v>62.61</v>
       </c>
       <c r="E52" s="21">
-        <f>SUM(
-  IFERROR(VLOOKUP(C52,'WAR 1'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C52,'WAR 2'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C52,'WAR 3'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C52,'WAR 4'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C52,'WAR 5'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C52,'WAR 6'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C52,'WAR 7'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C52,'WAR 8'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C52,'WAR 9'!C:F,4,FALSE),0)
-)</f>
-        <v>4</v>
+        <f>IFERROR(VLOOKUP(C52,'WAR 1'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C52,'WAR 2'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C52,'WAR 3'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C52,'WAR 4'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C52,'WAR 5'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C52,'WAR 6'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C52,'WAR 7'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C52,'WAR 8'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C52,'WAR 9'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C52,'WAR 10'!C:F,4,FALSE),0)</f>
+        <v>5</v>
       </c>
       <c r="G52" t="s">
         <v>129</v>
@@ -6771,7 +7787,8 @@
  IFERROR((IF(MATCH(C52,'WAR 6'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C52,'WAR 7'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C52,'WAR 8'!C:C,0),1,0)),0) +
- IFERROR((IF(MATCH(C52,'WAR 9'!C:C,0),1,0)),0)
+ IFERROR((IF(MATCH(C52,'WAR 9'!C:C,0),1,0)),0) +
+ IFERROR((IF(MATCH(C52,'WAR 10'!C:C,0),1,0)),0)
 ) &amp; " " &amp;
  IFERROR("(" &amp; (MATCH(C52,'WAR 1'!C:C,0)-1) &amp; " 1)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C52,'WAR 2'!C:C,0)-1) &amp; " 2)", "") &amp;
@@ -6781,8 +7798,9 @@
  IFERROR(" (" &amp; (MATCH(C52,'WAR 6'!C:C,0)-1) &amp; " 6)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C52,'WAR 7'!C:C,0)-1) &amp; " 7)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C52,'WAR 8'!C:C,0)-1) &amp; " 8)", "") &amp;
- IFERROR(" (" &amp; (MATCH(C52,'WAR 9'!C:C,0)-1) &amp; " 9)", "")</f>
-        <v>8  (4 2) (5 3) (5 4) (5 5) (6 6) (7 7) (8 8) (8 9)</v>
+ IFERROR(" (" &amp; (MATCH(C52,'WAR 9'!C:C,0)-1) &amp; " 9)", "") &amp;
+ IFERROR(" (" &amp; (MATCH(C52,'WAR 10'!C:C,0)-1) &amp; " 10)", "")</f>
+        <v>9  (4 2) (5 3) (5 4) (5 5) (6 6) (7 7) (8 8) (8 9) (8 10)</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -6795,27 +7813,29 @@
       <c r="C53" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="D53" s="20" cm="1">
-        <f t="array" aca="1" ref="D53" ca="1">ROUND(
-  SUM(
-    IFERROR(VLOOKUP(C53,'WAR 1'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C53,'WAR 1'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C53,'WAR 2'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C53,'WAR 2'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C53,'WAR 3'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C53,'WAR 3'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C53,'WAR 4'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C53,'WAR 4'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C53,'WAR 5'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C53,'WAR 5'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C53,'WAR 6'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C53,'WAR 6'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C53,'WAR 7'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C53,'WAR 7'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C53,'WAR 8'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C53,'WAR 8'!C:E,3,FALSE),0),
-   IFERROR(VLOOKUP(C53,'WAR 9'!C:E,2,FALSE),0),
-   IFERROR(VLOOPUP(C53,'WAR 9'!C:E,3,FALSE),0)
+      <c r="D53" s="20">
+        <f>ROUND(
+  (
+    IFERROR(VLOOKUP(C53,'WAR 1'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C53,'WAR 1'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C53,'WAR 2'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C53,'WAR 2'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C53,'WAR 3'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C53,'WAR 3'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C53,'WAR 4'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C53,'WAR 4'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C53,'WAR 5'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C53,'WAR 5'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C53,'WAR 6'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C53,'WAR 6'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C53,'WAR 7'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C53,'WAR 7'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C53,'WAR 8'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C53,'WAR 8'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C53,'WAR 9'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C53,'WAR 9'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C53,'WAR 10'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C53,'WAR 10'!C:E,3,FALSE),0)
   ) /
   (
     COUNTIF('WAR 1'!C:C,C53)*2 +
@@ -6826,24 +7846,24 @@
     COUNTIF('WAR 6'!C:C,C53)*2 +
     COUNTIF('WAR 7'!C:C,C53)*2 +
     COUNTIF('WAR 8'!C:C,C53)*2 +
-    COUNTIF('WAR 9'!C:C,C53)*2
+    COUNTIF('WAR 9'!C:C,C53)*2 +
+    COUNTIF('WAR 10'!C:C,C53)*2
   ),
 2)</f>
-        <v>86.63</v>
+        <v>88.06</v>
       </c>
       <c r="E53" s="21">
-        <f>SUM(
-  IFERROR(VLOOKUP(C53,'WAR 1'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C53,'WAR 2'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C53,'WAR 3'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C53,'WAR 4'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C53,'WAR 5'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C53,'WAR 6'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C53,'WAR 7'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C53,'WAR 8'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C53,'WAR 9'!C:F,4,FALSE),0)
-)</f>
-        <v>11</v>
+        <f>IFERROR(VLOOKUP(C53,'WAR 1'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C53,'WAR 2'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C53,'WAR 3'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C53,'WAR 4'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C53,'WAR 5'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C53,'WAR 6'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C53,'WAR 7'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C53,'WAR 8'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C53,'WAR 9'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C53,'WAR 10'!C:F,4,FALSE),0)</f>
+        <v>12</v>
       </c>
       <c r="G53" t="s">
         <v>129</v>
@@ -6858,7 +7878,8 @@
  IFERROR((IF(MATCH(C53,'WAR 6'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C53,'WAR 7'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C53,'WAR 8'!C:C,0),1,0)),0) +
- IFERROR((IF(MATCH(C53,'WAR 9'!C:C,0),1,0)),0)
+ IFERROR((IF(MATCH(C53,'WAR 9'!C:C,0),1,0)),0) +
+ IFERROR((IF(MATCH(C53,'WAR 10'!C:C,0),1,0)),0)
 ) &amp; " " &amp;
  IFERROR("(" &amp; (MATCH(C53,'WAR 1'!C:C,0)-1) &amp; " 1)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C53,'WAR 2'!C:C,0)-1) &amp; " 2)", "") &amp;
@@ -6868,8 +7889,9 @@
  IFERROR(" (" &amp; (MATCH(C53,'WAR 6'!C:C,0)-1) &amp; " 6)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C53,'WAR 7'!C:C,0)-1) &amp; " 7)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C53,'WAR 8'!C:C,0)-1) &amp; " 8)", "") &amp;
- IFERROR(" (" &amp; (MATCH(C53,'WAR 9'!C:C,0)-1) &amp; " 9)", "")</f>
-        <v>8  (9 2) (10 3) (10 4) (10 5) (11 6) (12 7) (12 8) (13 9)</v>
+ IFERROR(" (" &amp; (MATCH(C53,'WAR 9'!C:C,0)-1) &amp; " 9)", "") &amp;
+ IFERROR(" (" &amp; (MATCH(C53,'WAR 10'!C:C,0)-1) &amp; " 10)", "")</f>
+        <v>9  (9 2) (10 3) (10 4) (10 5) (11 6) (12 7) (12 8) (13 9) (13 10)</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -6882,27 +7904,29 @@
       <c r="C54" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="D54" s="20" cm="1">
-        <f t="array" aca="1" ref="D54" ca="1">ROUND(
-  SUM(
-    IFERROR(VLOOKUP(C54,'WAR 1'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C54,'WAR 1'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C54,'WAR 2'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C54,'WAR 2'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C54,'WAR 3'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C54,'WAR 3'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C54,'WAR 4'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C54,'WAR 4'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C54,'WAR 5'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C54,'WAR 5'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C54,'WAR 6'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C54,'WAR 6'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C54,'WAR 7'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C54,'WAR 7'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C54,'WAR 8'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C54,'WAR 8'!C:E,3,FALSE),0),
-   IFERROR(VLOOKUP(C54,'WAR 9'!C:E,2,FALSE),0),
-   IFERROR(VLOOPUP(C54,'WAR 9'!C:E,3,FALSE),0)
+      <c r="D54" s="20">
+        <f>ROUND(
+  (
+    IFERROR(VLOOKUP(C54,'WAR 1'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C54,'WAR 1'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C54,'WAR 2'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C54,'WAR 2'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C54,'WAR 3'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C54,'WAR 3'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C54,'WAR 4'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C54,'WAR 4'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C54,'WAR 5'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C54,'WAR 5'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C54,'WAR 6'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C54,'WAR 6'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C54,'WAR 7'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C54,'WAR 7'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C54,'WAR 8'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C54,'WAR 8'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C54,'WAR 9'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C54,'WAR 9'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C54,'WAR 10'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C54,'WAR 10'!C:E,3,FALSE),0)
   ) /
   (
     COUNTIF('WAR 1'!C:C,C54)*2 +
@@ -6913,23 +7937,23 @@
     COUNTIF('WAR 6'!C:C,C54)*2 +
     COUNTIF('WAR 7'!C:C,C54)*2 +
     COUNTIF('WAR 8'!C:C,C54)*2 +
-    COUNTIF('WAR 9'!C:C,C54)*2
+    COUNTIF('WAR 9'!C:C,C54)*2 +
+    COUNTIF('WAR 10'!C:C,C54)*2
   ),
 2)</f>
         <v>0</v>
       </c>
       <c r="E54" s="21">
-        <f>SUM(
-  IFERROR(VLOOKUP(C54,'WAR 1'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C54,'WAR 2'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C54,'WAR 3'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C54,'WAR 4'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C54,'WAR 5'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C54,'WAR 6'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C54,'WAR 7'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C54,'WAR 8'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C54,'WAR 9'!C:F,4,FALSE),0)
-)</f>
+        <f>IFERROR(VLOOKUP(C54,'WAR 1'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C54,'WAR 2'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C54,'WAR 3'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C54,'WAR 4'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C54,'WAR 5'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C54,'WAR 6'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C54,'WAR 7'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C54,'WAR 8'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C54,'WAR 9'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C54,'WAR 10'!C:F,4,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="G54" t="s">
@@ -6945,7 +7969,8 @@
  IFERROR((IF(MATCH(C54,'WAR 6'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C54,'WAR 7'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C54,'WAR 8'!C:C,0),1,0)),0) +
- IFERROR((IF(MATCH(C54,'WAR 9'!C:C,0),1,0)),0)
+ IFERROR((IF(MATCH(C54,'WAR 9'!C:C,0),1,0)),0) +
+ IFERROR((IF(MATCH(C54,'WAR 10'!C:C,0),1,0)),0)
 ) &amp; " " &amp;
  IFERROR("(" &amp; (MATCH(C54,'WAR 1'!C:C,0)-1) &amp; " 1)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C54,'WAR 2'!C:C,0)-1) &amp; " 2)", "") &amp;
@@ -6955,7 +7980,8 @@
  IFERROR(" (" &amp; (MATCH(C54,'WAR 6'!C:C,0)-1) &amp; " 6)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C54,'WAR 7'!C:C,0)-1) &amp; " 7)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C54,'WAR 8'!C:C,0)-1) &amp; " 8)", "") &amp;
- IFERROR(" (" &amp; (MATCH(C54,'WAR 9'!C:C,0)-1) &amp; " 9)", "")</f>
+ IFERROR(" (" &amp; (MATCH(C54,'WAR 9'!C:C,0)-1) &amp; " 9)", "") &amp;
+ IFERROR(" (" &amp; (MATCH(C54,'WAR 10'!C:C,0)-1) &amp; " 10)", "")</f>
         <v>1  (19 2)</v>
       </c>
     </row>
@@ -6969,27 +7995,29 @@
       <c r="C55" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="D55" s="20" cm="1">
-        <f t="array" aca="1" ref="D55" ca="1">ROUND(
-  SUM(
-    IFERROR(VLOOKUP(C55,'WAR 1'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C55,'WAR 1'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C55,'WAR 2'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C55,'WAR 2'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C55,'WAR 3'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C55,'WAR 3'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C55,'WAR 4'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C55,'WAR 4'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C55,'WAR 5'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C55,'WAR 5'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C55,'WAR 6'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C55,'WAR 6'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C55,'WAR 7'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C55,'WAR 7'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C55,'WAR 8'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C55,'WAR 8'!C:E,3,FALSE),0),
-   IFERROR(VLOOKUP(C55,'WAR 9'!C:E,2,FALSE),0),
-   IFERROR(VLOOPUP(C55,'WAR 9'!C:E,3,FALSE),0)
+      <c r="D55" s="20">
+        <f>ROUND(
+  (
+    IFERROR(VLOOKUP(C55,'WAR 1'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C55,'WAR 1'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C55,'WAR 2'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C55,'WAR 2'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C55,'WAR 3'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C55,'WAR 3'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C55,'WAR 4'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C55,'WAR 4'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C55,'WAR 5'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C55,'WAR 5'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C55,'WAR 6'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C55,'WAR 6'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C55,'WAR 7'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C55,'WAR 7'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C55,'WAR 8'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C55,'WAR 8'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C55,'WAR 9'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C55,'WAR 9'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C55,'WAR 10'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C55,'WAR 10'!C:E,3,FALSE),0)
   ) /
   (
     COUNTIF('WAR 1'!C:C,C55)*2 +
@@ -7000,23 +8028,23 @@
     COUNTIF('WAR 6'!C:C,C55)*2 +
     COUNTIF('WAR 7'!C:C,C55)*2 +
     COUNTIF('WAR 8'!C:C,C55)*2 +
-    COUNTIF('WAR 9'!C:C,C55)*2
+    COUNTIF('WAR 9'!C:C,C55)*2 +
+    COUNTIF('WAR 10'!C:C,C55)*2
   ),
 2)</f>
-        <v>82.13</v>
+        <v>78.39</v>
       </c>
       <c r="E55" s="21">
-        <f>SUM(
-  IFERROR(VLOOKUP(C55,'WAR 1'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C55,'WAR 2'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C55,'WAR 3'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C55,'WAR 4'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C55,'WAR 5'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C55,'WAR 6'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C55,'WAR 7'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C55,'WAR 8'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C55,'WAR 9'!C:F,4,FALSE),0)
-)</f>
+        <f>IFERROR(VLOOKUP(C55,'WAR 1'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C55,'WAR 2'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C55,'WAR 3'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C55,'WAR 4'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C55,'WAR 5'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C55,'WAR 6'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C55,'WAR 7'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C55,'WAR 8'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C55,'WAR 9'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C55,'WAR 10'!C:F,4,FALSE),0)</f>
         <v>10</v>
       </c>
       <c r="G55" t="s">
@@ -7032,7 +8060,8 @@
  IFERROR((IF(MATCH(C55,'WAR 6'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C55,'WAR 7'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C55,'WAR 8'!C:C,0),1,0)),0) +
- IFERROR((IF(MATCH(C55,'WAR 9'!C:C,0),1,0)),0)
+ IFERROR((IF(MATCH(C55,'WAR 9'!C:C,0),1,0)),0) +
+ IFERROR((IF(MATCH(C55,'WAR 10'!C:C,0),1,0)),0)
 ) &amp; " " &amp;
  IFERROR("(" &amp; (MATCH(C55,'WAR 1'!C:C,0)-1) &amp; " 1)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C55,'WAR 2'!C:C,0)-1) &amp; " 2)", "") &amp;
@@ -7042,8 +8071,9 @@
  IFERROR(" (" &amp; (MATCH(C55,'WAR 6'!C:C,0)-1) &amp; " 6)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C55,'WAR 7'!C:C,0)-1) &amp; " 7)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C55,'WAR 8'!C:C,0)-1) &amp; " 8)", "") &amp;
- IFERROR(" (" &amp; (MATCH(C55,'WAR 9'!C:C,0)-1) &amp; " 9)", "")</f>
-        <v>8  (45 2) (45 3) (41 4) (46 5) (47 6) (44 7) (46 8) (47 9)</v>
+ IFERROR(" (" &amp; (MATCH(C55,'WAR 9'!C:C,0)-1) &amp; " 9)", "") &amp;
+ IFERROR(" (" &amp; (MATCH(C55,'WAR 10'!C:C,0)-1) &amp; " 10)", "")</f>
+        <v>9  (45 2) (45 3) (41 4) (46 5) (47 6) (44 7) (46 8) (47 9) (47 10)</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -7056,27 +8086,29 @@
       <c r="C56" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="D56" s="20" cm="1">
-        <f t="array" aca="1" ref="D56" ca="1">ROUND(
-  SUM(
-    IFERROR(VLOOKUP(C56,'WAR 1'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C56,'WAR 1'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C56,'WAR 2'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C56,'WAR 2'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C56,'WAR 3'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C56,'WAR 3'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C56,'WAR 4'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C56,'WAR 4'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C56,'WAR 5'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C56,'WAR 5'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C56,'WAR 6'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C56,'WAR 6'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C56,'WAR 7'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C56,'WAR 7'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C56,'WAR 8'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C56,'WAR 8'!C:E,3,FALSE),0),
-   IFERROR(VLOOKUP(C56,'WAR 9'!C:E,2,FALSE),0),
-   IFERROR(VLOOPUP(C56,'WAR 9'!C:E,3,FALSE),0)
+      <c r="D56" s="20">
+        <f>ROUND(
+  (
+    IFERROR(VLOOKUP(C56,'WAR 1'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C56,'WAR 1'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C56,'WAR 2'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C56,'WAR 2'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C56,'WAR 3'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C56,'WAR 3'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C56,'WAR 4'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C56,'WAR 4'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C56,'WAR 5'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C56,'WAR 5'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C56,'WAR 6'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C56,'WAR 6'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C56,'WAR 7'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C56,'WAR 7'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C56,'WAR 8'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C56,'WAR 8'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C56,'WAR 9'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C56,'WAR 9'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C56,'WAR 10'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C56,'WAR 10'!C:E,3,FALSE),0)
   ) /
   (
     COUNTIF('WAR 1'!C:C,C56)*2 +
@@ -7087,24 +8119,24 @@
     COUNTIF('WAR 6'!C:C,C56)*2 +
     COUNTIF('WAR 7'!C:C,C56)*2 +
     COUNTIF('WAR 8'!C:C,C56)*2 +
-    COUNTIF('WAR 9'!C:C,C56)*2
+    COUNTIF('WAR 9'!C:C,C56)*2 +
+    COUNTIF('WAR 10'!C:C,C56)*2
   ),
 2)</f>
-        <v>81.290000000000006</v>
+        <v>83.5</v>
       </c>
       <c r="E56" s="21">
-        <f>SUM(
-  IFERROR(VLOOKUP(C56,'WAR 1'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C56,'WAR 2'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C56,'WAR 3'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C56,'WAR 4'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C56,'WAR 5'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C56,'WAR 6'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C56,'WAR 7'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C56,'WAR 8'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C56,'WAR 9'!C:F,4,FALSE),0)
-)</f>
-        <v>9</v>
+        <f>IFERROR(VLOOKUP(C56,'WAR 1'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C56,'WAR 2'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C56,'WAR 3'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C56,'WAR 4'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C56,'WAR 5'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C56,'WAR 6'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C56,'WAR 7'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C56,'WAR 8'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C56,'WAR 9'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C56,'WAR 10'!C:F,4,FALSE),0)</f>
+        <v>10</v>
       </c>
       <c r="G56" t="s">
         <v>127</v>
@@ -7119,7 +8151,8 @@
  IFERROR((IF(MATCH(C56,'WAR 6'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C56,'WAR 7'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C56,'WAR 8'!C:C,0),1,0)),0) +
- IFERROR((IF(MATCH(C56,'WAR 9'!C:C,0),1,0)),0)
+ IFERROR((IF(MATCH(C56,'WAR 9'!C:C,0),1,0)),0) +
+ IFERROR((IF(MATCH(C56,'WAR 10'!C:C,0),1,0)),0)
 ) &amp; " " &amp;
  IFERROR("(" &amp; (MATCH(C56,'WAR 1'!C:C,0)-1) &amp; " 1)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C56,'WAR 2'!C:C,0)-1) &amp; " 2)", "") &amp;
@@ -7129,8 +8162,9 @@
  IFERROR(" (" &amp; (MATCH(C56,'WAR 6'!C:C,0)-1) &amp; " 6)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C56,'WAR 7'!C:C,0)-1) &amp; " 7)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C56,'WAR 8'!C:C,0)-1) &amp; " 8)", "") &amp;
- IFERROR(" (" &amp; (MATCH(C56,'WAR 9'!C:C,0)-1) &amp; " 9)", "")</f>
-        <v>7  (3 3) (4 4) (3 5) (4 6) (4 7) (3 8) (5 9)</v>
+ IFERROR(" (" &amp; (MATCH(C56,'WAR 9'!C:C,0)-1) &amp; " 9)", "") &amp;
+ IFERROR(" (" &amp; (MATCH(C56,'WAR 10'!C:C,0)-1) &amp; " 10)", "")</f>
+        <v>8  (3 3) (4 4) (3 5) (4 6) (4 7) (3 8) (5 9) (5 10)</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -7143,27 +8177,29 @@
       <c r="C57" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="D57" s="20" cm="1">
-        <f t="array" aca="1" ref="D57" ca="1">ROUND(
-  SUM(
-    IFERROR(VLOOKUP(C57,'WAR 1'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C57,'WAR 1'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C57,'WAR 2'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C57,'WAR 2'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C57,'WAR 3'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C57,'WAR 3'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C57,'WAR 4'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C57,'WAR 4'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C57,'WAR 5'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C57,'WAR 5'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C57,'WAR 6'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C57,'WAR 6'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C57,'WAR 7'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C57,'WAR 7'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C57,'WAR 8'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C57,'WAR 8'!C:E,3,FALSE),0),
-   IFERROR(VLOOKUP(C57,'WAR 9'!C:E,2,FALSE),0),
-   IFERROR(VLOOPUP(C57,'WAR 9'!C:E,3,FALSE),0)
+      <c r="D57" s="20">
+        <f>ROUND(
+  (
+    IFERROR(VLOOKUP(C57,'WAR 1'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C57,'WAR 1'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C57,'WAR 2'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C57,'WAR 2'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C57,'WAR 3'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C57,'WAR 3'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C57,'WAR 4'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C57,'WAR 4'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C57,'WAR 5'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C57,'WAR 5'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C57,'WAR 6'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C57,'WAR 6'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C57,'WAR 7'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C57,'WAR 7'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C57,'WAR 8'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C57,'WAR 8'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C57,'WAR 9'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C57,'WAR 9'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C57,'WAR 10'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C57,'WAR 10'!C:E,3,FALSE),0)
   ) /
   (
     COUNTIF('WAR 1'!C:C,C57)*2 +
@@ -7174,23 +8210,23 @@
     COUNTIF('WAR 6'!C:C,C57)*2 +
     COUNTIF('WAR 7'!C:C,C57)*2 +
     COUNTIF('WAR 8'!C:C,C57)*2 +
-    COUNTIF('WAR 9'!C:C,C57)*2
+    COUNTIF('WAR 9'!C:C,C57)*2 +
+    COUNTIF('WAR 10'!C:C,C57)*2
   ),
 2)</f>
         <v>0</v>
       </c>
       <c r="E57" s="21">
-        <f>SUM(
-  IFERROR(VLOOKUP(C57,'WAR 1'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C57,'WAR 2'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C57,'WAR 3'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C57,'WAR 4'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C57,'WAR 5'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C57,'WAR 6'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C57,'WAR 7'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C57,'WAR 8'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C57,'WAR 9'!C:F,4,FALSE),0)
-)</f>
+        <f>IFERROR(VLOOKUP(C57,'WAR 1'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C57,'WAR 2'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C57,'WAR 3'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C57,'WAR 4'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C57,'WAR 5'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C57,'WAR 6'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C57,'WAR 7'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C57,'WAR 8'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C57,'WAR 9'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C57,'WAR 10'!C:F,4,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="G57" t="s">
@@ -7206,7 +8242,8 @@
  IFERROR((IF(MATCH(C57,'WAR 6'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C57,'WAR 7'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C57,'WAR 8'!C:C,0),1,0)),0) +
- IFERROR((IF(MATCH(C57,'WAR 9'!C:C,0),1,0)),0)
+ IFERROR((IF(MATCH(C57,'WAR 9'!C:C,0),1,0)),0) +
+ IFERROR((IF(MATCH(C57,'WAR 10'!C:C,0),1,0)),0)
 ) &amp; " " &amp;
  IFERROR("(" &amp; (MATCH(C57,'WAR 1'!C:C,0)-1) &amp; " 1)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C57,'WAR 2'!C:C,0)-1) &amp; " 2)", "") &amp;
@@ -7216,7 +8253,8 @@
  IFERROR(" (" &amp; (MATCH(C57,'WAR 6'!C:C,0)-1) &amp; " 6)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C57,'WAR 7'!C:C,0)-1) &amp; " 7)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C57,'WAR 8'!C:C,0)-1) &amp; " 8)", "") &amp;
- IFERROR(" (" &amp; (MATCH(C57,'WAR 9'!C:C,0)-1) &amp; " 9)", "")</f>
+ IFERROR(" (" &amp; (MATCH(C57,'WAR 9'!C:C,0)-1) &amp; " 9)", "") &amp;
+ IFERROR(" (" &amp; (MATCH(C57,'WAR 10'!C:C,0)-1) &amp; " 10)", "")</f>
         <v>1  (50 3)</v>
       </c>
     </row>
@@ -7230,27 +8268,29 @@
       <c r="C58" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="D58" s="20" cm="1">
-        <f t="array" aca="1" ref="D58" ca="1">ROUND(
-  SUM(
-    IFERROR(VLOOKUP(C58,'WAR 1'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C58,'WAR 1'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C58,'WAR 2'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C58,'WAR 2'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C58,'WAR 3'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C58,'WAR 3'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C58,'WAR 4'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C58,'WAR 4'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C58,'WAR 5'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C58,'WAR 5'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C58,'WAR 6'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C58,'WAR 6'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C58,'WAR 7'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C58,'WAR 7'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C58,'WAR 8'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C58,'WAR 8'!C:E,3,FALSE),0),
-   IFERROR(VLOOKUP(C58,'WAR 9'!C:E,2,FALSE),0),
-   IFERROR(VLOOPUP(C58,'WAR 9'!C:E,3,FALSE),0)
+      <c r="D58" s="20">
+        <f>ROUND(
+  (
+    IFERROR(VLOOKUP(C58,'WAR 1'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C58,'WAR 1'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C58,'WAR 2'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C58,'WAR 2'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C58,'WAR 3'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C58,'WAR 3'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C58,'WAR 4'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C58,'WAR 4'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C58,'WAR 5'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C58,'WAR 5'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C58,'WAR 6'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C58,'WAR 6'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C58,'WAR 7'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C58,'WAR 7'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C58,'WAR 8'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C58,'WAR 8'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C58,'WAR 9'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C58,'WAR 9'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C58,'WAR 10'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C58,'WAR 10'!C:E,3,FALSE),0)
   ) /
   (
     COUNTIF('WAR 1'!C:C,C58)*2 +
@@ -7261,24 +8301,24 @@
     COUNTIF('WAR 6'!C:C,C58)*2 +
     COUNTIF('WAR 7'!C:C,C58)*2 +
     COUNTIF('WAR 8'!C:C,C58)*2 +
-    COUNTIF('WAR 9'!C:C,C58)*2
+    COUNTIF('WAR 9'!C:C,C58)*2 +
+    COUNTIF('WAR 10'!C:C,C58)*2
   ),
 2)</f>
-        <v>51.42</v>
+        <v>58.36</v>
       </c>
       <c r="E58" s="21">
-        <f>SUM(
-  IFERROR(VLOOKUP(C58,'WAR 1'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C58,'WAR 2'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C58,'WAR 3'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C58,'WAR 4'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C58,'WAR 5'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C58,'WAR 6'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C58,'WAR 7'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C58,'WAR 8'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C58,'WAR 9'!C:F,4,FALSE),0)
-)</f>
-        <v>3</v>
+        <f>IFERROR(VLOOKUP(C58,'WAR 1'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C58,'WAR 2'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C58,'WAR 3'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C58,'WAR 4'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C58,'WAR 5'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C58,'WAR 6'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C58,'WAR 7'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C58,'WAR 8'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C58,'WAR 9'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C58,'WAR 10'!C:F,4,FALSE),0)</f>
+        <v>5</v>
       </c>
       <c r="G58" t="s">
         <v>139</v>
@@ -7293,7 +8333,8 @@
  IFERROR((IF(MATCH(C58,'WAR 6'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C58,'WAR 7'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C58,'WAR 8'!C:C,0),1,0)),0) +
- IFERROR((IF(MATCH(C58,'WAR 9'!C:C,0),1,0)),0)
+ IFERROR((IF(MATCH(C58,'WAR 9'!C:C,0),1,0)),0) +
+ IFERROR((IF(MATCH(C58,'WAR 10'!C:C,0),1,0)),0)
 ) &amp; " " &amp;
  IFERROR("(" &amp; (MATCH(C58,'WAR 1'!C:C,0)-1) &amp; " 1)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C58,'WAR 2'!C:C,0)-1) &amp; " 2)", "") &amp;
@@ -7303,8 +8344,9 @@
  IFERROR(" (" &amp; (MATCH(C58,'WAR 6'!C:C,0)-1) &amp; " 6)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C58,'WAR 7'!C:C,0)-1) &amp; " 7)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C58,'WAR 8'!C:C,0)-1) &amp; " 8)", "") &amp;
- IFERROR(" (" &amp; (MATCH(C58,'WAR 9'!C:C,0)-1) &amp; " 9)", "")</f>
-        <v>6  (33 4) (36 5) (37 6) (35 7) (36 8) (36 9)</v>
+ IFERROR(" (" &amp; (MATCH(C58,'WAR 9'!C:C,0)-1) &amp; " 9)", "") &amp;
+ IFERROR(" (" &amp; (MATCH(C58,'WAR 10'!C:C,0)-1) &amp; " 10)", "")</f>
+        <v>7  (33 4) (36 5) (37 6) (35 7) (36 8) (36 9) (36 10)</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -7317,27 +8359,29 @@
       <c r="C59" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="D59" s="20" cm="1">
-        <f t="array" aca="1" ref="D59" ca="1">ROUND(
-  SUM(
-    IFERROR(VLOOKUP(C59,'WAR 1'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C59,'WAR 1'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C59,'WAR 2'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C59,'WAR 2'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C59,'WAR 3'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C59,'WAR 3'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C59,'WAR 4'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C59,'WAR 4'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C59,'WAR 5'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C59,'WAR 5'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C59,'WAR 6'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C59,'WAR 6'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C59,'WAR 7'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C59,'WAR 7'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C59,'WAR 8'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C59,'WAR 8'!C:E,3,FALSE),0),
-   IFERROR(VLOOKUP(C59,'WAR 9'!C:E,2,FALSE),0),
-   IFERROR(VLOOPUP(C59,'WAR 9'!C:E,3,FALSE),0)
+      <c r="D59" s="20">
+        <f>ROUND(
+  (
+    IFERROR(VLOOKUP(C59,'WAR 1'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C59,'WAR 1'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C59,'WAR 2'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C59,'WAR 2'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C59,'WAR 3'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C59,'WAR 3'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C59,'WAR 4'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C59,'WAR 4'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C59,'WAR 5'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C59,'WAR 5'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C59,'WAR 6'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C59,'WAR 6'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C59,'WAR 7'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C59,'WAR 7'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C59,'WAR 8'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C59,'WAR 8'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C59,'WAR 9'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C59,'WAR 9'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C59,'WAR 10'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C59,'WAR 10'!C:E,3,FALSE),0)
   ) /
   (
     COUNTIF('WAR 1'!C:C,C59)*2 +
@@ -7348,23 +8392,23 @@
     COUNTIF('WAR 6'!C:C,C59)*2 +
     COUNTIF('WAR 7'!C:C,C59)*2 +
     COUNTIF('WAR 8'!C:C,C59)*2 +
-    COUNTIF('WAR 9'!C:C,C59)*2
+    COUNTIF('WAR 9'!C:C,C59)*2 +
+    COUNTIF('WAR 10'!C:C,C59)*2
   ),
 2)</f>
         <v>100</v>
       </c>
       <c r="E59" s="21">
-        <f>SUM(
-  IFERROR(VLOOKUP(C59,'WAR 1'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C59,'WAR 2'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C59,'WAR 3'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C59,'WAR 4'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C59,'WAR 5'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C59,'WAR 6'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C59,'WAR 7'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C59,'WAR 8'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C59,'WAR 9'!C:F,4,FALSE),0)
-)</f>
+        <f>IFERROR(VLOOKUP(C59,'WAR 1'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C59,'WAR 2'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C59,'WAR 3'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C59,'WAR 4'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C59,'WAR 5'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C59,'WAR 6'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C59,'WAR 7'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C59,'WAR 8'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C59,'WAR 9'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C59,'WAR 10'!C:F,4,FALSE),0)</f>
         <v>4</v>
       </c>
       <c r="G59" t="s">
@@ -7380,7 +8424,8 @@
  IFERROR((IF(MATCH(C59,'WAR 6'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C59,'WAR 7'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C59,'WAR 8'!C:C,0),1,0)),0) +
- IFERROR((IF(MATCH(C59,'WAR 9'!C:C,0),1,0)),0)
+ IFERROR((IF(MATCH(C59,'WAR 9'!C:C,0),1,0)),0) +
+ IFERROR((IF(MATCH(C59,'WAR 10'!C:C,0),1,0)),0)
 ) &amp; " " &amp;
  IFERROR("(" &amp; (MATCH(C59,'WAR 1'!C:C,0)-1) &amp; " 1)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C59,'WAR 2'!C:C,0)-1) &amp; " 2)", "") &amp;
@@ -7390,7 +8435,8 @@
  IFERROR(" (" &amp; (MATCH(C59,'WAR 6'!C:C,0)-1) &amp; " 6)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C59,'WAR 7'!C:C,0)-1) &amp; " 7)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C59,'WAR 8'!C:C,0)-1) &amp; " 8)", "") &amp;
- IFERROR(" (" &amp; (MATCH(C59,'WAR 9'!C:C,0)-1) &amp; " 9)", "")</f>
+ IFERROR(" (" &amp; (MATCH(C59,'WAR 9'!C:C,0)-1) &amp; " 9)", "") &amp;
+ IFERROR(" (" &amp; (MATCH(C59,'WAR 10'!C:C,0)-1) &amp; " 10)", "")</f>
         <v>2  (43 4) (47 5)</v>
       </c>
     </row>
@@ -7404,27 +8450,29 @@
       <c r="C60" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="D60" s="20" cm="1">
-        <f t="array" aca="1" ref="D60" ca="1">ROUND(
-  SUM(
-    IFERROR(VLOOKUP(C60,'WAR 1'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C60,'WAR 1'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C60,'WAR 2'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C60,'WAR 2'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C60,'WAR 3'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C60,'WAR 3'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C60,'WAR 4'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C60,'WAR 4'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C60,'WAR 5'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C60,'WAR 5'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C60,'WAR 6'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C60,'WAR 6'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C60,'WAR 7'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C60,'WAR 7'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C60,'WAR 8'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C60,'WAR 8'!C:E,3,FALSE),0),
-   IFERROR(VLOOKUP(C60,'WAR 9'!C:E,2,FALSE),0),
-   IFERROR(VLOOPUP(C60,'WAR 9'!C:E,3,FALSE),0)
+      <c r="D60" s="20">
+        <f>ROUND(
+  (
+    IFERROR(VLOOKUP(C60,'WAR 1'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C60,'WAR 1'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C60,'WAR 2'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C60,'WAR 2'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C60,'WAR 3'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C60,'WAR 3'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C60,'WAR 4'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C60,'WAR 4'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C60,'WAR 5'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C60,'WAR 5'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C60,'WAR 6'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C60,'WAR 6'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C60,'WAR 7'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C60,'WAR 7'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C60,'WAR 8'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C60,'WAR 8'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C60,'WAR 9'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C60,'WAR 9'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C60,'WAR 10'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C60,'WAR 10'!C:E,3,FALSE),0)
   ) /
   (
     COUNTIF('WAR 1'!C:C,C60)*2 +
@@ -7435,24 +8483,24 @@
     COUNTIF('WAR 6'!C:C,C60)*2 +
     COUNTIF('WAR 7'!C:C,C60)*2 +
     COUNTIF('WAR 8'!C:C,C60)*2 +
-    COUNTIF('WAR 9'!C:C,C60)*2
+    COUNTIF('WAR 9'!C:C,C60)*2 +
+    COUNTIF('WAR 10'!C:C,C60)*2
   ),
 2)</f>
-        <v>72.3</v>
+        <v>75.42</v>
       </c>
       <c r="E60" s="21">
-        <f>SUM(
-  IFERROR(VLOOKUP(C60,'WAR 1'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C60,'WAR 2'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C60,'WAR 3'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C60,'WAR 4'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C60,'WAR 5'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C60,'WAR 6'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C60,'WAR 7'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C60,'WAR 8'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C60,'WAR 9'!C:F,4,FALSE),0)
-)</f>
-        <v>6</v>
+        <f>IFERROR(VLOOKUP(C60,'WAR 1'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C60,'WAR 2'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C60,'WAR 3'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C60,'WAR 4'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C60,'WAR 5'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C60,'WAR 6'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C60,'WAR 7'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C60,'WAR 8'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C60,'WAR 9'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C60,'WAR 10'!C:F,4,FALSE),0)</f>
+        <v>7</v>
       </c>
       <c r="G60" t="s">
         <v>132</v>
@@ -7467,7 +8515,8 @@
  IFERROR((IF(MATCH(C60,'WAR 6'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C60,'WAR 7'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C60,'WAR 8'!C:C,0),1,0)),0) +
- IFERROR((IF(MATCH(C60,'WAR 9'!C:C,0),1,0)),0)
+ IFERROR((IF(MATCH(C60,'WAR 9'!C:C,0),1,0)),0) +
+ IFERROR((IF(MATCH(C60,'WAR 10'!C:C,0),1,0)),0)
 ) &amp; " " &amp;
  IFERROR("(" &amp; (MATCH(C60,'WAR 1'!C:C,0)-1) &amp; " 1)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C60,'WAR 2'!C:C,0)-1) &amp; " 2)", "") &amp;
@@ -7477,8 +8526,9 @@
  IFERROR(" (" &amp; (MATCH(C60,'WAR 6'!C:C,0)-1) &amp; " 6)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C60,'WAR 7'!C:C,0)-1) &amp; " 7)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C60,'WAR 8'!C:C,0)-1) &amp; " 8)", "") &amp;
- IFERROR(" (" &amp; (MATCH(C60,'WAR 9'!C:C,0)-1) &amp; " 9)", "")</f>
-        <v>5  (18 5) (18 6) (17 7) (18 8) (18 9)</v>
+ IFERROR(" (" &amp; (MATCH(C60,'WAR 9'!C:C,0)-1) &amp; " 9)", "") &amp;
+ IFERROR(" (" &amp; (MATCH(C60,'WAR 10'!C:C,0)-1) &amp; " 10)", "")</f>
+        <v>6  (18 5) (18 6) (17 7) (18 8) (18 9) (18 10)</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -7491,27 +8541,29 @@
       <c r="C61" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="D61" s="20" cm="1">
-        <f t="array" aca="1" ref="D61" ca="1">ROUND(
-  SUM(
-    IFERROR(VLOOKUP(C61,'WAR 1'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C61,'WAR 1'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C61,'WAR 2'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C61,'WAR 2'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C61,'WAR 3'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C61,'WAR 3'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C61,'WAR 4'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C61,'WAR 4'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C61,'WAR 5'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C61,'WAR 5'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C61,'WAR 6'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C61,'WAR 6'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C61,'WAR 7'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C61,'WAR 7'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C61,'WAR 8'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C61,'WAR 8'!C:E,3,FALSE),0),
-   IFERROR(VLOOKUP(C61,'WAR 9'!C:E,2,FALSE),0),
-   IFERROR(VLOOPUP(C61,'WAR 9'!C:E,3,FALSE),0)
+      <c r="D61" s="20">
+        <f>ROUND(
+  (
+    IFERROR(VLOOKUP(C61,'WAR 1'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C61,'WAR 1'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C61,'WAR 2'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C61,'WAR 2'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C61,'WAR 3'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C61,'WAR 3'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C61,'WAR 4'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C61,'WAR 4'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C61,'WAR 5'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C61,'WAR 5'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C61,'WAR 6'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C61,'WAR 6'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C61,'WAR 7'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C61,'WAR 7'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C61,'WAR 8'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C61,'WAR 8'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C61,'WAR 9'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C61,'WAR 9'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C61,'WAR 10'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C61,'WAR 10'!C:E,3,FALSE),0)
   ) /
   (
     COUNTIF('WAR 1'!C:C,C61)*2 +
@@ -7522,24 +8574,24 @@
     COUNTIF('WAR 6'!C:C,C61)*2 +
     COUNTIF('WAR 7'!C:C,C61)*2 +
     COUNTIF('WAR 8'!C:C,C61)*2 +
-    COUNTIF('WAR 9'!C:C,C61)*2
+    COUNTIF('WAR 9'!C:C,C61)*2 +
+    COUNTIF('WAR 10'!C:C,C61)*2
   ),
 2)</f>
-        <v>78.3</v>
+        <v>81.92</v>
       </c>
       <c r="E61" s="21">
-        <f>SUM(
-  IFERROR(VLOOKUP(C61,'WAR 1'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C61,'WAR 2'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C61,'WAR 3'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C61,'WAR 4'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C61,'WAR 5'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C61,'WAR 6'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C61,'WAR 7'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C61,'WAR 8'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C61,'WAR 9'!C:F,4,FALSE),0)
-)</f>
-        <v>7</v>
+        <f>IFERROR(VLOOKUP(C61,'WAR 1'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C61,'WAR 2'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C61,'WAR 3'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C61,'WAR 4'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C61,'WAR 5'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C61,'WAR 6'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C61,'WAR 7'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C61,'WAR 8'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C61,'WAR 9'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C61,'WAR 10'!C:F,4,FALSE),0)</f>
+        <v>9</v>
       </c>
       <c r="G61" t="s">
         <v>157</v>
@@ -7554,7 +8606,8 @@
  IFERROR((IF(MATCH(C61,'WAR 6'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C61,'WAR 7'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C61,'WAR 8'!C:C,0),1,0)),0) +
- IFERROR((IF(MATCH(C61,'WAR 9'!C:C,0),1,0)),0)
+ IFERROR((IF(MATCH(C61,'WAR 9'!C:C,0),1,0)),0) +
+ IFERROR((IF(MATCH(C61,'WAR 10'!C:C,0),1,0)),0)
 ) &amp; " " &amp;
  IFERROR("(" &amp; (MATCH(C61,'WAR 1'!C:C,0)-1) &amp; " 1)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C61,'WAR 2'!C:C,0)-1) &amp; " 2)", "") &amp;
@@ -7564,8 +8617,9 @@
  IFERROR(" (" &amp; (MATCH(C61,'WAR 6'!C:C,0)-1) &amp; " 6)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C61,'WAR 7'!C:C,0)-1) &amp; " 7)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C61,'WAR 8'!C:C,0)-1) &amp; " 8)", "") &amp;
- IFERROR(" (" &amp; (MATCH(C61,'WAR 9'!C:C,0)-1) &amp; " 9)", "")</f>
-        <v>5  (21 5) (22 6) (21 7) (21 8) (21 9)</v>
+ IFERROR(" (" &amp; (MATCH(C61,'WAR 9'!C:C,0)-1) &amp; " 9)", "") &amp;
+ IFERROR(" (" &amp; (MATCH(C61,'WAR 10'!C:C,0)-1) &amp; " 10)", "")</f>
+        <v>6  (21 5) (22 6) (21 7) (21 8) (21 9) (23 10)</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -7578,27 +8632,29 @@
       <c r="C62" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="D62" s="20" cm="1">
-        <f t="array" aca="1" ref="D62" ca="1">ROUND(
-  SUM(
-    IFERROR(VLOOKUP(C62,'WAR 1'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C62,'WAR 1'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C62,'WAR 2'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C62,'WAR 2'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C62,'WAR 3'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C62,'WAR 3'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C62,'WAR 4'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C62,'WAR 4'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C62,'WAR 5'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C62,'WAR 5'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C62,'WAR 6'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C62,'WAR 6'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C62,'WAR 7'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C62,'WAR 7'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C62,'WAR 8'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C62,'WAR 8'!C:E,3,FALSE),0),
-   IFERROR(VLOOKUP(C62,'WAR 9'!C:E,2,FALSE),0),
-   IFERROR(VLOOPUP(C62,'WAR 9'!C:E,3,FALSE),0)
+      <c r="D62" s="20">
+        <f>ROUND(
+  (
+    IFERROR(VLOOKUP(C62,'WAR 1'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C62,'WAR 1'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C62,'WAR 2'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C62,'WAR 2'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C62,'WAR 3'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C62,'WAR 3'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C62,'WAR 4'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C62,'WAR 4'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C62,'WAR 5'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C62,'WAR 5'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C62,'WAR 6'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C62,'WAR 6'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C62,'WAR 7'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C62,'WAR 7'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C62,'WAR 8'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C62,'WAR 8'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C62,'WAR 9'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C62,'WAR 9'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C62,'WAR 10'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C62,'WAR 10'!C:E,3,FALSE),0)
   ) /
   (
     COUNTIF('WAR 1'!C:C,C62)*2 +
@@ -7609,24 +8665,24 @@
     COUNTIF('WAR 6'!C:C,C62)*2 +
     COUNTIF('WAR 7'!C:C,C62)*2 +
     COUNTIF('WAR 8'!C:C,C62)*2 +
-    COUNTIF('WAR 9'!C:C,C62)*2
+    COUNTIF('WAR 9'!C:C,C62)*2 +
+    COUNTIF('WAR 10'!C:C,C62)*2
   ),
 2)</f>
-        <v>59.5</v>
+        <v>66</v>
       </c>
       <c r="E62" s="21">
-        <f>SUM(
-  IFERROR(VLOOKUP(C62,'WAR 1'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C62,'WAR 2'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C62,'WAR 3'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C62,'WAR 4'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C62,'WAR 5'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C62,'WAR 6'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C62,'WAR 7'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C62,'WAR 8'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C62,'WAR 9'!C:F,4,FALSE),0)
-)</f>
-        <v>5</v>
+        <f>IFERROR(VLOOKUP(C62,'WAR 1'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C62,'WAR 2'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C62,'WAR 3'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C62,'WAR 4'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C62,'WAR 5'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C62,'WAR 6'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C62,'WAR 7'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C62,'WAR 8'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C62,'WAR 9'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C62,'WAR 10'!C:F,4,FALSE),0)</f>
+        <v>6</v>
       </c>
       <c r="G62" t="s">
         <v>160</v>
@@ -7641,7 +8697,8 @@
  IFERROR((IF(MATCH(C62,'WAR 6'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C62,'WAR 7'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C62,'WAR 8'!C:C,0),1,0)),0) +
- IFERROR((IF(MATCH(C62,'WAR 9'!C:C,0),1,0)),0)
+ IFERROR((IF(MATCH(C62,'WAR 9'!C:C,0),1,0)),0) +
+ IFERROR((IF(MATCH(C62,'WAR 10'!C:C,0),1,0)),0)
 ) &amp; " " &amp;
  IFERROR("(" &amp; (MATCH(C62,'WAR 1'!C:C,0)-1) &amp; " 1)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C62,'WAR 2'!C:C,0)-1) &amp; " 2)", "") &amp;
@@ -7651,8 +8708,9 @@
  IFERROR(" (" &amp; (MATCH(C62,'WAR 6'!C:C,0)-1) &amp; " 6)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C62,'WAR 7'!C:C,0)-1) &amp; " 7)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C62,'WAR 8'!C:C,0)-1) &amp; " 8)", "") &amp;
- IFERROR(" (" &amp; (MATCH(C62,'WAR 9'!C:C,0)-1) &amp; " 9)", "")</f>
-        <v>5  (42 5) (43 6) (40 7) (42 8) (43 9)</v>
+ IFERROR(" (" &amp; (MATCH(C62,'WAR 9'!C:C,0)-1) &amp; " 9)", "") &amp;
+ IFERROR(" (" &amp; (MATCH(C62,'WAR 10'!C:C,0)-1) &amp; " 10)", "")</f>
+        <v>6  (42 5) (43 6) (40 7) (42 8) (43 9) (43 10)</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -7665,27 +8723,29 @@
       <c r="C63" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="D63" s="20" cm="1">
-        <f t="array" aca="1" ref="D63" ca="1">ROUND(
-  SUM(
-    IFERROR(VLOOKUP(C63,'WAR 1'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C63,'WAR 1'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C63,'WAR 2'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C63,'WAR 2'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C63,'WAR 3'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C63,'WAR 3'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C63,'WAR 4'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C63,'WAR 4'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C63,'WAR 5'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C63,'WAR 5'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C63,'WAR 6'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C63,'WAR 6'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C63,'WAR 7'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C63,'WAR 7'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C63,'WAR 8'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C63,'WAR 8'!C:E,3,FALSE),0),
-   IFERROR(VLOOKUP(C63,'WAR 9'!C:E,2,FALSE),0),
-   IFERROR(VLOOPUP(C63,'WAR 9'!C:E,3,FALSE),0)
+      <c r="D63" s="20">
+        <f>ROUND(
+  (
+    IFERROR(VLOOKUP(C63,'WAR 1'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C63,'WAR 1'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C63,'WAR 2'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C63,'WAR 2'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C63,'WAR 3'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C63,'WAR 3'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C63,'WAR 4'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C63,'WAR 4'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C63,'WAR 5'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C63,'WAR 5'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C63,'WAR 6'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C63,'WAR 6'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C63,'WAR 7'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C63,'WAR 7'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C63,'WAR 8'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C63,'WAR 8'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C63,'WAR 9'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C63,'WAR 9'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C63,'WAR 10'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C63,'WAR 10'!C:E,3,FALSE),0)
   ) /
   (
     COUNTIF('WAR 1'!C:C,C63)*2 +
@@ -7696,24 +8756,24 @@
     COUNTIF('WAR 6'!C:C,C63)*2 +
     COUNTIF('WAR 7'!C:C,C63)*2 +
     COUNTIF('WAR 8'!C:C,C63)*2 +
-    COUNTIF('WAR 9'!C:C,C63)*2
+    COUNTIF('WAR 9'!C:C,C63)*2 +
+    COUNTIF('WAR 10'!C:C,C63)*2
   ),
 2)</f>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E63" s="21">
-        <f>SUM(
-  IFERROR(VLOOKUP(C63,'WAR 1'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C63,'WAR 2'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C63,'WAR 3'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C63,'WAR 4'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C63,'WAR 5'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C63,'WAR 6'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C63,'WAR 7'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C63,'WAR 8'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C63,'WAR 9'!C:F,4,FALSE),0)
-)</f>
-        <v>6</v>
+        <f>IFERROR(VLOOKUP(C63,'WAR 1'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C63,'WAR 2'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C63,'WAR 3'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C63,'WAR 4'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C63,'WAR 5'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C63,'WAR 6'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C63,'WAR 7'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C63,'WAR 8'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C63,'WAR 9'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C63,'WAR 10'!C:F,4,FALSE),0)</f>
+        <v>8</v>
       </c>
       <c r="G63" t="s">
         <v>164</v>
@@ -7728,7 +8788,8 @@
  IFERROR((IF(MATCH(C63,'WAR 6'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C63,'WAR 7'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C63,'WAR 8'!C:C,0),1,0)),0) +
- IFERROR((IF(MATCH(C63,'WAR 9'!C:C,0),1,0)),0)
+ IFERROR((IF(MATCH(C63,'WAR 9'!C:C,0),1,0)),0) +
+ IFERROR((IF(MATCH(C63,'WAR 10'!C:C,0),1,0)),0)
 ) &amp; " " &amp;
  IFERROR("(" &amp; (MATCH(C63,'WAR 1'!C:C,0)-1) &amp; " 1)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C63,'WAR 2'!C:C,0)-1) &amp; " 2)", "") &amp;
@@ -7738,8 +8799,9 @@
  IFERROR(" (" &amp; (MATCH(C63,'WAR 6'!C:C,0)-1) &amp; " 6)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C63,'WAR 7'!C:C,0)-1) &amp; " 7)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C63,'WAR 8'!C:C,0)-1) &amp; " 8)", "") &amp;
- IFERROR(" (" &amp; (MATCH(C63,'WAR 9'!C:C,0)-1) &amp; " 9)", "")</f>
-        <v>4  (10 6) (10 7) (10 8) (10 9)</v>
+ IFERROR(" (" &amp; (MATCH(C63,'WAR 9'!C:C,0)-1) &amp; " 9)", "") &amp;
+ IFERROR(" (" &amp; (MATCH(C63,'WAR 10'!C:C,0)-1) &amp; " 10)", "")</f>
+        <v>5  (10 6) (10 7) (10 8) (10 9) (11 10)</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -7752,27 +8814,29 @@
       <c r="C64" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="D64" s="20" cm="1">
-        <f t="array" aca="1" ref="D64" ca="1">ROUND(
-  SUM(
-    IFERROR(VLOOKUP(C64,'WAR 1'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C64,'WAR 1'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C64,'WAR 2'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C64,'WAR 2'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C64,'WAR 3'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C64,'WAR 3'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C64,'WAR 4'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C64,'WAR 4'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C64,'WAR 5'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C64,'WAR 5'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C64,'WAR 6'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C64,'WAR 6'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C64,'WAR 7'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C64,'WAR 7'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C64,'WAR 8'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C64,'WAR 8'!C:E,3,FALSE),0),
-   IFERROR(VLOOKUP(C64,'WAR 9'!C:E,2,FALSE),0),
-   IFERROR(VLOOPUP(C64,'WAR 9'!C:E,3,FALSE),0)
+      <c r="D64" s="20">
+        <f>ROUND(
+  (
+    IFERROR(VLOOKUP(C64,'WAR 1'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C64,'WAR 1'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C64,'WAR 2'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C64,'WAR 2'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C64,'WAR 3'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C64,'WAR 3'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C64,'WAR 4'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C64,'WAR 4'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C64,'WAR 5'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C64,'WAR 5'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C64,'WAR 6'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C64,'WAR 6'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C64,'WAR 7'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C64,'WAR 7'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C64,'WAR 8'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C64,'WAR 8'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C64,'WAR 9'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C64,'WAR 9'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C64,'WAR 10'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C64,'WAR 10'!C:E,3,FALSE),0)
   ) /
   (
     COUNTIF('WAR 1'!C:C,C64)*2 +
@@ -7783,23 +8847,23 @@
     COUNTIF('WAR 6'!C:C,C64)*2 +
     COUNTIF('WAR 7'!C:C,C64)*2 +
     COUNTIF('WAR 8'!C:C,C64)*2 +
-    COUNTIF('WAR 9'!C:C,C64)*2
+    COUNTIF('WAR 9'!C:C,C64)*2 +
+    COUNTIF('WAR 10'!C:C,C64)*2
   ),
 2)</f>
-        <v>29.5</v>
+        <v>40.83</v>
       </c>
       <c r="E64" s="21">
-        <f>SUM(
-  IFERROR(VLOOKUP(C64,'WAR 1'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C64,'WAR 2'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C64,'WAR 3'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C64,'WAR 4'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C64,'WAR 5'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C64,'WAR 6'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C64,'WAR 7'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C64,'WAR 8'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C64,'WAR 9'!C:F,4,FALSE),0)
-)</f>
+        <f>IFERROR(VLOOKUP(C64,'WAR 1'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C64,'WAR 2'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C64,'WAR 3'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C64,'WAR 4'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C64,'WAR 5'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C64,'WAR 6'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C64,'WAR 7'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C64,'WAR 8'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C64,'WAR 9'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C64,'WAR 10'!C:F,4,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="G64" t="s">
@@ -7815,7 +8879,8 @@
  IFERROR((IF(MATCH(C64,'WAR 6'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C64,'WAR 7'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C64,'WAR 8'!C:C,0),1,0)),0) +
- IFERROR((IF(MATCH(C64,'WAR 9'!C:C,0),1,0)),0)
+ IFERROR((IF(MATCH(C64,'WAR 9'!C:C,0),1,0)),0) +
+ IFERROR((IF(MATCH(C64,'WAR 10'!C:C,0),1,0)),0)
 ) &amp; " " &amp;
  IFERROR("(" &amp; (MATCH(C64,'WAR 1'!C:C,0)-1) &amp; " 1)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C64,'WAR 2'!C:C,0)-1) &amp; " 2)", "") &amp;
@@ -7825,11 +8890,12 @@
  IFERROR(" (" &amp; (MATCH(C64,'WAR 6'!C:C,0)-1) &amp; " 6)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C64,'WAR 7'!C:C,0)-1) &amp; " 7)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C64,'WAR 8'!C:C,0)-1) &amp; " 8)", "") &amp;
- IFERROR(" (" &amp; (MATCH(C64,'WAR 9'!C:C,0)-1) &amp; " 9)", "")</f>
-        <v>2  (38 8) (38 9)</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+ IFERROR(" (" &amp; (MATCH(C64,'WAR 9'!C:C,0)-1) &amp; " 9)", "") &amp;
+ IFERROR(" (" &amp; (MATCH(C64,'WAR 10'!C:C,0)-1) &amp; " 10)", "")</f>
+        <v>3  (38 8) (38 9) (38 10)</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="15">
         <v>64</v>
       </c>
@@ -7839,27 +8905,29 @@
       <c r="C65" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="D65" s="20" cm="1">
-        <f t="array" aca="1" ref="D65" ca="1">ROUND(
-  SUM(
-    IFERROR(VLOOKUP(C65,'WAR 1'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C65,'WAR 1'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C65,'WAR 2'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C65,'WAR 2'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C65,'WAR 3'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C65,'WAR 3'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C65,'WAR 4'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C65,'WAR 4'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C65,'WAR 5'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C65,'WAR 5'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C65,'WAR 6'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C65,'WAR 6'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C65,'WAR 7'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C65,'WAR 7'!C:E,3,FALSE),0),
-    IFERROR(VLOOKUP(C65,'WAR 8'!C:E,2,FALSE),0),
-    IFERROR(VLOOKUP(C65,'WAR 8'!C:E,3,FALSE),0),
-   IFERROR(VLOOKUP(C65,'WAR 9'!C:E,2,FALSE),0),
-   IFERROR(VLOOPUP(C65,'WAR 9'!C:E,3,FALSE),0)
+      <c r="D65" s="20">
+        <f>ROUND(
+  (
+    IFERROR(VLOOKUP(C65,'WAR 1'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C65,'WAR 1'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C65,'WAR 2'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C65,'WAR 2'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C65,'WAR 3'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C65,'WAR 3'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C65,'WAR 4'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C65,'WAR 4'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C65,'WAR 5'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C65,'WAR 5'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C65,'WAR 6'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C65,'WAR 6'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C65,'WAR 7'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C65,'WAR 7'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C65,'WAR 8'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C65,'WAR 8'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C65,'WAR 9'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C65,'WAR 9'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C65,'WAR 10'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C65,'WAR 10'!C:E,3,FALSE),0)
   ) /
   (
     COUNTIF('WAR 1'!C:C,C65)*2 +
@@ -7870,24 +8938,24 @@
     COUNTIF('WAR 6'!C:C,C65)*2 +
     COUNTIF('WAR 7'!C:C,C65)*2 +
     COUNTIF('WAR 8'!C:C,C65)*2 +
-    COUNTIF('WAR 9'!C:C,C65)*2
+    COUNTIF('WAR 9'!C:C,C65)*2 +
+    COUNTIF('WAR 10'!C:C,C65)*2
   ),
 2)</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E65" s="21">
-        <f>SUM(
-  IFERROR(VLOOKUP(C65,'WAR 1'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C65,'WAR 2'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C65,'WAR 3'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C65,'WAR 4'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C65,'WAR 5'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C65,'WAR 6'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C65,'WAR 7'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C65,'WAR 8'!C:F,4,FALSE),0),
-  IFERROR(VLOOKUP(C65,'WAR 9'!C:F,4,FALSE),0)
-)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP(C65,'WAR 1'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C65,'WAR 2'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C65,'WAR 3'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C65,'WAR 4'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C65,'WAR 5'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C65,'WAR 6'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C65,'WAR 7'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C65,'WAR 8'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C65,'WAR 9'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C65,'WAR 10'!C:F,4,FALSE),0)</f>
+        <v>2</v>
       </c>
       <c r="G65" t="s">
         <v>124</v>
@@ -7902,7 +8970,8 @@
  IFERROR((IF(MATCH(C65,'WAR 6'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C65,'WAR 7'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C65,'WAR 8'!C:C,0),1,0)),0) +
- IFERROR((IF(MATCH(C65,'WAR 9'!C:C,0),1,0)),0)
+ IFERROR((IF(MATCH(C65,'WAR 9'!C:C,0),1,0)),0) +
+ IFERROR((IF(MATCH(C65,'WAR 10'!C:C,0),1,0)),0)
 ) &amp; " " &amp;
  IFERROR("(" &amp; (MATCH(C65,'WAR 1'!C:C,0)-1) &amp; " 1)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C65,'WAR 2'!C:C,0)-1) &amp; " 2)", "") &amp;
@@ -7912,8 +8981,100 @@
  IFERROR(" (" &amp; (MATCH(C65,'WAR 6'!C:C,0)-1) &amp; " 6)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C65,'WAR 7'!C:C,0)-1) &amp; " 7)", "") &amp;
  IFERROR(" (" &amp; (MATCH(C65,'WAR 8'!C:C,0)-1) &amp; " 8)", "") &amp;
- IFERROR(" (" &amp; (MATCH(C65,'WAR 9'!C:C,0)-1) &amp; " 9)", "")</f>
-        <v>1  (1 9)</v>
+ IFERROR(" (" &amp; (MATCH(C65,'WAR 9'!C:C,0)-1) &amp; " 9)", "") &amp;
+ IFERROR(" (" &amp; (MATCH(C65,'WAR 10'!C:C,0)-1) &amp; " 10)", "")</f>
+        <v>2  (1 9) (1 10)</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="15">
+        <v>65</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="C66" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="D66" s="20">
+        <f>ROUND(
+  (
+    IFERROR(VLOOKUP(C66,'WAR 1'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C66,'WAR 1'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C66,'WAR 2'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C66,'WAR 2'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C66,'WAR 3'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C66,'WAR 3'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C66,'WAR 4'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C66,'WAR 4'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C66,'WAR 5'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C66,'WAR 5'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C66,'WAR 6'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C66,'WAR 6'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C66,'WAR 7'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C66,'WAR 7'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C66,'WAR 8'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C66,'WAR 8'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C66,'WAR 9'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C66,'WAR 9'!C:E,3,FALSE),0) +
+    IFERROR(VLOOKUP(C66,'WAR 10'!C:E,2,FALSE),0) +
+    IFERROR(VLOOKUP(C66,'WAR 10'!C:E,3,FALSE),0)
+  ) /
+  (
+    COUNTIF('WAR 1'!C:C,C66)*2 +
+    COUNTIF('WAR 2'!C:C,C66)*2 +
+    COUNTIF('WAR 3'!C:C,C66)*2 +
+    COUNTIF('WAR 4'!C:C,C66)*2 +
+    COUNTIF('WAR 5'!C:C,C66)*2 +
+    COUNTIF('WAR 6'!C:C,C66)*2 +
+    COUNTIF('WAR 7'!C:C,C66)*2 +
+    COUNTIF('WAR 8'!C:C,C66)*2 +
+    COUNTIF('WAR 9'!C:C,C66)*2 +
+    COUNTIF('WAR 10'!C:C,C66)*2
+  ),
+2)</f>
+        <v>0</v>
+      </c>
+      <c r="E66" s="21">
+        <f>IFERROR(VLOOKUP(C66,'WAR 1'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C66,'WAR 2'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C66,'WAR 3'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C66,'WAR 4'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C66,'WAR 5'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C66,'WAR 6'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C66,'WAR 7'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C66,'WAR 8'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C66,'WAR 9'!C:F,4,FALSE),0) +
+IFERROR(VLOOKUP(C66,'WAR 10'!C:F,4,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G66" t="s">
+        <v>131</v>
+      </c>
+      <c r="H66" s="1" t="str">
+        <f>(
+ IFERROR((IF(MATCH(C66,'WAR 1'!C:C,0),1,0)),0) +
+ IFERROR((IF(MATCH(C66,'WAR 2'!C:C,0),1,0)),0) +
+ IFERROR((IF(MATCH(C66,'WAR 3'!C:C,0),1,0)),0) +
+ IFERROR((IF(MATCH(C66,'WAR 4'!C:C,0),1,0)),0) +
+ IFERROR((IF(MATCH(C66,'WAR 5'!C:C,0),1,0)),0) +
+ IFERROR((IF(MATCH(C66,'WAR 6'!C:C,0),1,0)),0) +
+ IFERROR((IF(MATCH(C66,'WAR 7'!C:C,0),1,0)),0) +
+ IFERROR((IF(MATCH(C66,'WAR 8'!C:C,0),1,0)),0) +
+ IFERROR((IF(MATCH(C66,'WAR 9'!C:C,0),1,0)),0) +
+ IFERROR((IF(MATCH(C66,'WAR 10'!C:C,0),1,0)),0)
+) &amp; " " &amp;
+ IFERROR("(" &amp; (MATCH(C66,'WAR 1'!C:C,0)-1) &amp; " 1)", "") &amp;
+ IFERROR(" (" &amp; (MATCH(C66,'WAR 2'!C:C,0)-1) &amp; " 2)", "") &amp;
+ IFERROR(" (" &amp; (MATCH(C66,'WAR 3'!C:C,0)-1) &amp; " 3)", "") &amp;
+ IFERROR(" (" &amp; (MATCH(C66,'WAR 4'!C:C,0)-1) &amp; " 4)", "") &amp;
+ IFERROR(" (" &amp; (MATCH(C66,'WAR 5'!C:C,0)-1) &amp; " 5)", "") &amp;
+ IFERROR(" (" &amp; (MATCH(C66,'WAR 6'!C:C,0)-1) &amp; " 6)", "") &amp;
+ IFERROR(" (" &amp; (MATCH(C66,'WAR 7'!C:C,0)-1) &amp; " 7)", "") &amp;
+ IFERROR(" (" &amp; (MATCH(C66,'WAR 8'!C:C,0)-1) &amp; " 8)", "") &amp;
+ IFERROR(" (" &amp; (MATCH(C66,'WAR 9'!C:C,0)-1) &amp; " 9)", "") &amp;
+ IFERROR(" (" &amp; (MATCH(C66,'WAR 10'!C:C,0)-1) &amp; " 10)", "")</f>
+        <v>1  (10 10)</v>
       </c>
     </row>
   </sheetData>
@@ -15339,8 +16500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B1958B4-588D-494A-AE33-CCD44BE86AB9}">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15378,9 +16539,15 @@
       <c r="C2" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
+      <c r="D2" s="14">
+        <v>100</v>
+      </c>
+      <c r="E2" s="14">
+        <v>100</v>
+      </c>
+      <c r="F2" s="14">
+        <v>2</v>
+      </c>
       <c r="G2" s="14"/>
       <c r="H2" s="14"/>
     </row>
@@ -15394,9 +16561,15 @@
       <c r="C3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
+      <c r="D3" s="14">
+        <v>100</v>
+      </c>
+      <c r="E3" s="14">
+        <v>100</v>
+      </c>
+      <c r="F3" s="14">
+        <v>2</v>
+      </c>
       <c r="G3" s="14"/>
       <c r="H3" s="27" t="s">
         <v>161</v>
@@ -15412,11 +16585,19 @@
       <c r="C4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="14"/>
+      <c r="D4">
+        <v>100</v>
+      </c>
+      <c r="E4">
+        <v>100</v>
+      </c>
+      <c r="F4" s="14">
+        <v>2</v>
+      </c>
       <c r="G4" s="14"/>
       <c r="H4" s="30">
         <f>SUM(F2:F51)</f>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -15429,7 +16610,15 @@
       <c r="C5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="14"/>
+      <c r="D5">
+        <v>100</v>
+      </c>
+      <c r="E5">
+        <v>67</v>
+      </c>
+      <c r="F5" s="14">
+        <v>1</v>
+      </c>
       <c r="G5" s="14"/>
       <c r="H5" s="14"/>
     </row>
@@ -15443,9 +16632,15 @@
       <c r="C6" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
+      <c r="D6" s="14">
+        <v>98</v>
+      </c>
+      <c r="E6" s="14">
+        <v>100</v>
+      </c>
+      <c r="F6" s="14">
+        <v>1</v>
+      </c>
       <c r="G6" s="14"/>
       <c r="H6" s="27" t="s">
         <v>168</v>
@@ -15461,11 +16656,19 @@
       <c r="C7" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F7" s="14"/>
+      <c r="D7" s="14">
+        <v>99</v>
+      </c>
+      <c r="E7" s="14">
+        <v>92</v>
+      </c>
+      <c r="F7" s="14">
+        <v>0</v>
+      </c>
       <c r="G7" s="14"/>
       <c r="H7" s="25">
         <f>COUNTIF(D2:E51, 0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -15478,7 +16681,15 @@
       <c r="C8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="14"/>
+      <c r="D8" s="14">
+        <v>100</v>
+      </c>
+      <c r="E8" s="14">
+        <v>100</v>
+      </c>
+      <c r="F8" s="14">
+        <v>2</v>
+      </c>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
     </row>
@@ -15492,9 +16703,15 @@
       <c r="C9" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
+      <c r="D9" s="14">
+        <v>100</v>
+      </c>
+      <c r="E9" s="14">
+        <v>49</v>
+      </c>
+      <c r="F9" s="14">
+        <v>1</v>
+      </c>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
     </row>
@@ -15508,7 +16725,15 @@
       <c r="C10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="14"/>
+      <c r="D10" s="14">
+        <v>100</v>
+      </c>
+      <c r="E10" s="14">
+        <v>100</v>
+      </c>
+      <c r="F10" s="14">
+        <v>2</v>
+      </c>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
     </row>
@@ -15522,7 +16747,15 @@
       <c r="C11" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="F11" s="14"/>
+      <c r="D11" s="14">
+        <v>100</v>
+      </c>
+      <c r="E11" s="14">
+        <v>100</v>
+      </c>
+      <c r="F11" s="14">
+        <v>2</v>
+      </c>
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
     </row>
@@ -15536,9 +16769,15 @@
       <c r="C12" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
+      <c r="D12" s="14">
+        <v>100</v>
+      </c>
+      <c r="E12" s="14">
+        <v>100</v>
+      </c>
+      <c r="F12" s="14">
+        <v>2</v>
+      </c>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
     </row>
@@ -15552,9 +16791,15 @@
       <c r="C13" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
+      <c r="D13" s="14">
+        <v>90</v>
+      </c>
+      <c r="E13" s="14">
+        <v>63</v>
+      </c>
+      <c r="F13" s="14">
+        <v>0</v>
+      </c>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
     </row>
@@ -15568,9 +16813,15 @@
       <c r="C14" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
+      <c r="D14" s="14">
+        <v>100</v>
+      </c>
+      <c r="E14" s="14">
+        <v>99</v>
+      </c>
+      <c r="F14" s="14">
+        <v>1</v>
+      </c>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
     </row>
@@ -15584,9 +16835,15 @@
       <c r="C15" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
+      <c r="D15" s="14">
+        <v>0</v>
+      </c>
+      <c r="E15" s="14">
+        <v>10</v>
+      </c>
+      <c r="F15" s="14">
+        <v>0</v>
+      </c>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
     </row>
@@ -15600,9 +16857,15 @@
       <c r="C16" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
+      <c r="D16" s="14">
+        <v>100</v>
+      </c>
+      <c r="E16" s="14">
+        <v>100</v>
+      </c>
+      <c r="F16" s="14">
+        <v>0</v>
+      </c>
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
     </row>
@@ -15616,9 +16879,15 @@
       <c r="C17" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
+      <c r="D17" s="14">
+        <v>100</v>
+      </c>
+      <c r="E17" s="14">
+        <v>92</v>
+      </c>
+      <c r="F17" s="14">
+        <v>0</v>
+      </c>
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
     </row>
@@ -15632,9 +16901,15 @@
       <c r="C18" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
+      <c r="D18" s="14">
+        <v>98</v>
+      </c>
+      <c r="E18" s="14">
+        <v>100</v>
+      </c>
+      <c r="F18" s="14">
+        <v>1</v>
+      </c>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
     </row>
@@ -15648,7 +16923,15 @@
       <c r="C19" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="F19" s="14"/>
+      <c r="D19" s="14">
+        <v>82</v>
+      </c>
+      <c r="E19" s="14">
+        <v>100</v>
+      </c>
+      <c r="F19" s="14">
+        <v>1</v>
+      </c>
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
     </row>
@@ -15662,9 +16945,15 @@
       <c r="C20" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
+      <c r="D20" s="14">
+        <v>98</v>
+      </c>
+      <c r="E20" s="14">
+        <v>100</v>
+      </c>
+      <c r="F20" s="14">
+        <v>1</v>
+      </c>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
     </row>
@@ -15678,9 +16967,15 @@
       <c r="C21" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
+      <c r="D21" s="14">
+        <v>100</v>
+      </c>
+      <c r="E21" s="14">
+        <v>80</v>
+      </c>
+      <c r="F21" s="14">
+        <v>1</v>
+      </c>
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
     </row>
@@ -15694,9 +16989,15 @@
       <c r="C22" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
+      <c r="D22" s="14">
+        <v>100</v>
+      </c>
+      <c r="E22" s="14">
+        <v>100</v>
+      </c>
+      <c r="F22" s="14">
+        <v>2</v>
+      </c>
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
     </row>
@@ -15710,9 +17011,15 @@
       <c r="C23" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
+      <c r="D23" s="14">
+        <v>96</v>
+      </c>
+      <c r="E23" s="14">
+        <v>100</v>
+      </c>
+      <c r="F23" s="14">
+        <v>1</v>
+      </c>
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
     </row>
@@ -15726,7 +17033,15 @@
       <c r="C24" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="F24" s="14"/>
+      <c r="D24" s="14">
+        <v>13</v>
+      </c>
+      <c r="E24" s="14">
+        <v>13</v>
+      </c>
+      <c r="F24" s="14">
+        <v>0</v>
+      </c>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
     </row>
@@ -15740,9 +17055,15 @@
       <c r="C25" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
+      <c r="D25" s="14">
+        <v>81</v>
+      </c>
+      <c r="E25" s="14">
+        <v>12</v>
+      </c>
+      <c r="F25" s="14">
+        <v>0</v>
+      </c>
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
     </row>
@@ -15756,9 +17077,15 @@
       <c r="C26" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
+      <c r="D26" s="14">
+        <v>100</v>
+      </c>
+      <c r="E26" s="14">
+        <v>100</v>
+      </c>
+      <c r="F26" s="14">
+        <v>2</v>
+      </c>
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
     </row>
@@ -15772,9 +17099,15 @@
       <c r="C27" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
+      <c r="D27" s="14">
+        <v>100</v>
+      </c>
+      <c r="E27" s="14">
+        <v>100</v>
+      </c>
+      <c r="F27" s="14">
+        <v>2</v>
+      </c>
       <c r="G27" s="14"/>
       <c r="H27" s="14"/>
     </row>
@@ -15788,9 +17121,15 @@
       <c r="C28" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
+      <c r="D28" s="14">
+        <v>100</v>
+      </c>
+      <c r="E28" s="14">
+        <v>100</v>
+      </c>
+      <c r="F28" s="14">
+        <v>2</v>
+      </c>
       <c r="G28" s="14"/>
       <c r="H28" s="14"/>
     </row>
@@ -15804,9 +17143,15 @@
       <c r="C29" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
+      <c r="D29" s="14">
+        <v>100</v>
+      </c>
+      <c r="E29" s="14">
+        <v>98</v>
+      </c>
+      <c r="F29" s="14">
+        <v>1</v>
+      </c>
       <c r="G29" s="14"/>
       <c r="H29" s="14"/>
     </row>
@@ -15820,9 +17165,15 @@
       <c r="C30" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
+      <c r="D30" s="14">
+        <v>100</v>
+      </c>
+      <c r="E30" s="14">
+        <v>88</v>
+      </c>
+      <c r="F30" s="14">
+        <v>1</v>
+      </c>
       <c r="G30" s="14"/>
       <c r="H30" s="14"/>
     </row>
@@ -15836,9 +17187,15 @@
       <c r="C31" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
+      <c r="D31" s="14">
+        <v>86</v>
+      </c>
+      <c r="E31" s="14">
+        <v>24</v>
+      </c>
+      <c r="F31" s="14">
+        <v>0</v>
+      </c>
       <c r="G31" s="14"/>
       <c r="H31" s="14"/>
     </row>
@@ -15852,7 +17209,15 @@
       <c r="C32" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="F32" s="14"/>
+      <c r="D32" s="14">
+        <v>86</v>
+      </c>
+      <c r="E32" s="14">
+        <v>100</v>
+      </c>
+      <c r="F32" s="14">
+        <v>0</v>
+      </c>
       <c r="G32" s="14"/>
       <c r="H32" s="14"/>
     </row>
@@ -15866,9 +17231,15 @@
       <c r="C33" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
+      <c r="D33" s="14">
+        <v>100</v>
+      </c>
+      <c r="E33" s="14">
+        <v>100</v>
+      </c>
+      <c r="F33" s="14">
+        <v>2</v>
+      </c>
       <c r="G33" s="14"/>
       <c r="H33" s="14"/>
     </row>
@@ -15882,9 +17253,15 @@
       <c r="C34" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
+      <c r="D34" s="14">
+        <v>100</v>
+      </c>
+      <c r="E34" s="14">
+        <v>92</v>
+      </c>
+      <c r="F34" s="14">
+        <v>1</v>
+      </c>
       <c r="G34" s="14"/>
       <c r="H34" s="14"/>
     </row>
@@ -15898,9 +17275,15 @@
       <c r="C35" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
+      <c r="D35" s="14">
+        <v>88</v>
+      </c>
+      <c r="E35" s="14">
+        <v>93</v>
+      </c>
+      <c r="F35" s="14">
+        <v>0</v>
+      </c>
       <c r="G35" s="14"/>
       <c r="H35" s="14"/>
     </row>
@@ -15914,9 +17297,15 @@
       <c r="C36" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
+      <c r="D36" s="14">
+        <v>94</v>
+      </c>
+      <c r="E36" s="14">
+        <v>100</v>
+      </c>
+      <c r="F36" s="14">
+        <v>1</v>
+      </c>
       <c r="G36" s="14"/>
       <c r="H36" s="14"/>
     </row>
@@ -15930,9 +17319,15 @@
       <c r="C37" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
+      <c r="D37" s="14">
+        <v>100</v>
+      </c>
+      <c r="E37" s="14">
+        <v>100</v>
+      </c>
+      <c r="F37" s="14">
+        <v>2</v>
+      </c>
       <c r="G37" s="14"/>
       <c r="H37" s="14"/>
     </row>
@@ -15946,9 +17341,15 @@
       <c r="C38" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
+      <c r="D38" s="14">
+        <v>41</v>
+      </c>
+      <c r="E38" s="14">
+        <v>28</v>
+      </c>
+      <c r="F38" s="14">
+        <v>0</v>
+      </c>
       <c r="G38" s="14"/>
       <c r="H38" s="14"/>
     </row>
@@ -15962,9 +17363,15 @@
       <c r="C39" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
+      <c r="D39" s="14">
+        <v>41</v>
+      </c>
+      <c r="E39" s="14">
+        <v>86</v>
+      </c>
+      <c r="F39" s="14">
+        <v>0</v>
+      </c>
       <c r="G39" s="14"/>
       <c r="H39" s="14"/>
     </row>
@@ -15978,9 +17385,15 @@
       <c r="C40" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
+      <c r="D40" s="14">
+        <v>90</v>
+      </c>
+      <c r="E40" s="14">
+        <v>80</v>
+      </c>
+      <c r="F40" s="14">
+        <v>0</v>
+      </c>
       <c r="G40" s="14"/>
       <c r="H40" s="14"/>
     </row>
@@ -15994,9 +17407,15 @@
       <c r="C41" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
+      <c r="D41" s="14">
+        <v>100</v>
+      </c>
+      <c r="E41" s="14">
+        <v>98</v>
+      </c>
+      <c r="F41" s="14">
+        <v>1</v>
+      </c>
       <c r="G41" s="14"/>
       <c r="H41" s="14"/>
     </row>
@@ -16010,9 +17429,15 @@
       <c r="C42" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
+      <c r="D42" s="14">
+        <v>0</v>
+      </c>
+      <c r="E42" s="14">
+        <v>0</v>
+      </c>
+      <c r="F42" s="14">
+        <v>0</v>
+      </c>
       <c r="G42" s="14"/>
       <c r="H42" s="14"/>
     </row>
@@ -16026,9 +17451,15 @@
       <c r="C43" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
+      <c r="D43" s="14">
+        <v>89</v>
+      </c>
+      <c r="E43" s="14">
+        <v>72</v>
+      </c>
+      <c r="F43" s="14">
+        <v>0</v>
+      </c>
       <c r="G43" s="14"/>
       <c r="H43" s="14"/>
     </row>
@@ -16042,9 +17473,15 @@
       <c r="C44" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
+      <c r="D44" s="14">
+        <v>100</v>
+      </c>
+      <c r="E44" s="14">
+        <v>97</v>
+      </c>
+      <c r="F44" s="14">
+        <v>1</v>
+      </c>
       <c r="G44" s="14"/>
       <c r="H44" s="14"/>
     </row>
@@ -16058,9 +17495,15 @@
       <c r="C45" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
+      <c r="D45" s="14">
+        <v>100</v>
+      </c>
+      <c r="E45" s="14">
+        <v>100</v>
+      </c>
+      <c r="F45" s="14">
+        <v>2</v>
+      </c>
       <c r="G45" s="14"/>
       <c r="H45" s="14"/>
     </row>
@@ -16074,9 +17517,15 @@
       <c r="C46" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
+      <c r="D46" s="14">
+        <v>0</v>
+      </c>
+      <c r="E46" s="14">
+        <v>0</v>
+      </c>
+      <c r="F46" s="14">
+        <v>0</v>
+      </c>
       <c r="G46" s="14"/>
       <c r="H46" s="14"/>
     </row>
@@ -16090,7 +17539,15 @@
       <c r="C47" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F47" s="14"/>
+      <c r="D47" s="14">
+        <v>100</v>
+      </c>
+      <c r="E47" s="14">
+        <v>100</v>
+      </c>
+      <c r="F47" s="14">
+        <v>2</v>
+      </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="11">
@@ -16102,7 +17559,15 @@
       <c r="C48" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="F48" s="14"/>
+      <c r="D48" s="14">
+        <v>79</v>
+      </c>
+      <c r="E48" s="14">
+        <v>18</v>
+      </c>
+      <c r="F48" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="11">
@@ -16114,7 +17579,15 @@
       <c r="C49" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="F49" s="14"/>
+      <c r="D49" s="14">
+        <v>100</v>
+      </c>
+      <c r="E49" s="14">
+        <v>100</v>
+      </c>
+      <c r="F49" s="14">
+        <v>2</v>
+      </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="11">
@@ -16126,7 +17599,15 @@
       <c r="C50" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="F50" s="14"/>
+      <c r="D50" s="14">
+        <v>100</v>
+      </c>
+      <c r="E50" s="14">
+        <v>69</v>
+      </c>
+      <c r="F50" s="14">
+        <v>1</v>
+      </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="11">
@@ -16138,7 +17619,15 @@
       <c r="C51" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="F51" s="14"/>
+      <c r="D51" s="14">
+        <v>100</v>
+      </c>
+      <c r="E51" s="14">
+        <v>100</v>
+      </c>
+      <c r="F51" s="14">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Cards/OFWELITES2.xlsx
+++ b/Cards/OFWELITES2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\website\OFW Elites\Cards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26731E9B-975D-42F5-AE9F-1F7D67F9E1C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98847206-58A0-46DE-8795-6B9B22D74A1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{D063F3AD-9D9C-4914-A2D2-97CFBC4909E9}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="10" xr2:uid="{D063F3AD-9D9C-4914-A2D2-97CFBC4909E9}"/>
   </bookViews>
   <sheets>
     <sheet name="WAR 1" sheetId="2" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="175">
   <si>
     <t>OE ⚔️Meliodas⚔️</t>
   </si>
@@ -495,9 +495,6 @@
     <t>#2PUPJC9OP</t>
   </si>
   <si>
-    <t>WALL BREAKER2</t>
-  </si>
-  <si>
     <t>#GQ8COO2VG</t>
   </si>
   <si>
@@ -792,7 +789,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -890,6 +887,9 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2122,7 +2122,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>59</v>
@@ -2265,7 +2265,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F55" s="27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -2319,10 +2319,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D2" s="14"/>
       <c r="E2" s="14"/>
@@ -2345,7 +2345,7 @@
       <c r="F3" s="14"/>
       <c r="G3" s="14"/>
       <c r="H3" s="27" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -2394,7 +2394,7 @@
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
       <c r="H6" s="27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
@@ -2469,10 +2469,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
@@ -2485,10 +2485,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
@@ -2595,10 +2595,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C19" s="13" t="s">
         <v>153</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>154</v>
       </c>
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
@@ -2669,10 +2669,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="C24" s="13" t="s">
         <v>155</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>156</v>
       </c>
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
@@ -2909,10 +2909,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="C39" s="13" t="s">
         <v>165</v>
-      </c>
-      <c r="C39" s="13" t="s">
-        <v>166</v>
       </c>
       <c r="D39" s="14"/>
       <c r="E39" s="14"/>
@@ -2989,10 +2989,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C44" s="13" t="s">
         <v>158</v>
-      </c>
-      <c r="C44" s="13" t="s">
-        <v>159</v>
       </c>
       <c r="D44" s="14"/>
       <c r="E44" s="14"/>
@@ -3112,8 +3112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834C190B-3725-4BAE-B656-197A1D13BE52}">
   <dimension ref="A1:J66"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3145,7 +3145,7 @@
         <v>122</v>
       </c>
       <c r="H1" s="36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -5078,7 +5078,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C23" s="13" t="s">
         <v>97</v>
@@ -6045,10 +6045,10 @@
 IFERROR(VLOOKUP(C33,'WAR 10'!C:F,4,FALSE),0)</f>
         <v>12</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G33" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="H33" s="1" t="str">
+      <c r="H33" s="37" t="str">
         <f>(
  IFERROR((IF(MATCH(C33,'WAR 1'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C33,'WAR 2'!C:C,0),1,0)),0) +
@@ -6136,10 +6136,10 @@
 IFERROR(VLOOKUP(C34,'WAR 10'!C:F,4,FALSE),0)</f>
         <v>2</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G34" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="H34" s="1" t="str">
+      <c r="H34" s="13" t="str">
         <f>(
  IFERROR((IF(MATCH(C34,'WAR 1'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C34,'WAR 2'!C:C,0),1,0)),0) +
@@ -6227,10 +6227,10 @@
 IFERROR(VLOOKUP(C35,'WAR 10'!C:F,4,FALSE),0)</f>
         <v>14</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G35" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="H35" s="1" t="str">
+      <c r="H35" s="13" t="str">
         <f>(
  IFERROR((IF(MATCH(C35,'WAR 1'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C35,'WAR 2'!C:C,0),1,0)),0) +
@@ -6318,10 +6318,10 @@
 IFERROR(VLOOKUP(C36,'WAR 10'!C:F,4,FALSE),0)</f>
         <v>1</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G36" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="H36" s="1" t="str">
+      <c r="H36" s="13" t="str">
         <f>(
  IFERROR((IF(MATCH(C36,'WAR 1'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C36,'WAR 2'!C:C,0),1,0)),0) +
@@ -6409,10 +6409,10 @@
 IFERROR(VLOOKUP(C37,'WAR 10'!C:F,4,FALSE),0)</f>
         <v>6</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G37" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="H37" s="1" t="str">
+      <c r="H37" s="13" t="str">
         <f>(
  IFERROR((IF(MATCH(C37,'WAR 1'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C37,'WAR 2'!C:C,0),1,0)),0) +
@@ -6500,10 +6500,10 @@
 IFERROR(VLOOKUP(C38,'WAR 10'!C:F,4,FALSE),0)</f>
         <v>2</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G38" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="H38" s="1" t="str">
+      <c r="H38" s="13" t="str">
         <f>(
  IFERROR((IF(MATCH(C38,'WAR 1'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C38,'WAR 2'!C:C,0),1,0)),0) +
@@ -6591,10 +6591,10 @@
 IFERROR(VLOOKUP(C39,'WAR 10'!C:F,4,FALSE),0)</f>
         <v>11</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G39" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="H39" s="1" t="str">
+      <c r="H39" s="13" t="str">
         <f>(
  IFERROR((IF(MATCH(C39,'WAR 1'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C39,'WAR 2'!C:C,0),1,0)),0) +
@@ -6682,10 +6682,10 @@
 IFERROR(VLOOKUP(C40,'WAR 10'!C:F,4,FALSE),0)</f>
         <v>3</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G40" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="H40" s="1" t="str">
+      <c r="H40" s="13" t="str">
         <f>(
  IFERROR((IF(MATCH(C40,'WAR 1'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C40,'WAR 2'!C:C,0),1,0)),0) +
@@ -6773,10 +6773,10 @@
 IFERROR(VLOOKUP(C41,'WAR 10'!C:F,4,FALSE),0)</f>
         <v>9</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G41" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="H41" s="1" t="str">
+      <c r="H41" s="13" t="str">
         <f>(
  IFERROR((IF(MATCH(C41,'WAR 1'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C41,'WAR 2'!C:C,0),1,0)),0) +
@@ -6864,10 +6864,10 @@
 IFERROR(VLOOKUP(C42,'WAR 10'!C:F,4,FALSE),0)</f>
         <v>1</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G42" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="H42" s="1" t="str">
+      <c r="H42" s="13" t="str">
         <f>(
  IFERROR((IF(MATCH(C42,'WAR 1'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C42,'WAR 2'!C:C,0),1,0)),0) +
@@ -6955,10 +6955,10 @@
 IFERROR(VLOOKUP(C43,'WAR 10'!C:F,4,FALSE),0)</f>
         <v>2</v>
       </c>
-      <c r="G43" t="s">
+      <c r="G43" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="H43" s="1" t="str">
+      <c r="H43" s="13" t="str">
         <f>(
  IFERROR((IF(MATCH(C43,'WAR 1'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C43,'WAR 2'!C:C,0),1,0)),0) +
@@ -6989,7 +6989,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C44" s="13" t="s">
         <v>96</v>
@@ -7046,10 +7046,10 @@
 IFERROR(VLOOKUP(C44,'WAR 10'!C:F,4,FALSE),0)</f>
         <v>3</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G44" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="H44" s="1" t="str">
+      <c r="H44" s="13" t="str">
         <f>(
  IFERROR((IF(MATCH(C44,'WAR 1'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C44,'WAR 2'!C:C,0),1,0)),0) +
@@ -7080,7 +7080,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C45" s="13" t="s">
         <v>59</v>
@@ -7137,10 +7137,10 @@
 IFERROR(VLOOKUP(C45,'WAR 10'!C:F,4,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="G45" t="s">
+      <c r="G45" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="H45" s="1" t="str">
+      <c r="H45" s="13" t="str">
         <f>(
  IFERROR((IF(MATCH(C45,'WAR 1'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C45,'WAR 2'!C:C,0),1,0)),0) +
@@ -7228,10 +7228,10 @@
 IFERROR(VLOOKUP(C46,'WAR 10'!C:F,4,FALSE),0)</f>
         <v>10</v>
       </c>
-      <c r="G46" t="s">
+      <c r="G46" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="H46" s="1" t="str">
+      <c r="H46" s="13" t="str">
         <f>(
  IFERROR((IF(MATCH(C46,'WAR 1'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C46,'WAR 2'!C:C,0),1,0)),0) +
@@ -7319,10 +7319,10 @@
 IFERROR(VLOOKUP(C47,'WAR 10'!C:F,4,FALSE),0)</f>
         <v>14</v>
       </c>
-      <c r="G47" t="s">
+      <c r="G47" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="H47" s="1" t="str">
+      <c r="H47" s="13" t="str">
         <f>(
  IFERROR((IF(MATCH(C47,'WAR 1'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C47,'WAR 2'!C:C,0),1,0)),0) +
@@ -7410,10 +7410,10 @@
 IFERROR(VLOOKUP(C48,'WAR 10'!C:F,4,FALSE),0)</f>
         <v>7</v>
       </c>
-      <c r="G48" t="s">
+      <c r="G48" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="H48" s="1" t="str">
+      <c r="H48" s="13" t="str">
         <f>(
  IFERROR((IF(MATCH(C48,'WAR 1'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C48,'WAR 2'!C:C,0),1,0)),0) +
@@ -7683,10 +7683,10 @@
 IFERROR(VLOOKUP(C51,'WAR 10'!C:F,4,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="G51" t="s">
+      <c r="G51" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="H51" s="1" t="str">
+      <c r="H51" s="13" t="str">
         <f>(
  IFERROR((IF(MATCH(C51,'WAR 1'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C51,'WAR 2'!C:C,0),1,0)),0) +
@@ -7774,10 +7774,10 @@
 IFERROR(VLOOKUP(C52,'WAR 10'!C:F,4,FALSE),0)</f>
         <v>5</v>
       </c>
-      <c r="G52" t="s">
+      <c r="G52" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="H52" s="1" t="str">
+      <c r="H52" s="13" t="str">
         <f>(
  IFERROR((IF(MATCH(C52,'WAR 1'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C52,'WAR 2'!C:C,0),1,0)),0) +
@@ -7865,10 +7865,10 @@
 IFERROR(VLOOKUP(C53,'WAR 10'!C:F,4,FALSE),0)</f>
         <v>12</v>
       </c>
-      <c r="G53" t="s">
+      <c r="G53" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="H53" s="1" t="str">
+      <c r="H53" s="13" t="str">
         <f>(
  IFERROR((IF(MATCH(C53,'WAR 1'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C53,'WAR 2'!C:C,0),1,0)),0) +
@@ -7956,10 +7956,10 @@
 IFERROR(VLOOKUP(C54,'WAR 10'!C:F,4,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="G54" t="s">
-        <v>149</v>
-      </c>
-      <c r="H54" s="1" t="str">
+      <c r="G54" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="H54" s="13" t="str">
         <f>(
  IFERROR((IF(MATCH(C54,'WAR 1'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C54,'WAR 2'!C:C,0),1,0)),0) +
@@ -7990,7 +7990,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C55" s="13" t="s">
         <v>103</v>
@@ -8047,10 +8047,10 @@
 IFERROR(VLOOKUP(C55,'WAR 10'!C:F,4,FALSE),0)</f>
         <v>10</v>
       </c>
-      <c r="G55" t="s">
+      <c r="G55" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="H55" s="1" t="str">
+      <c r="H55" s="13" t="str">
         <f>(
  IFERROR((IF(MATCH(C55,'WAR 1'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C55,'WAR 2'!C:C,0),1,0)),0) +
@@ -8138,10 +8138,10 @@
 IFERROR(VLOOKUP(C56,'WAR 10'!C:F,4,FALSE),0)</f>
         <v>10</v>
       </c>
-      <c r="G56" t="s">
+      <c r="G56" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="H56" s="1" t="str">
+      <c r="H56" s="13" t="str">
         <f>(
  IFERROR((IF(MATCH(C56,'WAR 1'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C56,'WAR 2'!C:C,0),1,0)),0) +
@@ -8175,7 +8175,7 @@
         <v>37</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D57" s="20">
         <f>ROUND(
@@ -8229,10 +8229,10 @@
 IFERROR(VLOOKUP(C57,'WAR 10'!C:F,4,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="G57" t="s">
-        <v>151</v>
-      </c>
-      <c r="H57" s="1" t="str">
+      <c r="G57" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="H57" s="13" t="str">
         <f>(
  IFERROR((IF(MATCH(C57,'WAR 1'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C57,'WAR 2'!C:C,0),1,0)),0) +
@@ -8320,10 +8320,10 @@
 IFERROR(VLOOKUP(C58,'WAR 10'!C:F,4,FALSE),0)</f>
         <v>5</v>
       </c>
-      <c r="G58" t="s">
+      <c r="G58" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="H58" s="1" t="str">
+      <c r="H58" s="13" t="str">
         <f>(
  IFERROR((IF(MATCH(C58,'WAR 1'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C58,'WAR 2'!C:C,0),1,0)),0) +
@@ -8445,10 +8445,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C60" s="24" t="s">
         <v>153</v>
-      </c>
-      <c r="C60" s="24" t="s">
-        <v>154</v>
       </c>
       <c r="D60" s="20">
         <f>ROUND(
@@ -8502,10 +8502,10 @@
 IFERROR(VLOOKUP(C60,'WAR 10'!C:F,4,FALSE),0)</f>
         <v>7</v>
       </c>
-      <c r="G60" t="s">
+      <c r="G60" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="H60" s="1" t="str">
+      <c r="H60" s="13" t="str">
         <f>(
  IFERROR((IF(MATCH(C60,'WAR 1'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C60,'WAR 2'!C:C,0),1,0)),0) +
@@ -8536,10 +8536,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C61" s="24" t="s">
         <v>155</v>
-      </c>
-      <c r="C61" s="24" t="s">
-        <v>156</v>
       </c>
       <c r="D61" s="20">
         <f>ROUND(
@@ -8593,10 +8593,10 @@
 IFERROR(VLOOKUP(C61,'WAR 10'!C:F,4,FALSE),0)</f>
         <v>9</v>
       </c>
-      <c r="G61" t="s">
-        <v>157</v>
-      </c>
-      <c r="H61" s="1" t="str">
+      <c r="G61" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="H61" s="13" t="str">
         <f>(
  IFERROR((IF(MATCH(C61,'WAR 1'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C61,'WAR 2'!C:C,0),1,0)),0) +
@@ -8627,10 +8627,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C62" s="24" t="s">
         <v>158</v>
-      </c>
-      <c r="C62" s="24" t="s">
-        <v>159</v>
       </c>
       <c r="D62" s="20">
         <f>ROUND(
@@ -8684,10 +8684,10 @@
 IFERROR(VLOOKUP(C62,'WAR 10'!C:F,4,FALSE),0)</f>
         <v>6</v>
       </c>
-      <c r="G62" t="s">
-        <v>160</v>
-      </c>
-      <c r="H62" s="1" t="str">
+      <c r="G62" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="H62" s="13" t="str">
         <f>(
  IFERROR((IF(MATCH(C62,'WAR 1'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C62,'WAR 2'!C:C,0),1,0)),0) +
@@ -8718,10 +8718,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="28" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D63" s="20">
         <f>ROUND(
@@ -8775,10 +8775,10 @@
 IFERROR(VLOOKUP(C63,'WAR 10'!C:F,4,FALSE),0)</f>
         <v>8</v>
       </c>
-      <c r="G63" t="s">
-        <v>164</v>
-      </c>
-      <c r="H63" s="1" t="str">
+      <c r="G63" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="H63" s="13" t="str">
         <f>(
  IFERROR((IF(MATCH(C63,'WAR 1'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C63,'WAR 2'!C:C,0),1,0)),0) +
@@ -8809,10 +8809,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>166</v>
       </c>
       <c r="D64" s="20">
         <f>ROUND(
@@ -8866,10 +8866,10 @@
 IFERROR(VLOOKUP(C64,'WAR 10'!C:F,4,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="G64" t="s">
+      <c r="G64" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="H64" s="1" t="str">
+      <c r="H64" s="13" t="str">
         <f>(
  IFERROR((IF(MATCH(C64,'WAR 1'!C:C,0),1,0)),0) +
  IFERROR((IF(MATCH(C64,'WAR 2'!C:C,0),1,0)),0) +
@@ -8900,10 +8900,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C65" s="24" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D65" s="20">
         <f>ROUND(
@@ -8991,10 +8991,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C66" s="24" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D66" s="20">
         <f>ROUND(
@@ -10125,7 +10125,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F54" s="27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -10256,7 +10256,7 @@
         <v>2</v>
       </c>
       <c r="H5" s="27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -11171,7 +11171,7 @@
         <v>114</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D51" s="1">
         <v>0</v>
@@ -11260,7 +11260,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="31" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
@@ -11327,7 +11327,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -12248,7 +12248,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
@@ -12315,7 +12315,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -12567,10 +12567,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C19" s="24" t="s">
         <v>153</v>
-      </c>
-      <c r="C19" s="24" t="s">
-        <v>154</v>
       </c>
       <c r="D19">
         <v>100</v>
@@ -12627,10 +12627,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C22" s="24" t="s">
         <v>155</v>
-      </c>
-      <c r="C22" s="24" t="s">
-        <v>156</v>
       </c>
       <c r="D22">
         <v>100</v>
@@ -13047,10 +13047,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C43" s="24" t="s">
         <v>158</v>
-      </c>
-      <c r="C43" s="24" t="s">
-        <v>159</v>
       </c>
       <c r="D43">
         <v>100</v>
@@ -13301,7 +13301,7 @@
         <v>2</v>
       </c>
       <c r="H3" s="26" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
@@ -13368,7 +13368,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -13460,10 +13460,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D11">
         <v>100</v>
@@ -13620,10 +13620,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C19" s="13" t="s">
         <v>153</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>154</v>
       </c>
       <c r="D19">
         <v>100</v>
@@ -13700,10 +13700,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="C23" s="13" t="s">
         <v>155</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>156</v>
       </c>
       <c r="D23">
         <v>100</v>
@@ -14120,10 +14120,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C44" s="13" t="s">
         <v>158</v>
-      </c>
-      <c r="C44" s="13" t="s">
-        <v>159</v>
       </c>
       <c r="D44">
         <v>100</v>
@@ -14355,7 +14355,7 @@
       </c>
       <c r="G3" s="14"/>
       <c r="H3" s="27" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -14426,7 +14426,7 @@
       </c>
       <c r="G6" s="14"/>
       <c r="H6" s="27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -14525,10 +14525,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D11" s="14">
         <v>100</v>
@@ -14679,10 +14679,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C18" s="13" t="s">
         <v>153</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>154</v>
       </c>
       <c r="D18" s="14">
         <v>100</v>
@@ -14767,10 +14767,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="C22" s="13" t="s">
         <v>155</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>156</v>
       </c>
       <c r="D22" s="14">
         <v>100</v>
@@ -15185,10 +15185,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C41" s="13" t="s">
         <v>158</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>159</v>
       </c>
       <c r="D41" s="14">
         <v>0</v>
@@ -15434,7 +15434,7 @@
       </c>
       <c r="G3" s="14"/>
       <c r="H3" s="27" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -15505,7 +15505,7 @@
       </c>
       <c r="G6" s="14"/>
       <c r="H6" s="27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
@@ -15604,10 +15604,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D11" s="14">
         <v>100</v>
@@ -15780,10 +15780,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C19" s="13" t="s">
         <v>153</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>154</v>
       </c>
       <c r="D19">
         <v>100</v>
@@ -15846,10 +15846,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="C22" s="13" t="s">
         <v>155</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>156</v>
       </c>
       <c r="D22" s="14">
         <v>100</v>
@@ -16220,10 +16220,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>166</v>
       </c>
       <c r="D39" s="14">
         <v>92</v>
@@ -16308,10 +16308,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C43" s="13" t="s">
         <v>158</v>
-      </c>
-      <c r="C43" s="13" t="s">
-        <v>159</v>
       </c>
       <c r="D43" s="14">
         <v>100</v>
@@ -16500,8 +16500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B1958B4-588D-494A-AE33-CCD44BE86AB9}">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H51"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16534,10 +16534,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D2" s="14">
         <v>100</v>
@@ -16572,7 +16572,7 @@
       </c>
       <c r="G3" s="14"/>
       <c r="H3" s="27" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -16643,7 +16643,7 @@
       </c>
       <c r="G6" s="14"/>
       <c r="H6" s="27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
@@ -16742,10 +16742,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D11" s="14">
         <v>100</v>
@@ -16918,10 +16918,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C19" s="13" t="s">
         <v>153</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>154</v>
       </c>
       <c r="D19" s="14">
         <v>82</v>
@@ -16984,10 +16984,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="C22" s="13" t="s">
         <v>155</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>156</v>
       </c>
       <c r="D22" s="14">
         <v>100</v>
@@ -17358,10 +17358,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="C39" s="13" t="s">
         <v>165</v>
-      </c>
-      <c r="C39" s="13" t="s">
-        <v>166</v>
       </c>
       <c r="D39" s="14">
         <v>41</v>
@@ -17468,10 +17468,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C44" s="13" t="s">
         <v>158</v>
-      </c>
-      <c r="C44" s="13" t="s">
-        <v>159</v>
       </c>
       <c r="D44" s="14">
         <v>100</v>

--- a/Cards/OFWELITES2.xlsx
+++ b/Cards/OFWELITES2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\website\OFW Elites\Cards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98847206-58A0-46DE-8795-6B9B22D74A1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E7C5DC-DFC9-4F0E-9FA9-B01C06A367B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="10" xr2:uid="{D063F3AD-9D9C-4914-A2D2-97CFBC4909E9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="5" activeTab="10" xr2:uid="{D063F3AD-9D9C-4914-A2D2-97CFBC4909E9}"/>
   </bookViews>
   <sheets>
     <sheet name="WAR 1" sheetId="2" r:id="rId1"/>
@@ -2283,8 +2283,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{170D9E5E-2166-4C64-86AE-5F552B8DA9B7}">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2324,9 +2324,15 @@
       <c r="C2" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
+      <c r="D2" s="14">
+        <v>99</v>
+      </c>
+      <c r="E2" s="14">
+        <v>99</v>
+      </c>
+      <c r="F2" s="14">
+        <v>0</v>
+      </c>
       <c r="G2" s="14"/>
       <c r="H2" s="14"/>
     </row>
@@ -2340,9 +2346,15 @@
       <c r="C3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
+      <c r="D3" s="14">
+        <v>100</v>
+      </c>
+      <c r="E3" s="14">
+        <v>100</v>
+      </c>
+      <c r="F3" s="14">
+        <v>2</v>
+      </c>
       <c r="G3" s="14"/>
       <c r="H3" s="27" t="s">
         <v>160</v>
@@ -2358,11 +2370,19 @@
       <c r="C4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="14"/>
+      <c r="D4">
+        <v>100</v>
+      </c>
+      <c r="E4">
+        <v>100</v>
+      </c>
+      <c r="F4" s="14">
+        <v>2</v>
+      </c>
       <c r="G4" s="14"/>
       <c r="H4" s="30">
         <f>SUM(F2:F51)</f>
-        <v>0</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -2375,7 +2395,15 @@
       <c r="C5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="14"/>
+      <c r="D5">
+        <v>83</v>
+      </c>
+      <c r="E5">
+        <v>75</v>
+      </c>
+      <c r="F5" s="14">
+        <v>0</v>
+      </c>
       <c r="G5" s="14"/>
       <c r="H5" s="14"/>
     </row>
@@ -2389,9 +2417,15 @@
       <c r="C6" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
+      <c r="D6" s="14">
+        <v>100</v>
+      </c>
+      <c r="E6" s="14">
+        <v>100</v>
+      </c>
+      <c r="F6" s="14">
+        <v>2</v>
+      </c>
       <c r="G6" s="14"/>
       <c r="H6" s="27" t="s">
         <v>167</v>
@@ -2407,7 +2441,9 @@
       <c r="C7" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D7" s="14"/>
+      <c r="D7" s="14">
+        <v>87</v>
+      </c>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
@@ -2426,9 +2462,15 @@
       <c r="C8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
+      <c r="D8" s="14">
+        <v>59</v>
+      </c>
+      <c r="E8" s="14">
+        <v>74</v>
+      </c>
+      <c r="F8" s="14">
+        <v>0</v>
+      </c>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
     </row>
@@ -2442,9 +2484,15 @@
       <c r="C9" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
+      <c r="D9" s="14">
+        <v>42</v>
+      </c>
+      <c r="E9" s="14">
+        <v>63</v>
+      </c>
+      <c r="F9" s="14">
+        <v>0</v>
+      </c>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
     </row>
@@ -2458,9 +2506,15 @@
       <c r="C10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
+      <c r="D10" s="14">
+        <v>88</v>
+      </c>
+      <c r="E10" s="14">
+        <v>88</v>
+      </c>
+      <c r="F10" s="14">
+        <v>0</v>
+      </c>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
     </row>
@@ -2474,9 +2528,15 @@
       <c r="C11" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
+      <c r="D11" s="14">
+        <v>100</v>
+      </c>
+      <c r="E11" s="14">
+        <v>100</v>
+      </c>
+      <c r="F11" s="14">
+        <v>2</v>
+      </c>
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
     </row>
@@ -2490,9 +2550,15 @@
       <c r="C12" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
+      <c r="D12" s="14">
+        <v>100</v>
+      </c>
+      <c r="E12" s="14">
+        <v>100</v>
+      </c>
+      <c r="F12" s="14">
+        <v>2</v>
+      </c>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
     </row>
@@ -2506,9 +2572,15 @@
       <c r="C13" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
+      <c r="D13" s="14">
+        <v>100</v>
+      </c>
+      <c r="E13" s="14">
+        <v>100</v>
+      </c>
+      <c r="F13" s="14">
+        <v>2</v>
+      </c>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
     </row>
@@ -2522,9 +2594,15 @@
       <c r="C14" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
+      <c r="D14" s="14">
+        <v>100</v>
+      </c>
+      <c r="E14" s="14">
+        <v>90</v>
+      </c>
+      <c r="F14" s="14">
+        <v>1</v>
+      </c>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
     </row>
@@ -2538,7 +2616,15 @@
       <c r="C15" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F15" s="14"/>
+      <c r="D15" s="14">
+        <v>82</v>
+      </c>
+      <c r="E15" s="14">
+        <v>79</v>
+      </c>
+      <c r="F15" s="14">
+        <v>0</v>
+      </c>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
     </row>
@@ -2552,9 +2638,15 @@
       <c r="C16" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
+      <c r="D16" s="14">
+        <v>66</v>
+      </c>
+      <c r="E16" s="14">
+        <v>73</v>
+      </c>
+      <c r="F16" s="14">
+        <v>0</v>
+      </c>
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
     </row>
@@ -2568,9 +2660,15 @@
       <c r="C17" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
+      <c r="D17" s="14">
+        <v>42</v>
+      </c>
+      <c r="E17" s="14">
+        <v>100</v>
+      </c>
+      <c r="F17" s="14">
+        <v>1</v>
+      </c>
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
     </row>
@@ -2584,9 +2682,15 @@
       <c r="C18" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
+      <c r="D18" s="14">
+        <v>100</v>
+      </c>
+      <c r="E18" s="14">
+        <v>99</v>
+      </c>
+      <c r="F18" s="14">
+        <v>1</v>
+      </c>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
     </row>
@@ -2600,9 +2704,15 @@
       <c r="C19" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
+      <c r="D19" s="14">
+        <v>96</v>
+      </c>
+      <c r="E19" s="14">
+        <v>100</v>
+      </c>
+      <c r="F19" s="14">
+        <v>1</v>
+      </c>
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
     </row>
@@ -2616,7 +2726,15 @@
       <c r="C20" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F20" s="14"/>
+      <c r="D20" s="14">
+        <v>92</v>
+      </c>
+      <c r="E20" s="14">
+        <v>100</v>
+      </c>
+      <c r="F20" s="14">
+        <v>1</v>
+      </c>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
     </row>
@@ -2630,9 +2748,15 @@
       <c r="C21" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
+      <c r="D21" s="14">
+        <v>100</v>
+      </c>
+      <c r="E21" s="14">
+        <v>65</v>
+      </c>
+      <c r="F21" s="14">
+        <v>1</v>
+      </c>
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
     </row>
@@ -2646,7 +2770,15 @@
       <c r="C22" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="14"/>
+      <c r="D22" s="14">
+        <v>100</v>
+      </c>
+      <c r="E22" s="14">
+        <v>100</v>
+      </c>
+      <c r="F22" s="14">
+        <v>2</v>
+      </c>
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
     </row>
@@ -2660,7 +2792,15 @@
       <c r="C23" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="F23" s="14"/>
+      <c r="D23" s="14">
+        <v>87</v>
+      </c>
+      <c r="E23" s="14">
+        <v>100</v>
+      </c>
+      <c r="F23" s="14">
+        <v>1</v>
+      </c>
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
     </row>
@@ -2674,9 +2814,15 @@
       <c r="C24" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
+      <c r="D24" s="14">
+        <v>55</v>
+      </c>
+      <c r="E24" s="14">
+        <v>100</v>
+      </c>
+      <c r="F24" s="14">
+        <v>1</v>
+      </c>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
     </row>
@@ -2690,9 +2836,15 @@
       <c r="C25" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
+      <c r="D25" s="14">
+        <v>100</v>
+      </c>
+      <c r="E25" s="14">
+        <v>86</v>
+      </c>
+      <c r="F25" s="14">
+        <v>1</v>
+      </c>
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
     </row>
@@ -2706,9 +2858,15 @@
       <c r="C26" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
+      <c r="D26" s="14">
+        <v>87</v>
+      </c>
+      <c r="E26" s="14">
+        <v>78</v>
+      </c>
+      <c r="F26" s="14">
+        <v>0</v>
+      </c>
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
     </row>
@@ -2722,9 +2880,15 @@
       <c r="C27" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
+      <c r="D27" s="14">
+        <v>100</v>
+      </c>
+      <c r="E27" s="14">
+        <v>100</v>
+      </c>
+      <c r="F27" s="14">
+        <v>2</v>
+      </c>
       <c r="G27" s="14"/>
       <c r="H27" s="14"/>
     </row>
@@ -2738,9 +2902,15 @@
       <c r="C28" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
+      <c r="D28" s="14">
+        <v>94</v>
+      </c>
+      <c r="E28" s="14">
+        <v>97</v>
+      </c>
+      <c r="F28" s="14">
+        <v>0</v>
+      </c>
       <c r="G28" s="14"/>
       <c r="H28" s="14"/>
     </row>
@@ -2754,9 +2924,15 @@
       <c r="C29" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
+      <c r="D29" s="14">
+        <v>62</v>
+      </c>
+      <c r="E29" s="14">
+        <v>68</v>
+      </c>
+      <c r="F29" s="14">
+        <v>0</v>
+      </c>
       <c r="G29" s="14"/>
       <c r="H29" s="14"/>
     </row>
@@ -2770,9 +2946,13 @@
       <c r="C30" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D30" s="14"/>
+      <c r="D30" s="14">
+        <v>100</v>
+      </c>
       <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
+      <c r="F30" s="14">
+        <v>1</v>
+      </c>
       <c r="G30" s="14"/>
       <c r="H30" s="14"/>
     </row>
@@ -2786,9 +2966,15 @@
       <c r="C31" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
+      <c r="D31" s="14">
+        <v>75</v>
+      </c>
+      <c r="E31" s="14">
+        <v>100</v>
+      </c>
+      <c r="F31" s="14">
+        <v>1</v>
+      </c>
       <c r="G31" s="14"/>
       <c r="H31" s="14"/>
     </row>
@@ -2802,9 +2988,15 @@
       <c r="C32" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
+      <c r="D32" s="14">
+        <v>100</v>
+      </c>
+      <c r="E32" s="14">
+        <v>81</v>
+      </c>
+      <c r="F32" s="14">
+        <v>1</v>
+      </c>
       <c r="G32" s="14"/>
       <c r="H32" s="14"/>
     </row>
@@ -2818,9 +3010,15 @@
       <c r="C33" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
+      <c r="D33" s="14">
+        <v>100</v>
+      </c>
+      <c r="E33" s="14">
+        <v>100</v>
+      </c>
+      <c r="F33" s="14">
+        <v>2</v>
+      </c>
       <c r="G33" s="14"/>
       <c r="H33" s="14"/>
     </row>
@@ -2834,9 +3032,15 @@
       <c r="C34" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
+      <c r="D34" s="14">
+        <v>100</v>
+      </c>
+      <c r="E34" s="14">
+        <v>100</v>
+      </c>
+      <c r="F34" s="14">
+        <v>2</v>
+      </c>
       <c r="G34" s="14"/>
       <c r="H34" s="14"/>
     </row>
@@ -2850,9 +3054,15 @@
       <c r="C35" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
+      <c r="D35" s="14">
+        <v>78</v>
+      </c>
+      <c r="E35" s="14">
+        <v>93</v>
+      </c>
+      <c r="F35" s="14">
+        <v>0</v>
+      </c>
       <c r="G35" s="14"/>
       <c r="H35" s="14"/>
     </row>
@@ -2866,9 +3076,15 @@
       <c r="C36" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
+      <c r="D36" s="14">
+        <v>70</v>
+      </c>
+      <c r="E36" s="14">
+        <v>100</v>
+      </c>
+      <c r="F36" s="14">
+        <v>1</v>
+      </c>
       <c r="G36" s="14"/>
       <c r="H36" s="14"/>
     </row>
@@ -2882,9 +3098,15 @@
       <c r="C37" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
+      <c r="D37" s="14">
+        <v>100</v>
+      </c>
+      <c r="E37" s="14">
+        <v>100</v>
+      </c>
+      <c r="F37" s="14">
+        <v>2</v>
+      </c>
       <c r="G37" s="14"/>
       <c r="H37" s="14"/>
     </row>
@@ -2898,9 +3120,15 @@
       <c r="C38" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
+      <c r="D38" s="14">
+        <v>71</v>
+      </c>
+      <c r="E38" s="14">
+        <v>81</v>
+      </c>
+      <c r="F38" s="14">
+        <v>0</v>
+      </c>
       <c r="G38" s="14"/>
       <c r="H38" s="14"/>
     </row>
@@ -2914,9 +3142,15 @@
       <c r="C39" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
+      <c r="D39" s="14">
+        <v>100</v>
+      </c>
+      <c r="E39" s="14">
+        <v>60</v>
+      </c>
+      <c r="F39" s="14">
+        <v>1</v>
+      </c>
       <c r="G39" s="14"/>
       <c r="H39" s="14"/>
     </row>
@@ -2930,9 +3164,15 @@
       <c r="C40" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
+      <c r="D40" s="14">
+        <v>76</v>
+      </c>
+      <c r="E40" s="14">
+        <v>85</v>
+      </c>
+      <c r="F40" s="14">
+        <v>0</v>
+      </c>
       <c r="G40" s="14"/>
       <c r="H40" s="14"/>
     </row>
@@ -2946,9 +3186,15 @@
       <c r="C41" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
+      <c r="D41" s="14">
+        <v>57</v>
+      </c>
+      <c r="E41" s="14">
+        <v>100</v>
+      </c>
+      <c r="F41" s="14">
+        <v>1</v>
+      </c>
       <c r="G41" s="14"/>
       <c r="H41" s="14"/>
     </row>
@@ -2962,9 +3208,15 @@
       <c r="C42" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
+      <c r="D42" s="14">
+        <v>80</v>
+      </c>
+      <c r="E42" s="14">
+        <v>89</v>
+      </c>
+      <c r="F42" s="14">
+        <v>0</v>
+      </c>
       <c r="G42" s="14"/>
       <c r="H42" s="14"/>
     </row>
@@ -2994,7 +3246,9 @@
       <c r="C44" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="D44" s="14"/>
+      <c r="D44" s="14">
+        <v>89</v>
+      </c>
       <c r="E44" s="14"/>
       <c r="F44" s="14"/>
       <c r="G44" s="14"/>
@@ -3010,9 +3264,15 @@
       <c r="C45" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
+      <c r="D45" s="14">
+        <v>79</v>
+      </c>
+      <c r="E45" s="14">
+        <v>90</v>
+      </c>
+      <c r="F45" s="14">
+        <v>0</v>
+      </c>
       <c r="G45" s="14"/>
       <c r="H45" s="14"/>
     </row>
@@ -3026,9 +3286,15 @@
       <c r="C46" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
+      <c r="D46" s="14">
+        <v>98</v>
+      </c>
+      <c r="E46" s="14">
+        <v>78</v>
+      </c>
+      <c r="F46" s="14">
+        <v>0</v>
+      </c>
       <c r="G46" s="14"/>
       <c r="H46" s="14"/>
     </row>
@@ -3042,9 +3308,15 @@
       <c r="C47" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
+      <c r="D47" s="14">
+        <v>66</v>
+      </c>
+      <c r="E47" s="14">
+        <v>96</v>
+      </c>
+      <c r="F47" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="11">
@@ -3056,9 +3328,15 @@
       <c r="C48" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
+      <c r="D48" s="14">
+        <v>99</v>
+      </c>
+      <c r="E48" s="14">
+        <v>83</v>
+      </c>
+      <c r="F48" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="11">
@@ -3070,9 +3348,15 @@
       <c r="C49" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
+      <c r="D49" s="14">
+        <v>100</v>
+      </c>
+      <c r="E49" s="14">
+        <v>90</v>
+      </c>
+      <c r="F49" s="14">
+        <v>1</v>
+      </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="11">
@@ -3084,9 +3368,15 @@
       <c r="C50" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
+      <c r="D50" s="14">
+        <v>62</v>
+      </c>
+      <c r="E50" s="14">
+        <v>64</v>
+      </c>
+      <c r="F50" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="11">
@@ -3098,9 +3388,15 @@
       <c r="C51" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
+      <c r="D51" s="14">
+        <v>74</v>
+      </c>
+      <c r="E51" s="14">
+        <v>74</v>
+      </c>
+      <c r="F51" s="14">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3112,8 +3408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834C190B-3725-4BAE-B656-197A1D13BE52}">
   <dimension ref="A1:J66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3195,7 +3491,7 @@
     COUNTIF('WAR 10'!C:C,C2)*2
   ),
 2)</f>
-        <v>69.05</v>
+        <v>79.05</v>
       </c>
       <c r="E2" s="21">
         <f>IFERROR(VLOOKUP(C2,'WAR 1'!C:F,4,FALSE),0) +
@@ -3208,7 +3504,7 @@
 IFERROR(VLOOKUP(C2,'WAR 8'!C:F,4,FALSE),0) +
 IFERROR(VLOOKUP(C2,'WAR 9'!C:F,4,FALSE),0) +
 IFERROR(VLOOKUP(C2,'WAR 10'!C:F,4,FALSE),0)</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
         <v>123</v>
@@ -3292,7 +3588,7 @@
     COUNTIF('WAR 10'!C:C,C3)*2
   ),
 2)</f>
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="E3" s="21">
         <f>IFERROR(VLOOKUP(C3,'WAR 1'!C:F,4,FALSE),0) +
@@ -3305,7 +3601,7 @@
 IFERROR(VLOOKUP(C3,'WAR 8'!C:F,4,FALSE),0) +
 IFERROR(VLOOKUP(C3,'WAR 9'!C:F,4,FALSE),0) +
 IFERROR(VLOOKUP(C3,'WAR 10'!C:F,4,FALSE),0)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G3" t="s">
         <v>140</v>
@@ -3337,11 +3633,11 @@
       </c>
       <c r="I3" s="18">
         <f>SUM(E2:E66)</f>
-        <v>431</v>
+        <v>469</v>
       </c>
       <c r="J3" s="19">
         <f>'WAR 1'!F53+'WAR 2'!F53+'WAR 3'!F53+'WAR 4'!H3+'WAR 5'!H4+'WAR 6'!H4+'WAR 7'!H4+'WAR 8'!H4+'WAR 9'!H4+'WAR 10'!H4</f>
-        <v>431</v>
+        <v>469</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3391,7 +3687,7 @@
     COUNTIF('WAR 10'!C:C,C4)*2
   ),
 2)</f>
-        <v>83.05</v>
+        <v>90.95</v>
       </c>
       <c r="E4" s="21">
         <f>IFERROR(VLOOKUP(C4,'WAR 1'!C:F,4,FALSE),0) +
@@ -3482,7 +3778,7 @@
     COUNTIF('WAR 10'!C:C,C5)*2
   ),
 2)</f>
-        <v>87.3</v>
+        <v>93.95</v>
       </c>
       <c r="E5" s="21">
         <f>IFERROR(VLOOKUP(C5,'WAR 1'!C:F,4,FALSE),0) +
@@ -3573,7 +3869,7 @@
     COUNTIF('WAR 10'!C:C,C6)*2
   ),
 2)</f>
-        <v>70.05</v>
+        <v>78.849999999999994</v>
       </c>
       <c r="E6" s="21">
         <f>IFERROR(VLOOKUP(C6,'WAR 1'!C:F,4,FALSE),0) +
@@ -3664,7 +3960,7 @@
     COUNTIF('WAR 10'!C:C,C7)*2
   ),
 2)</f>
-        <v>78.599999999999994</v>
+        <v>82.95</v>
       </c>
       <c r="E7" s="21">
         <f>IFERROR(VLOOKUP(C7,'WAR 1'!C:F,4,FALSE),0) +
@@ -3755,7 +4051,7 @@
     COUNTIF('WAR 10'!C:C,C8)*2
   ),
 2)</f>
-        <v>79.650000000000006</v>
+        <v>89.65</v>
       </c>
       <c r="E8" s="21">
         <f>IFERROR(VLOOKUP(C8,'WAR 1'!C:F,4,FALSE),0) +
@@ -3768,7 +4064,7 @@
 IFERROR(VLOOKUP(C8,'WAR 8'!C:F,4,FALSE),0) +
 IFERROR(VLOOKUP(C8,'WAR 9'!C:F,4,FALSE),0) +
 IFERROR(VLOOKUP(C8,'WAR 10'!C:F,4,FALSE),0)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G8" t="s">
         <v>139</v>
@@ -3937,7 +4233,7 @@
     COUNTIF('WAR 10'!C:C,C10)*2
   ),
 2)</f>
-        <v>59.35</v>
+        <v>66.3</v>
       </c>
       <c r="E10" s="21">
         <f>IFERROR(VLOOKUP(C10,'WAR 1'!C:F,4,FALSE),0) +
@@ -4028,7 +4324,7 @@
     COUNTIF('WAR 10'!C:C,C11)*2
   ),
 2)</f>
-        <v>80.55</v>
+        <v>88.6</v>
       </c>
       <c r="E11" s="21">
         <f>IFERROR(VLOOKUP(C11,'WAR 1'!C:F,4,FALSE),0) +
@@ -4119,7 +4415,7 @@
     COUNTIF('WAR 10'!C:C,C12)*2
   ),
 2)</f>
-        <v>88.95</v>
+        <v>98.9</v>
       </c>
       <c r="E12" s="21">
         <f>IFERROR(VLOOKUP(C12,'WAR 1'!C:F,4,FALSE),0) +
@@ -4132,7 +4428,7 @@
 IFERROR(VLOOKUP(C12,'WAR 8'!C:F,4,FALSE),0) +
 IFERROR(VLOOKUP(C12,'WAR 9'!C:F,4,FALSE),0) +
 IFERROR(VLOOKUP(C12,'WAR 10'!C:F,4,FALSE),0)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G12" t="s">
         <v>125</v>
@@ -4210,7 +4506,7 @@
     COUNTIF('WAR 10'!C:C,C13)*2
   ),
 2)</f>
-        <v>89</v>
+        <v>96.1</v>
       </c>
       <c r="E13" s="21">
         <f>IFERROR(VLOOKUP(C13,'WAR 1'!C:F,4,FALSE),0) +
@@ -4223,7 +4519,7 @@
 IFERROR(VLOOKUP(C13,'WAR 8'!C:F,4,FALSE),0) +
 IFERROR(VLOOKUP(C13,'WAR 9'!C:F,4,FALSE),0) +
 IFERROR(VLOOKUP(C13,'WAR 10'!C:F,4,FALSE),0)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G13" t="s">
         <v>131</v>
@@ -4483,7 +4779,7 @@
     COUNTIF('WAR 10'!C:C,C16)*2
   ),
 2)</f>
-        <v>82.4</v>
+        <v>91.75</v>
       </c>
       <c r="E16" s="21">
         <f>IFERROR(VLOOKUP(C16,'WAR 1'!C:F,4,FALSE),0) +
@@ -4496,7 +4792,7 @@
 IFERROR(VLOOKUP(C16,'WAR 8'!C:F,4,FALSE),0) +
 IFERROR(VLOOKUP(C16,'WAR 9'!C:F,4,FALSE),0) +
 IFERROR(VLOOKUP(C16,'WAR 10'!C:F,4,FALSE),0)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G16" t="s">
         <v>126</v>
@@ -4574,7 +4870,7 @@
     COUNTIF('WAR 10'!C:C,C17)*2
   ),
 2)</f>
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="E17" s="21">
         <f>IFERROR(VLOOKUP(C17,'WAR 1'!C:F,4,FALSE),0) +
@@ -4587,7 +4883,7 @@
 IFERROR(VLOOKUP(C17,'WAR 8'!C:F,4,FALSE),0) +
 IFERROR(VLOOKUP(C17,'WAR 9'!C:F,4,FALSE),0) +
 IFERROR(VLOOKUP(C17,'WAR 10'!C:F,4,FALSE),0)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G17" t="s">
         <v>133</v>
@@ -4665,7 +4961,7 @@
     COUNTIF('WAR 10'!C:C,C18)*2
   ),
 2)</f>
-        <v>87.85</v>
+        <v>96.1</v>
       </c>
       <c r="E18" s="21">
         <f>IFERROR(VLOOKUP(C18,'WAR 1'!C:F,4,FALSE),0) +
@@ -4678,7 +4974,7 @@
 IFERROR(VLOOKUP(C18,'WAR 8'!C:F,4,FALSE),0) +
 IFERROR(VLOOKUP(C18,'WAR 9'!C:F,4,FALSE),0) +
 IFERROR(VLOOKUP(C18,'WAR 10'!C:F,4,FALSE),0)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G18" t="s">
         <v>123</v>
@@ -4756,7 +5052,7 @@
     COUNTIF('WAR 10'!C:C,C19)*2
   ),
 2)</f>
-        <v>88.45</v>
+        <v>98.05</v>
       </c>
       <c r="E19" s="21">
         <f>IFERROR(VLOOKUP(C19,'WAR 1'!C:F,4,FALSE),0) +
@@ -4769,7 +5065,7 @@
 IFERROR(VLOOKUP(C19,'WAR 8'!C:F,4,FALSE),0) +
 IFERROR(VLOOKUP(C19,'WAR 9'!C:F,4,FALSE),0) +
 IFERROR(VLOOKUP(C19,'WAR 10'!C:F,4,FALSE),0)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G19" t="s">
         <v>124</v>
@@ -4847,7 +5143,7 @@
     COUNTIF('WAR 10'!C:C,C20)*2
   ),
 2)</f>
-        <v>74.2</v>
+        <v>83.5</v>
       </c>
       <c r="E20" s="21">
         <f>IFERROR(VLOOKUP(C20,'WAR 1'!C:F,4,FALSE),0) +
@@ -4860,7 +5156,7 @@
 IFERROR(VLOOKUP(C20,'WAR 8'!C:F,4,FALSE),0) +
 IFERROR(VLOOKUP(C20,'WAR 9'!C:F,4,FALSE),0) +
 IFERROR(VLOOKUP(C20,'WAR 10'!C:F,4,FALSE),0)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G20" t="s">
         <v>137</v>
@@ -4938,7 +5234,7 @@
     COUNTIF('WAR 10'!C:C,C21)*2
   ),
 2)</f>
-        <v>83.1</v>
+        <v>93.1</v>
       </c>
       <c r="E21" s="21">
         <f>IFERROR(VLOOKUP(C21,'WAR 1'!C:F,4,FALSE),0) +
@@ -4951,7 +5247,7 @@
 IFERROR(VLOOKUP(C21,'WAR 8'!C:F,4,FALSE),0) +
 IFERROR(VLOOKUP(C21,'WAR 9'!C:F,4,FALSE),0) +
 IFERROR(VLOOKUP(C21,'WAR 10'!C:F,4,FALSE),0)</f>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G21" t="s">
         <v>130</v>
@@ -5029,7 +5325,7 @@
     COUNTIF('WAR 10'!C:C,C22)*2
   ),
 2)</f>
-        <v>82.4</v>
+        <v>90.65</v>
       </c>
       <c r="E22" s="21">
         <f>IFERROR(VLOOKUP(C22,'WAR 1'!C:F,4,FALSE),0) +
@@ -5211,7 +5507,7 @@
     COUNTIF('WAR 10'!C:C,C24)*2
   ),
 2)</f>
-        <v>88.65</v>
+        <v>98.2</v>
       </c>
       <c r="E24" s="21">
         <f>IFERROR(VLOOKUP(C24,'WAR 1'!C:F,4,FALSE),0) +
@@ -5302,7 +5598,7 @@
     COUNTIF('WAR 10'!C:C,C25)*2
   ),
 2)</f>
-        <v>83.3</v>
+        <v>89.8</v>
       </c>
       <c r="E25" s="21">
         <f>IFERROR(VLOOKUP(C25,'WAR 1'!C:F,4,FALSE),0) +
@@ -5393,7 +5689,7 @@
     COUNTIF('WAR 10'!C:C,C26)*2
   ),
 2)</f>
-        <v>58.17</v>
+        <v>73.25</v>
       </c>
       <c r="E26" s="21">
         <f>IFERROR(VLOOKUP(C26,'WAR 1'!C:F,4,FALSE),0) +
@@ -5406,7 +5702,7 @@
 IFERROR(VLOOKUP(C26,'WAR 8'!C:F,4,FALSE),0) +
 IFERROR(VLOOKUP(C26,'WAR 9'!C:F,4,FALSE),0) +
 IFERROR(VLOOKUP(C26,'WAR 10'!C:F,4,FALSE),0)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G26" t="s">
         <v>125</v>
@@ -5484,7 +5780,7 @@
     COUNTIF('WAR 10'!C:C,C27)*2
   ),
 2)</f>
-        <v>80.55</v>
+        <v>85.55</v>
       </c>
       <c r="E27" s="21">
         <f>IFERROR(VLOOKUP(C27,'WAR 1'!C:F,4,FALSE),0) +
@@ -5497,7 +5793,7 @@
 IFERROR(VLOOKUP(C27,'WAR 8'!C:F,4,FALSE),0) +
 IFERROR(VLOOKUP(C27,'WAR 9'!C:F,4,FALSE),0) +
 IFERROR(VLOOKUP(C27,'WAR 10'!C:F,4,FALSE),0)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G27" t="s">
         <v>127</v>
@@ -5575,7 +5871,7 @@
     COUNTIF('WAR 10'!C:C,C28)*2
   ),
 2)</f>
-        <v>79.400000000000006</v>
+        <v>88.15</v>
       </c>
       <c r="E28" s="21">
         <f>IFERROR(VLOOKUP(C28,'WAR 1'!C:F,4,FALSE),0) +
@@ -5588,7 +5884,7 @@
 IFERROR(VLOOKUP(C28,'WAR 8'!C:F,4,FALSE),0) +
 IFERROR(VLOOKUP(C28,'WAR 9'!C:F,4,FALSE),0) +
 IFERROR(VLOOKUP(C28,'WAR 10'!C:F,4,FALSE),0)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G28" t="s">
         <v>123</v>
@@ -5666,7 +5962,7 @@
     COUNTIF('WAR 10'!C:C,C29)*2
   ),
 2)</f>
-        <v>79.75</v>
+        <v>89.75</v>
       </c>
       <c r="E29" s="21">
         <f>IFERROR(VLOOKUP(C29,'WAR 1'!C:F,4,FALSE),0) +
@@ -5679,7 +5975,7 @@
 IFERROR(VLOOKUP(C29,'WAR 8'!C:F,4,FALSE),0) +
 IFERROR(VLOOKUP(C29,'WAR 9'!C:F,4,FALSE),0) +
 IFERROR(VLOOKUP(C29,'WAR 10'!C:F,4,FALSE),0)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G29" t="s">
         <v>138</v>
@@ -5848,7 +6144,7 @@
     COUNTIF('WAR 10'!C:C,C31)*2
   ),
 2)</f>
-        <v>61.7</v>
+        <v>71.7</v>
       </c>
       <c r="E31" s="21">
         <f>IFERROR(VLOOKUP(C31,'WAR 1'!C:F,4,FALSE),0) +
@@ -5861,7 +6157,7 @@
 IFERROR(VLOOKUP(C31,'WAR 8'!C:F,4,FALSE),0) +
 IFERROR(VLOOKUP(C31,'WAR 9'!C:F,4,FALSE),0) +
 IFERROR(VLOOKUP(C31,'WAR 10'!C:F,4,FALSE),0)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G31" t="s">
         <v>139</v>
@@ -5939,7 +6235,7 @@
     COUNTIF('WAR 10'!C:C,C32)*2
   ),
 2)</f>
-        <v>84.2</v>
+        <v>92.75</v>
       </c>
       <c r="E32" s="21">
         <f>IFERROR(VLOOKUP(C32,'WAR 1'!C:F,4,FALSE),0) +
@@ -6030,7 +6326,7 @@
     COUNTIF('WAR 10'!C:C,C33)*2
   ),
 2)</f>
-        <v>86.75</v>
+        <v>95.25</v>
       </c>
       <c r="E33" s="21">
         <f>IFERROR(VLOOKUP(C33,'WAR 1'!C:F,4,FALSE),0) +
@@ -6043,7 +6339,7 @@
 IFERROR(VLOOKUP(C33,'WAR 8'!C:F,4,FALSE),0) +
 IFERROR(VLOOKUP(C33,'WAR 9'!C:F,4,FALSE),0) +
 IFERROR(VLOOKUP(C33,'WAR 10'!C:F,4,FALSE),0)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G33" s="14" t="s">
         <v>131</v>
@@ -6121,7 +6417,7 @@
     COUNTIF('WAR 10'!C:C,C34)*2
   ),
 2)</f>
-        <v>49</v>
+        <v>56.6</v>
       </c>
       <c r="E34" s="21">
         <f>IFERROR(VLOOKUP(C34,'WAR 1'!C:F,4,FALSE),0) +
@@ -6212,7 +6508,7 @@
     COUNTIF('WAR 10'!C:C,C35)*2
   ),
 2)</f>
-        <v>86.95</v>
+        <v>94.8</v>
       </c>
       <c r="E35" s="21">
         <f>IFERROR(VLOOKUP(C35,'WAR 1'!C:F,4,FALSE),0) +
@@ -6225,7 +6521,7 @@
 IFERROR(VLOOKUP(C35,'WAR 8'!C:F,4,FALSE),0) +
 IFERROR(VLOOKUP(C35,'WAR 9'!C:F,4,FALSE),0) +
 IFERROR(VLOOKUP(C35,'WAR 10'!C:F,4,FALSE),0)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G35" s="14" t="s">
         <v>133</v>
@@ -6303,7 +6599,7 @@
     COUNTIF('WAR 10'!C:C,C36)*2
   ),
 2)</f>
-        <v>36.1</v>
+        <v>53</v>
       </c>
       <c r="E36" s="21">
         <f>IFERROR(VLOOKUP(C36,'WAR 1'!C:F,4,FALSE),0) +
@@ -6394,7 +6690,7 @@
     COUNTIF('WAR 10'!C:C,C37)*2
   ),
 2)</f>
-        <v>80.05</v>
+        <v>88.1</v>
       </c>
       <c r="E37" s="21">
         <f>IFERROR(VLOOKUP(C37,'WAR 1'!C:F,4,FALSE),0) +
@@ -6576,7 +6872,7 @@
     COUNTIF('WAR 10'!C:C,C39)*2
   ),
 2)</f>
-        <v>78.650000000000006</v>
+        <v>87.1</v>
       </c>
       <c r="E39" s="21">
         <f>IFERROR(VLOOKUP(C39,'WAR 1'!C:F,4,FALSE),0) +
@@ -6667,7 +6963,7 @@
     COUNTIF('WAR 10'!C:C,C40)*2
   ),
 2)</f>
-        <v>38.85</v>
+        <v>47.65</v>
       </c>
       <c r="E40" s="21">
         <f>IFERROR(VLOOKUP(C40,'WAR 1'!C:F,4,FALSE),0) +
@@ -6758,7 +7054,7 @@
     COUNTIF('WAR 10'!C:C,C41)*2
   ),
 2)</f>
-        <v>82.3</v>
+        <v>90.4</v>
       </c>
       <c r="E41" s="21">
         <f>IFERROR(VLOOKUP(C41,'WAR 1'!C:F,4,FALSE),0) +
@@ -7213,7 +7509,7 @@
     COUNTIF('WAR 10'!C:C,C46)*2
   ),
 2)</f>
-        <v>85.72</v>
+        <v>92.72</v>
       </c>
       <c r="E46" s="21">
         <f>IFERROR(VLOOKUP(C46,'WAR 1'!C:F,4,FALSE),0) +
@@ -7304,7 +7600,7 @@
     COUNTIF('WAR 10'!C:C,C47)*2
   ),
 2)</f>
-        <v>87.9</v>
+        <v>97.4</v>
       </c>
       <c r="E47" s="21">
         <f>IFERROR(VLOOKUP(C47,'WAR 1'!C:F,4,FALSE),0) +
@@ -7317,7 +7613,7 @@
 IFERROR(VLOOKUP(C47,'WAR 8'!C:F,4,FALSE),0) +
 IFERROR(VLOOKUP(C47,'WAR 9'!C:F,4,FALSE),0) +
 IFERROR(VLOOKUP(C47,'WAR 10'!C:F,4,FALSE),0)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G47" s="14" t="s">
         <v>137</v>
@@ -7395,7 +7691,7 @@
     COUNTIF('WAR 10'!C:C,C48)*2
   ),
 2)</f>
-        <v>76.61</v>
+        <v>84.83</v>
       </c>
       <c r="E48" s="21">
         <f>IFERROR(VLOOKUP(C48,'WAR 1'!C:F,4,FALSE),0) +
@@ -7759,7 +8055,7 @@
     COUNTIF('WAR 10'!C:C,C52)*2
   ),
 2)</f>
-        <v>62.61</v>
+        <v>68.44</v>
       </c>
       <c r="E52" s="21">
         <f>IFERROR(VLOOKUP(C52,'WAR 1'!C:F,4,FALSE),0) +
@@ -7850,7 +8146,7 @@
     COUNTIF('WAR 10'!C:C,C53)*2
   ),
 2)</f>
-        <v>88.06</v>
+        <v>98.61</v>
       </c>
       <c r="E53" s="21">
         <f>IFERROR(VLOOKUP(C53,'WAR 1'!C:F,4,FALSE),0) +
@@ -7863,7 +8159,7 @@
 IFERROR(VLOOKUP(C53,'WAR 8'!C:F,4,FALSE),0) +
 IFERROR(VLOOKUP(C53,'WAR 9'!C:F,4,FALSE),0) +
 IFERROR(VLOOKUP(C53,'WAR 10'!C:F,4,FALSE),0)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G53" s="14" t="s">
         <v>129</v>
@@ -8032,7 +8328,7 @@
     COUNTIF('WAR 10'!C:C,C55)*2
   ),
 2)</f>
-        <v>78.39</v>
+        <v>88.5</v>
       </c>
       <c r="E55" s="21">
         <f>IFERROR(VLOOKUP(C55,'WAR 1'!C:F,4,FALSE),0) +
@@ -8123,7 +8419,7 @@
     COUNTIF('WAR 10'!C:C,C56)*2
   ),
 2)</f>
-        <v>83.5</v>
+        <v>96</v>
       </c>
       <c r="E56" s="21">
         <f>IFERROR(VLOOKUP(C56,'WAR 1'!C:F,4,FALSE),0) +
@@ -8136,7 +8432,7 @@
 IFERROR(VLOOKUP(C56,'WAR 8'!C:F,4,FALSE),0) +
 IFERROR(VLOOKUP(C56,'WAR 9'!C:F,4,FALSE),0) +
 IFERROR(VLOOKUP(C56,'WAR 10'!C:F,4,FALSE),0)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G56" s="14" t="s">
         <v>127</v>
@@ -8305,7 +8601,7 @@
     COUNTIF('WAR 10'!C:C,C58)*2
   ),
 2)</f>
-        <v>58.36</v>
+        <v>72.64</v>
       </c>
       <c r="E58" s="21">
         <f>IFERROR(VLOOKUP(C58,'WAR 1'!C:F,4,FALSE),0) +
@@ -8318,7 +8614,7 @@
 IFERROR(VLOOKUP(C58,'WAR 8'!C:F,4,FALSE),0) +
 IFERROR(VLOOKUP(C58,'WAR 9'!C:F,4,FALSE),0) +
 IFERROR(VLOOKUP(C58,'WAR 10'!C:F,4,FALSE),0)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G58" s="14" t="s">
         <v>139</v>
@@ -8487,7 +8783,7 @@
     COUNTIF('WAR 10'!C:C,C60)*2
   ),
 2)</f>
-        <v>75.42</v>
+        <v>91.75</v>
       </c>
       <c r="E60" s="21">
         <f>IFERROR(VLOOKUP(C60,'WAR 1'!C:F,4,FALSE),0) +
@@ -8500,7 +8796,7 @@
 IFERROR(VLOOKUP(C60,'WAR 8'!C:F,4,FALSE),0) +
 IFERROR(VLOOKUP(C60,'WAR 9'!C:F,4,FALSE),0) +
 IFERROR(VLOOKUP(C60,'WAR 10'!C:F,4,FALSE),0)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G60" s="14" t="s">
         <v>132</v>
@@ -8578,7 +8874,7 @@
     COUNTIF('WAR 10'!C:C,C61)*2
   ),
 2)</f>
-        <v>81.92</v>
+        <v>94.83</v>
       </c>
       <c r="E61" s="21">
         <f>IFERROR(VLOOKUP(C61,'WAR 1'!C:F,4,FALSE),0) +
@@ -8591,7 +8887,7 @@
 IFERROR(VLOOKUP(C61,'WAR 8'!C:F,4,FALSE),0) +
 IFERROR(VLOOKUP(C61,'WAR 9'!C:F,4,FALSE),0) +
 IFERROR(VLOOKUP(C61,'WAR 10'!C:F,4,FALSE),0)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G61" s="14" t="s">
         <v>156</v>
@@ -8669,7 +8965,7 @@
     COUNTIF('WAR 10'!C:C,C62)*2
   ),
 2)</f>
-        <v>66</v>
+        <v>73.42</v>
       </c>
       <c r="E62" s="21">
         <f>IFERROR(VLOOKUP(C62,'WAR 1'!C:F,4,FALSE),0) +
@@ -8760,7 +9056,7 @@
     COUNTIF('WAR 10'!C:C,C63)*2
   ),
 2)</f>
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="E63" s="21">
         <f>IFERROR(VLOOKUP(C63,'WAR 1'!C:F,4,FALSE),0) +
@@ -8773,7 +9069,7 @@
 IFERROR(VLOOKUP(C63,'WAR 8'!C:F,4,FALSE),0) +
 IFERROR(VLOOKUP(C63,'WAR 9'!C:F,4,FALSE),0) +
 IFERROR(VLOOKUP(C63,'WAR 10'!C:F,4,FALSE),0)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G63" s="14" t="s">
         <v>163</v>
@@ -8851,7 +9147,7 @@
     COUNTIF('WAR 10'!C:C,C64)*2
   ),
 2)</f>
-        <v>40.83</v>
+        <v>67.5</v>
       </c>
       <c r="E64" s="21">
         <f>IFERROR(VLOOKUP(C64,'WAR 1'!C:F,4,FALSE),0) +
@@ -8864,7 +9160,7 @@
 IFERROR(VLOOKUP(C64,'WAR 8'!C:F,4,FALSE),0) +
 IFERROR(VLOOKUP(C64,'WAR 9'!C:F,4,FALSE),0) +
 IFERROR(VLOOKUP(C64,'WAR 10'!C:F,4,FALSE),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G64" s="14" t="s">
         <v>137</v>
@@ -8942,7 +9238,7 @@
     COUNTIF('WAR 10'!C:C,C65)*2
   ),
 2)</f>
-        <v>50</v>
+        <v>99.5</v>
       </c>
       <c r="E65" s="21">
         <f>IFERROR(VLOOKUP(C65,'WAR 1'!C:F,4,FALSE),0) +
@@ -9033,7 +9329,7 @@
     COUNTIF('WAR 10'!C:C,C66)*2
   ),
 2)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E66" s="21">
         <f>IFERROR(VLOOKUP(C66,'WAR 1'!C:F,4,FALSE),0) +
@@ -9046,7 +9342,7 @@
 IFERROR(VLOOKUP(C66,'WAR 8'!C:F,4,FALSE),0) +
 IFERROR(VLOOKUP(C66,'WAR 9'!C:F,4,FALSE),0) +
 IFERROR(VLOOKUP(C66,'WAR 10'!C:F,4,FALSE),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G66" t="s">
         <v>131</v>

--- a/Cards/OFWELITES2.xlsx
+++ b/Cards/OFWELITES2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\website\OFW Elites\Cards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E7C5DC-DFC9-4F0E-9FA9-B01C06A367B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B8C95C-9670-41FC-B9C5-FFE26A124B34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="5" activeTab="10" xr2:uid="{D063F3AD-9D9C-4914-A2D2-97CFBC4909E9}"/>
   </bookViews>
@@ -2283,8 +2283,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{170D9E5E-2166-4C64-86AE-5F552B8DA9B7}">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2382,7 +2382,7 @@
       <c r="G4" s="14"/>
       <c r="H4" s="30">
         <f>SUM(F2:F51)</f>
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -2444,12 +2444,16 @@
       <c r="D7" s="14">
         <v>87</v>
       </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
+      <c r="E7" s="14">
+        <v>100</v>
+      </c>
+      <c r="F7" s="14">
+        <v>1</v>
+      </c>
       <c r="G7" s="14"/>
       <c r="H7" s="25">
         <f>COUNTIF(D2:E51, 0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -2949,9 +2953,11 @@
       <c r="D30" s="14">
         <v>100</v>
       </c>
-      <c r="E30" s="14"/>
+      <c r="E30" s="14">
+        <v>100</v>
+      </c>
       <c r="F30" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G30" s="14"/>
       <c r="H30" s="14"/>
@@ -3230,9 +3236,15 @@
       <c r="C43" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
+      <c r="D43" s="14">
+        <v>0</v>
+      </c>
+      <c r="E43" s="14">
+        <v>0</v>
+      </c>
+      <c r="F43" s="14">
+        <v>0</v>
+      </c>
       <c r="G43" s="14"/>
       <c r="H43" s="14"/>
     </row>
@@ -3249,8 +3261,12 @@
       <c r="D44" s="14">
         <v>89</v>
       </c>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
+      <c r="E44" s="14">
+        <v>0</v>
+      </c>
+      <c r="F44" s="14">
+        <v>0</v>
+      </c>
       <c r="G44" s="14"/>
       <c r="H44" s="14"/>
     </row>
@@ -3408,7 +3424,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834C190B-3725-4BAE-B656-197A1D13BE52}">
   <dimension ref="A1:J66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
@@ -3633,11 +3649,11 @@
       </c>
       <c r="I3" s="18">
         <f>SUM(E2:E66)</f>
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="J3" s="19">
         <f>'WAR 1'!F53+'WAR 2'!F53+'WAR 3'!F53+'WAR 4'!H3+'WAR 5'!H4+'WAR 6'!H4+'WAR 7'!H4+'WAR 8'!H4+'WAR 9'!H4+'WAR 10'!H4</f>
-        <v>469</v>
+        <v>471</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3960,7 +3976,7 @@
     COUNTIF('WAR 10'!C:C,C7)*2
   ),
 2)</f>
-        <v>82.95</v>
+        <v>87.95</v>
       </c>
       <c r="E7" s="21">
         <f>IFERROR(VLOOKUP(C7,'WAR 1'!C:F,4,FALSE),0) +
@@ -3973,7 +3989,7 @@
 IFERROR(VLOOKUP(C7,'WAR 8'!C:F,4,FALSE),0) +
 IFERROR(VLOOKUP(C7,'WAR 9'!C:F,4,FALSE),0) +
 IFERROR(VLOOKUP(C7,'WAR 10'!C:F,4,FALSE),0)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G7" t="s">
         <v>127</v>
@@ -5780,7 +5796,7 @@
     COUNTIF('WAR 10'!C:C,C27)*2
   ),
 2)</f>
-        <v>85.55</v>
+        <v>90.55</v>
       </c>
       <c r="E27" s="21">
         <f>IFERROR(VLOOKUP(C27,'WAR 1'!C:F,4,FALSE),0) +
@@ -5793,7 +5809,7 @@
 IFERROR(VLOOKUP(C27,'WAR 8'!C:F,4,FALSE),0) +
 IFERROR(VLOOKUP(C27,'WAR 9'!C:F,4,FALSE),0) +
 IFERROR(VLOOKUP(C27,'WAR 10'!C:F,4,FALSE),0)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G27" t="s">
         <v>127</v>
@@ -16796,8 +16812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B1958B4-588D-494A-AE33-CCD44BE86AB9}">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Cards/OFWELITES2.xlsx
+++ b/Cards/OFWELITES2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\website\OFW Elites\Cards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B8C95C-9670-41FC-B9C5-FFE26A124B34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F021103-E84F-4232-A102-0AFC2B0E549A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="5" activeTab="10" xr2:uid="{D063F3AD-9D9C-4914-A2D2-97CFBC4909E9}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" firstSheet="5" activeTab="10" xr2:uid="{D063F3AD-9D9C-4914-A2D2-97CFBC4909E9}"/>
   </bookViews>
   <sheets>
     <sheet name="WAR 1" sheetId="2" r:id="rId1"/>
@@ -3424,8 +3424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834C190B-3725-4BAE-B656-197A1D13BE52}">
   <dimension ref="A1:J66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G66" sqref="G66"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
